--- a/tablas_ base de datos.xlsx
+++ b/tablas_ base de datos.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
-  <workbookPr checkCompatibility="1" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flor\Desktop\VisteteDePoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB08F17-47F2-4EE7-9296-3F26E3FA351D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7211BEE2-9FD4-4DC5-8B64-9F40839AEFC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="78">
   <si>
     <t>PRODUCTOS</t>
   </si>
@@ -37,9 +36,6 @@
     <t>precio</t>
   </si>
   <si>
-    <t>categoría_id</t>
-  </si>
-  <si>
     <t>updated_at</t>
   </si>
   <si>
@@ -74,9 +70,6 @@
   </si>
   <si>
     <t>precio_congelado</t>
-  </si>
-  <si>
-    <t>imagen_id</t>
   </si>
   <si>
     <t>IMAGEN</t>
@@ -402,12 +395,137 @@
       <t xml:space="preserve"> (FK)</t>
     </r>
   </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>remera</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">subcategoría_id </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(FK)</t>
+    </r>
+  </si>
+  <si>
+    <t>barbijo</t>
+  </si>
+  <si>
+    <t>gorra</t>
+  </si>
+  <si>
+    <t>termo</t>
+  </si>
+  <si>
+    <t>botella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bolso </t>
+  </si>
+  <si>
+    <t>cartuchera</t>
+  </si>
+  <si>
+    <t>mochila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nombre </t>
+  </si>
+  <si>
+    <t>falta subcategoria_id?</t>
+  </si>
+  <si>
+    <t>subindumentaria_id (FK)</t>
+  </si>
+  <si>
+    <t>submerchandising_id (FK)</t>
+  </si>
+  <si>
+    <t>subaccesorios_id (FK)</t>
+  </si>
+  <si>
+    <t>indumentaria</t>
+  </si>
+  <si>
+    <t>merchandising</t>
+  </si>
+  <si>
+    <t>accesorios</t>
+  </si>
+  <si>
+    <t>bolso</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>niño</t>
+  </si>
+  <si>
+    <t>mujer</t>
+  </si>
+  <si>
+    <t>hombre</t>
+  </si>
+  <si>
+    <t>agregar genero y talle en la tabla de productos?</t>
+  </si>
+  <si>
+    <t>rel de muchos a muchos</t>
+  </si>
+  <si>
+    <t>o hacer directamente que se conecten con productos??</t>
+  </si>
+  <si>
+    <t>cambiar las flechitas</t>
+  </si>
+  <si>
+    <t>frida</t>
+  </si>
+  <si>
+    <t>cortazar</t>
+  </si>
+  <si>
+    <t>alicia</t>
+  </si>
+  <si>
+    <t>poe</t>
+  </si>
+  <si>
+    <t>unir todo en un tabla</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,8 +541,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -449,8 +582,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -540,16 +679,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -571,6 +723,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,7 +774,7 @@
         <xdr:cNvPr id="16" name="Conector recto 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A072B79-96DA-4144-950A-9E1BE4100F27}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A072B79-96DA-4144-950A-9E1BE4100F27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -658,7 +824,7 @@
         <xdr:cNvPr id="32" name="Conector recto 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3F19646-5C56-4FE1-B3BE-5CDD9584255E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3F19646-5C56-4FE1-B3BE-5CDD9584255E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -708,7 +874,7 @@
         <xdr:cNvPr id="35" name="Conector recto 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7525126B-8AB9-4C6E-B7E3-2E539175B567}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7525126B-8AB9-4C6E-B7E3-2E539175B567}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -758,7 +924,7 @@
         <xdr:cNvPr id="36" name="Conector recto 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CAF5DB1-0E1D-4382-AAF4-60C065A61A5B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CAF5DB1-0E1D-4382-AAF4-60C065A61A5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -808,7 +974,7 @@
         <xdr:cNvPr id="49" name="Conector recto 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25EBC5B6-6DB1-4D51-9143-185ECCAC5E06}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25EBC5B6-6DB1-4D51-9143-185ECCAC5E06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -858,7 +1024,7 @@
         <xdr:cNvPr id="51" name="Conector recto 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C65B24CF-0C4F-4BFE-BCFE-BBF811289CBC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C65B24CF-0C4F-4BFE-BCFE-BBF811289CBC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -908,7 +1074,7 @@
         <xdr:cNvPr id="53" name="Conector recto 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D583892F-1ED9-410B-92D9-B598D60099FA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D583892F-1ED9-410B-92D9-B598D60099FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -958,7 +1124,7 @@
         <xdr:cNvPr id="55" name="Conector recto 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1088148-517E-42C9-B678-F1F6EF7BD53C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1088148-517E-42C9-B678-F1F6EF7BD53C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1008,7 +1174,7 @@
         <xdr:cNvPr id="56" name="Conector recto 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9D8FF96-9F78-4E29-81B0-306C8E5044DA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9D8FF96-9F78-4E29-81B0-306C8E5044DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1058,7 +1224,7 @@
         <xdr:cNvPr id="59" name="Conector recto 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D1F74EF-6A67-467A-B4DB-4B1C815736C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D1F74EF-6A67-467A-B4DB-4B1C815736C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1108,7 +1274,7 @@
         <xdr:cNvPr id="61" name="Conector recto 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0455AA4D-01AE-4932-95C0-159F8D53CA8A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0455AA4D-01AE-4932-95C0-159F8D53CA8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1158,7 +1324,7 @@
         <xdr:cNvPr id="63" name="Conector recto 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48282635-5F2C-400F-B0C6-D83D068F5C77}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48282635-5F2C-400F-B0C6-D83D068F5C77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1208,7 +1374,7 @@
         <xdr:cNvPr id="66" name="Conector recto 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{233F4047-E881-48F1-9BE5-4D80FF3E06DB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{233F4047-E881-48F1-9BE5-4D80FF3E06DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1258,7 +1424,7 @@
         <xdr:cNvPr id="68" name="Conector recto 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4320789-2C48-402C-955E-EC351730995B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4320789-2C48-402C-955E-EC351730995B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1308,7 +1474,7 @@
         <xdr:cNvPr id="71" name="Conector recto 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B0BAC11-3E78-422E-B303-C87BF37324C3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B0BAC11-3E78-422E-B303-C87BF37324C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1358,7 +1524,7 @@
         <xdr:cNvPr id="73" name="Conector recto 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE2827EC-603F-4C5C-BA1A-CEED3B9AB256}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE2827EC-603F-4C5C-BA1A-CEED3B9AB256}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1408,7 +1574,7 @@
         <xdr:cNvPr id="74" name="Conector recto 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{416D10CA-F556-4A5F-8F09-66E53E74FC64}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{416D10CA-F556-4A5F-8F09-66E53E74FC64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1458,7 +1624,7 @@
         <xdr:cNvPr id="76" name="Conector recto 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FEDD357-7547-4266-9123-9C881FBDB872}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FEDD357-7547-4266-9123-9C881FBDB872}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1508,7 +1674,7 @@
         <xdr:cNvPr id="81" name="Conector recto 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90A5742A-9AAC-4B2A-B7D1-AD5DF070E5D9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90A5742A-9AAC-4B2A-B7D1-AD5DF070E5D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1558,7 +1724,7 @@
         <xdr:cNvPr id="82" name="Conector recto 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7822DB9A-7DE0-49BE-B152-4AE0FC2E793B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7822DB9A-7DE0-49BE-B152-4AE0FC2E793B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1608,7 +1774,7 @@
         <xdr:cNvPr id="86" name="Conector recto 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{906C12C9-59BA-4DBA-B3CF-DC16DED992D9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{906C12C9-59BA-4DBA-B3CF-DC16DED992D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1658,7 +1824,7 @@
         <xdr:cNvPr id="87" name="Conector recto 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B22D30B6-257C-4A8D-B2A1-B7896F610162}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B22D30B6-257C-4A8D-B2A1-B7896F610162}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1708,7 +1874,7 @@
         <xdr:cNvPr id="90" name="Conector recto 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{083B99B4-80C8-4E27-A02B-DD85508F823D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{083B99B4-80C8-4E27-A02B-DD85508F823D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1758,7 +1924,7 @@
         <xdr:cNvPr id="91" name="Conector recto 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE670790-4473-42EB-8F3E-0EDE75151C85}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE670790-4473-42EB-8F3E-0EDE75151C85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1808,7 +1974,7 @@
         <xdr:cNvPr id="92" name="Conector recto 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F1829A6-7FF1-4179-A252-3DB172A12FAC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F1829A6-7FF1-4179-A252-3DB172A12FAC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1858,7 +2024,7 @@
         <xdr:cNvPr id="93" name="Conector recto 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B31B7A99-D21F-403D-831D-4EC1A90E88B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B31B7A99-D21F-403D-831D-4EC1A90E88B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1908,7 +2074,7 @@
         <xdr:cNvPr id="100" name="Conector recto 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{257767F7-ADC8-4812-AB60-B38EC395E4D5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{257767F7-ADC8-4812-AB60-B38EC395E4D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1958,7 +2124,7 @@
         <xdr:cNvPr id="101" name="Conector recto 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{131B8965-46DC-40BB-A8FE-C6A1D08961DD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{131B8965-46DC-40BB-A8FE-C6A1D08961DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2008,7 +2174,7 @@
         <xdr:cNvPr id="106" name="Conector recto 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57D4F700-8365-4720-8B88-1B733FC1A9C6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57D4F700-8365-4720-8B88-1B733FC1A9C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2058,7 +2224,7 @@
         <xdr:cNvPr id="108" name="Conector recto 107">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70BF7A33-CDF8-4941-9817-4D9667D01636}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70BF7A33-CDF8-4941-9817-4D9667D01636}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2108,7 +2274,7 @@
         <xdr:cNvPr id="109" name="Conector recto 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5F8011F-CFA5-4878-AF1A-04DD5B685396}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5F8011F-CFA5-4878-AF1A-04DD5B685396}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2158,7 +2324,7 @@
         <xdr:cNvPr id="111" name="Conector recto 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40ACDE84-162F-4B48-9F6B-66D9F8378FD7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40ACDE84-162F-4B48-9F6B-66D9F8378FD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2208,7 +2374,7 @@
         <xdr:cNvPr id="114" name="Conector recto 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{767CE4F8-259B-4036-8E2F-41119AD9CF66}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{767CE4F8-259B-4036-8E2F-41119AD9CF66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2258,7 +2424,7 @@
         <xdr:cNvPr id="116" name="Conector recto 115">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58C93F8D-A6B3-4484-8BF4-A08910F43668}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58C93F8D-A6B3-4484-8BF4-A08910F43668}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2308,7 +2474,7 @@
         <xdr:cNvPr id="128" name="Conector recto 127">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBA4E9E0-5B1B-474E-822E-E04FBB0B336C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBA4E9E0-5B1B-474E-822E-E04FBB0B336C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2358,7 +2524,7 @@
         <xdr:cNvPr id="130" name="Conector recto 129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF7FFEF7-33E4-4F10-A80B-2DD5C3AC9D3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF7FFEF7-33E4-4F10-A80B-2DD5C3AC9D3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2408,7 +2574,7 @@
         <xdr:cNvPr id="131" name="Conector recto 130">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C02AEC7C-69FC-4C3F-AACF-05927F8BAD88}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C02AEC7C-69FC-4C3F-AACF-05927F8BAD88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2458,7 +2624,7 @@
         <xdr:cNvPr id="132" name="Conector recto 131">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DE5FB67-5A11-42EE-BCCF-A895B1BA8DB7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DE5FB67-5A11-42EE-BCCF-A895B1BA8DB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2508,7 +2674,7 @@
         <xdr:cNvPr id="133" name="Conector recto 132">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0026D0A-FB63-457A-9009-888FBDFD75E7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0026D0A-FB63-457A-9009-888FBDFD75E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2558,7 +2724,7 @@
         <xdr:cNvPr id="136" name="Conector recto 135">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC3460BF-D53B-440C-87D9-ABFEE1E3CBF3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC3460BF-D53B-440C-87D9-ABFEE1E3CBF3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2608,7 +2774,7 @@
         <xdr:cNvPr id="139" name="Conector recto 138">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E433809-3A10-4932-B689-4325BAB5C9F7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E433809-3A10-4932-B689-4325BAB5C9F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2658,7 +2824,7 @@
         <xdr:cNvPr id="141" name="Conector recto 140">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5993C955-D9DC-4BB8-8FEA-6E89C523A74C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5993C955-D9DC-4BB8-8FEA-6E89C523A74C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2708,7 +2874,7 @@
         <xdr:cNvPr id="142" name="Conector recto 141">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B578C1B6-25CB-4C27-9D8B-B20C71D61C8B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B578C1B6-25CB-4C27-9D8B-B20C71D61C8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2758,7 +2924,7 @@
         <xdr:cNvPr id="143" name="Conector recto 142">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE1EA6B1-9CCB-438C-8327-7AAED36FF081}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE1EA6B1-9CCB-438C-8327-7AAED36FF081}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2768,6 +2934,61 @@
         <a:xfrm>
           <a:off x="13184809" y="1078396"/>
           <a:ext cx="227495" cy="205408"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Conector recto 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1088148-517E-42C9-B678-F1F6EF7BD53C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2895600" y="4470400"/>
+          <a:ext cx="184150" cy="174625"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3089,11 +3310,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DF785E-82DD-4232-849D-C8CF60FBB527}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3101,7 +3322,7 @@
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
     <col min="5" max="5" width="26.85546875" customWidth="1"/>
     <col min="6" max="6" width="59.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
@@ -3114,386 +3335,402 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="13" t="s">
-        <v>13</v>
+      <c r="F2" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="F3" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="12" t="s">
+      <c r="C3" s="4"/>
+      <c r="F3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="F4" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>25</v>
+      <c r="B4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="F4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="F5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>25</v>
+        <v>10</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="F6" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="I6" s="14" t="s">
-        <v>38</v>
+      <c r="C6" s="3"/>
+      <c r="F6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="I6" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="F7" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="F7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="3"/>
       <c r="I7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="F8" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="F9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="F8" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="F9" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="K11" s="12" t="s">
-        <v>32</v>
+        <v>4</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="I11" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="K12" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="12" t="s">
+    </row>
+    <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="23"/>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="K20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="4"/>
+      <c r="K21" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="4"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4"/>
+      <c r="I22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="I23" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="I24" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D25" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="I25" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="I26" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="3"/>
+      <c r="F27" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="I30" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G31" s="3"/>
+      <c r="I31" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="I32" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="K12" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="G33" s="3"/>
+      <c r="I33" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="2" t="s">
+    <row r="34" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="I34" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D35" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="K20" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G21" s="6"/>
-      <c r="K21" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="6"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="6"/>
-      <c r="I22" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="5"/>
-      <c r="I23" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D24" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="5"/>
-      <c r="I24" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D25" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="I25" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="I26" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E27" s="5"/>
-      <c r="F27" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="I30" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G31" s="5"/>
-      <c r="I31" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="5"/>
-      <c r="I32" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="5"/>
-      <c r="I33" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="5"/>
-      <c r="I34" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D35" s="9" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="36" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="10" t="s">
-        <v>4</v>
+      <c r="D36" s="8" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3504,65 +3741,1124 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B00009-7F69-4985-A7F0-D9FFED531958}">
-  <dimension ref="C2:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:L89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="4" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="3">
+      <c r="B5" s="4"/>
+      <c r="C5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="21">
+        <v>1</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="21">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="21">
+        <v>2</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="21">
+        <v>250</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="21">
+        <v>3</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="21">
+        <v>500</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="21">
+        <v>4</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="21">
+        <v>300</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="21">
+        <v>5</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="21">
+        <v>1200</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="21">
+        <v>6</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="21">
+        <v>600</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="21">
+        <v>7</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="21">
+        <v>900</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="21">
+        <v>8</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="21">
+        <v>700</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="21">
+        <v>9</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="21">
+        <v>900</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="21">
+        <v>1</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="21">
+        <v>2</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="21">
+        <v>3</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="29"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="21">
+        <v>1</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="21">
+        <v>2</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="21">
+        <v>3</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="21">
+        <v>1</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="27"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="21">
+        <v>2</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="21">
+        <v>3</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="21">
+        <v>1</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="21">
+        <v>2</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="21">
+        <v>3</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="21">
+        <v>4</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="21">
+        <v>1</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="21">
+        <v>2</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="21">
+        <v>3</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="21">
+        <v>1</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="21">
+        <v>2</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="21">
+        <v>3</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="21">
+        <v>1</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="21">
+        <v>2</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="21">
+        <v>3</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="21">
+        <v>4</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="21">
+        <v>1</v>
+      </c>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" s="21">
+        <v>2</v>
+      </c>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="21">
+        <v>3</v>
+      </c>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+    </row>
+    <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="1">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
+      <c r="C68" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H68" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="21">
+        <v>1</v>
+      </c>
+      <c r="D69" s="21"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C70" s="21">
+        <v>2</v>
+      </c>
+      <c r="D70" s="21"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="21">
+        <v>3</v>
+      </c>
+      <c r="D71" s="21"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+    </row>
+    <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
+      <c r="C75" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E75" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I75" s="21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="21">
+        <v>1</v>
+      </c>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C77" s="21">
+        <v>2</v>
+      </c>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" s="21">
+        <v>3</v>
+      </c>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="21">
+        <v>4</v>
+      </c>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="21">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="2" t="s">
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="18" t="s">
         <v>4</v>
       </c>
+      <c r="C81" s="21">
+        <v>6</v>
+      </c>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+    </row>
+    <row r="82" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="21">
+        <v>7</v>
+      </c>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+    </row>
+    <row r="83" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F84" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G84" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+    </row>
+    <row r="89" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/tablas_ base de datos.xlsx
+++ b/tablas_ base de datos.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr checkCompatibility="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr checkCompatibility="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flor\Desktop\VisteteDePoder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\carpetaLaura\TP\VisteteDePoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7C01C5-7E1E-4F2A-9964-0A250922EDA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="BASE DE DATOS" sheetId="3" r:id="rId1"/>
+    <sheet name="Análisis de Tablas" sheetId="2" r:id="rId2"/>
+    <sheet name="Análisis de Tablas (2)" sheetId="4" r:id="rId3"/>
+    <sheet name="VERSIÓN VIEJA" sheetId="1" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Análisis de Tablas'!$L$16:$N$25</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="93">
   <si>
     <t>PRODUCTOS</t>
   </si>
@@ -520,11 +526,162 @@
   <si>
     <t>unir todo en un tabla</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>subcategoria_id</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>SUBCATEGORIA</t>
+  </si>
+  <si>
+    <t>SUBCATEGORIAS</t>
+  </si>
+  <si>
+    <t>INDUMENTARIA</t>
+  </si>
+  <si>
+    <t>SUBCATEGORÍAS</t>
+  </si>
+  <si>
+    <t>Indumentaria</t>
+  </si>
+  <si>
+    <t>Merchandising</t>
+  </si>
+  <si>
+    <t>Accesorios</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>diseño_producto_id</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (FK)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">subcategoria_id </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(FK)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">genero_producto_id </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(FK)</t>
+    </r>
+  </si>
+  <si>
+    <t>GENERO_PRODUCTO</t>
+  </si>
+  <si>
+    <t>PRODUCTO_TALLE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">talle_id </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(FK)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">producto_talle_id </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(FK)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -589,7 +746,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -694,11 +851,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -737,6 +909,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -760,6 +934,1101 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>110435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1780761</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>110435</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Conector recto 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5CFFE3B-A18B-468B-8C42-DE7A43719E22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2247900" y="1101035"/>
+          <a:ext cx="4038186" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1449457</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>96631</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>213691</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>108778</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Conector recto 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14236C5E-82C3-47B4-B0C3-22CD4861B9AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2240032" y="896731"/>
+          <a:ext cx="221559" cy="202647"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1560444</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>110987</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1787939</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123134</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Conector recto 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CEE3676-2F13-4A7A-8394-1B0101152E94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6065769" y="1101587"/>
+          <a:ext cx="227495" cy="202647"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1443385</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>138044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>234674</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38653</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Conector recto 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{989A785C-5763-414B-9FFF-0B89A22D2FB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2233960" y="1128644"/>
+          <a:ext cx="248614" cy="91109"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>463829</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>13805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>108227</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Conector recto 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE19F8D5-ED6B-4F38-9969-F7E58C2F73DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11341379" y="1004405"/>
+          <a:ext cx="250546" cy="94422"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1546086</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>179457</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5518</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>80618</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Conector recto 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{280EFBAE-A2AD-41E4-8EDF-9674D6898D63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6051411" y="979557"/>
+          <a:ext cx="250132" cy="91661"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3961849</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>110435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>124239</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Conector recto 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56E4984F-323B-472B-ADFB-79EC36BDBFD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10257874" y="1101035"/>
+          <a:ext cx="1334051" cy="13804"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3970685</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>138596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>249029</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>39757</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Conector recto 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B786ADF8-0446-457C-BDC3-3BC2C46CF9EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10266710" y="1129196"/>
+          <a:ext cx="250269" cy="91661"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3949148</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>111540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200990</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123687</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Conector recto 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB027A80-E401-4516-8F83-74F5AEE94D7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10245173" y="911640"/>
+          <a:ext cx="223767" cy="202647"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>471005</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>112092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>124239</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Conector recto 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{252D2B47-EC9B-46AA-8F51-9229FCC3F815}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11348555" y="1102692"/>
+          <a:ext cx="227495" cy="202647"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1406551</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>107983</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>127269</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>139393</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Flecha: a la izquierda, derecha y arriba 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB9934DE-6737-4350-9051-6C7E1F2E73F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="6589734" flipH="1">
+          <a:off x="4237355" y="45779"/>
+          <a:ext cx="221910" cy="4308718"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightUpArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1342858</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>307452</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>118810</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Flecha: a la izquierda, derecha y arriba 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3097E1F8-85AD-4C9B-A988-60B813646FDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="7168936" flipH="1">
+          <a:off x="4282214" y="1058272"/>
+          <a:ext cx="248682" cy="4552594"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightUpArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>768854</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>64456</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>127018</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>16174</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Flecha: a la izquierda, derecha y arriba 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB06C2DC-CFEB-43E3-ADDB-925B81771409}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19600914" flipH="1">
+          <a:off x="3092954" y="2820356"/>
+          <a:ext cx="183664" cy="3291818"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightUpArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12698</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>5632</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1739899</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>177799</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Flecha: a la izquierda, derecha y arriba 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="5374915" y="5514615"/>
+          <a:ext cx="172167" cy="1727201"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightUpArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1435098</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>170732</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1727199</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Flecha: a la izquierda, derecha y arriba 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A357813C-8AF8-4299-BA91-0A528ED1F6BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="5362215" y="8054615"/>
+          <a:ext cx="172167" cy="1727201"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightUpArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12698</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>158032</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1739899</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>139699</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Flecha: a la izquierda, derecha y arriba 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADF86149-9AF8-4979-9898-D92F280DF2FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="5374915" y="6657615"/>
+          <a:ext cx="172167" cy="1727201"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightUpArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1240830</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>192714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1446818</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>180726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Flecha: a la izquierda, derecha y arriba 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A207FFC-329A-4274-9A1D-BEBC97BC4C01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20516351" flipH="1">
+          <a:off x="2028230" y="2745414"/>
+          <a:ext cx="205988" cy="6287212"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightUpArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66812</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>107736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>330672</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>111460</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Flecha: a la izquierda, derecha y arriba 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E1F9FBF-07B9-42FC-AD07-5156F2305EE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20581134" flipH="1">
+          <a:off x="2390912" y="2863636"/>
+          <a:ext cx="263860" cy="4715424"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightUpArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Conector recto 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2895600" y="4470400"/>
+          <a:ext cx="184150" cy="174625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Conector recto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B76CAEE4-09D7-41C5-9067-4444BF67D33E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="12176125"/>
+          <a:ext cx="0" cy="174625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>96630</xdr:rowOff>
     </xdr:from>
@@ -774,7 +2043,7 @@
         <xdr:cNvPr id="16" name="Conector recto 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A072B79-96DA-4144-950A-9E1BE4100F27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -824,7 +2093,7 @@
         <xdr:cNvPr id="32" name="Conector recto 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3F19646-5C56-4FE1-B3BE-5CDD9584255E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -874,7 +2143,7 @@
         <xdr:cNvPr id="35" name="Conector recto 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7525126B-8AB9-4C6E-B7E3-2E539175B567}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -924,7 +2193,7 @@
         <xdr:cNvPr id="36" name="Conector recto 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CAF5DB1-0E1D-4382-AAF4-60C065A61A5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -974,7 +2243,7 @@
         <xdr:cNvPr id="49" name="Conector recto 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25EBC5B6-6DB1-4D51-9143-185ECCAC5E06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1024,7 +2293,7 @@
         <xdr:cNvPr id="51" name="Conector recto 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C65B24CF-0C4F-4BFE-BCFE-BBF811289CBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1074,7 +2343,7 @@
         <xdr:cNvPr id="53" name="Conector recto 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D583892F-1ED9-410B-92D9-B598D60099FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1124,7 +2393,7 @@
         <xdr:cNvPr id="55" name="Conector recto 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1088148-517E-42C9-B678-F1F6EF7BD53C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1174,7 +2443,7 @@
         <xdr:cNvPr id="56" name="Conector recto 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9D8FF96-9F78-4E29-81B0-306C8E5044DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1224,7 +2493,7 @@
         <xdr:cNvPr id="59" name="Conector recto 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D1F74EF-6A67-467A-B4DB-4B1C815736C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1274,7 +2543,7 @@
         <xdr:cNvPr id="61" name="Conector recto 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0455AA4D-01AE-4932-95C0-159F8D53CA8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1324,7 +2593,7 @@
         <xdr:cNvPr id="63" name="Conector recto 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48282635-5F2C-400F-B0C6-D83D068F5C77}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1374,7 +2643,7 @@
         <xdr:cNvPr id="66" name="Conector recto 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{233F4047-E881-48F1-9BE5-4D80FF3E06DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1424,7 +2693,7 @@
         <xdr:cNvPr id="68" name="Conector recto 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4320789-2C48-402C-955E-EC351730995B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1474,7 +2743,7 @@
         <xdr:cNvPr id="71" name="Conector recto 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B0BAC11-3E78-422E-B303-C87BF37324C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1524,7 +2793,7 @@
         <xdr:cNvPr id="73" name="Conector recto 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE2827EC-603F-4C5C-BA1A-CEED3B9AB256}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1574,7 +2843,7 @@
         <xdr:cNvPr id="74" name="Conector recto 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{416D10CA-F556-4A5F-8F09-66E53E74FC64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1624,7 +2893,7 @@
         <xdr:cNvPr id="76" name="Conector recto 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FEDD357-7547-4266-9123-9C881FBDB872}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1674,7 +2943,7 @@
         <xdr:cNvPr id="81" name="Conector recto 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90A5742A-9AAC-4B2A-B7D1-AD5DF070E5D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1724,7 +2993,7 @@
         <xdr:cNvPr id="82" name="Conector recto 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7822DB9A-7DE0-49BE-B152-4AE0FC2E793B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1774,7 +3043,7 @@
         <xdr:cNvPr id="86" name="Conector recto 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{906C12C9-59BA-4DBA-B3CF-DC16DED992D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1824,7 +3093,7 @@
         <xdr:cNvPr id="87" name="Conector recto 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B22D30B6-257C-4A8D-B2A1-B7896F610162}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1874,7 +3143,7 @@
         <xdr:cNvPr id="90" name="Conector recto 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{083B99B4-80C8-4E27-A02B-DD85508F823D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1924,7 +3193,7 @@
         <xdr:cNvPr id="91" name="Conector recto 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE670790-4473-42EB-8F3E-0EDE75151C85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1974,7 +3243,7 @@
         <xdr:cNvPr id="92" name="Conector recto 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F1829A6-7FF1-4179-A252-3DB172A12FAC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2024,7 +3293,7 @@
         <xdr:cNvPr id="93" name="Conector recto 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B31B7A99-D21F-403D-831D-4EC1A90E88B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2074,7 +3343,7 @@
         <xdr:cNvPr id="100" name="Conector recto 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{257767F7-ADC8-4812-AB60-B38EC395E4D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2124,7 +3393,7 @@
         <xdr:cNvPr id="101" name="Conector recto 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{131B8965-46DC-40BB-A8FE-C6A1D08961DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2174,7 +3443,7 @@
         <xdr:cNvPr id="106" name="Conector recto 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57D4F700-8365-4720-8B88-1B733FC1A9C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2224,7 +3493,7 @@
         <xdr:cNvPr id="108" name="Conector recto 107">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70BF7A33-CDF8-4941-9817-4D9667D01636}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2274,7 +3543,7 @@
         <xdr:cNvPr id="109" name="Conector recto 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5F8011F-CFA5-4878-AF1A-04DD5B685396}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2324,7 +3593,7 @@
         <xdr:cNvPr id="111" name="Conector recto 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40ACDE84-162F-4B48-9F6B-66D9F8378FD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2374,7 +3643,7 @@
         <xdr:cNvPr id="114" name="Conector recto 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{767CE4F8-259B-4036-8E2F-41119AD9CF66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2424,7 +3693,7 @@
         <xdr:cNvPr id="116" name="Conector recto 115">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58C93F8D-A6B3-4484-8BF4-A08910F43668}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2474,7 +3743,7 @@
         <xdr:cNvPr id="128" name="Conector recto 127">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBA4E9E0-5B1B-474E-822E-E04FBB0B336C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2524,7 +3793,7 @@
         <xdr:cNvPr id="130" name="Conector recto 129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF7FFEF7-33E4-4F10-A80B-2DD5C3AC9D3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2574,7 +3843,7 @@
         <xdr:cNvPr id="131" name="Conector recto 130">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C02AEC7C-69FC-4C3F-AACF-05927F8BAD88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2624,7 +3893,7 @@
         <xdr:cNvPr id="132" name="Conector recto 131">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DE5FB67-5A11-42EE-BCCF-A895B1BA8DB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2674,7 +3943,7 @@
         <xdr:cNvPr id="133" name="Conector recto 132">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0026D0A-FB63-457A-9009-888FBDFD75E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2724,7 +3993,7 @@
         <xdr:cNvPr id="136" name="Conector recto 135">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC3460BF-D53B-440C-87D9-ABFEE1E3CBF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2774,7 +4043,7 @@
         <xdr:cNvPr id="139" name="Conector recto 138">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E433809-3A10-4932-B689-4325BAB5C9F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2824,7 +4093,7 @@
         <xdr:cNvPr id="141" name="Conector recto 140">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5993C955-D9DC-4BB8-8FEA-6E89C523A74C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2874,7 +4143,7 @@
         <xdr:cNvPr id="142" name="Conector recto 141">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B578C1B6-25CB-4C27-9D8B-B20C71D61C8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2924,7 +4193,7 @@
         <xdr:cNvPr id="143" name="Conector recto 142">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE1EA6B1-9CCB-438C-8327-7AAED36FF081}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2934,61 +4203,6 @@
         <a:xfrm>
           <a:off x="13184809" y="1078396"/>
           <a:ext cx="227495" cy="205408"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Conector recto 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1088148-517E-42C9-B678-F1F6EF7BD53C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2895600" y="4470400"/>
-          <a:ext cx="184150" cy="174625"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3310,10 +4524,2965 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E81981-7626-48DB-9C5B-E34DDDCA1782}">
+  <dimension ref="B1:K67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" customWidth="1"/>
+    <col min="11" max="11" width="33" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="F3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="F4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="F6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="I6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="F7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="I7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="F8" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="F9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="I14" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="J16" s="23"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="J19" s="23"/>
+    </row>
+    <row r="20" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="J21" s="23"/>
+    </row>
+    <row r="22" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="4"/>
+      <c r="F30" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D32" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D33" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D38" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D39" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E41" s="3"/>
+      <c r="F41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E42" s="3"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E43" s="3"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D45" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D46" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D47" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="3"/>
+      <c r="F48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D55" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D56" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D57" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D58" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3"/>
+    </row>
+    <row r="59" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G59" s="3"/>
+    </row>
+    <row r="62" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+    </row>
+    <row r="64" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G64" s="3"/>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G65" s="3"/>
+    </row>
+    <row r="66" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G66" s="3"/>
+    </row>
+    <row r="67" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G67" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A3:N93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="10" width="19.28515625" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="21">
+        <v>1</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="21">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21">
+        <v>1</v>
+      </c>
+      <c r="I6" s="25">
+        <v>1</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="21">
+        <v>2</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="21">
+        <v>250</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21">
+        <v>1</v>
+      </c>
+      <c r="I7" s="25">
+        <v>2</v>
+      </c>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="21">
+        <v>3</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="21">
+        <v>500</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21">
+        <v>1</v>
+      </c>
+      <c r="I8" s="25">
+        <v>3</v>
+      </c>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="21">
+        <v>4</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="21">
+        <v>300</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21">
+        <v>2</v>
+      </c>
+      <c r="I9" s="25">
+        <v>4</v>
+      </c>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="21">
+        <v>5</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="21">
+        <v>1200</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21">
+        <v>2</v>
+      </c>
+      <c r="I10" s="25">
+        <v>5</v>
+      </c>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="21">
+        <v>6</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="21">
+        <v>600</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21">
+        <v>2</v>
+      </c>
+      <c r="I11" s="25">
+        <v>6</v>
+      </c>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="21">
+        <v>7</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="21">
+        <v>900</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="21">
+        <v>8</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="21">
+        <v>700</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="21">
+        <v>9</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="21">
+        <v>900</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L16" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="21">
+        <v>1</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="21">
+        <v>1</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="21">
+        <v>2</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="21">
+        <v>2</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="21">
+        <v>3</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="21">
+        <v>3</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="21">
+        <v>4</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="21">
+        <v>5</v>
+      </c>
+      <c r="M21" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="21">
+        <v>6</v>
+      </c>
+      <c r="M22" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="21">
+        <v>7</v>
+      </c>
+      <c r="M23" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L24" s="21">
+        <v>8</v>
+      </c>
+      <c r="M24" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" s="21">
+        <v>9</v>
+      </c>
+      <c r="M25" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="29"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="21">
+        <v>1</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="21">
+        <v>2</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="C32" s="21">
+        <v>3</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="C38" s="21">
+        <v>1</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="27"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="21">
+        <v>2</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="21">
+        <v>3</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="21">
+        <v>1</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="21">
+        <v>2</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="21">
+        <v>3</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="21">
+        <v>4</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="21">
+        <v>1</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="21">
+        <v>2</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="21">
+        <v>3</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="21">
+        <v>1</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="21">
+        <v>2</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="21">
+        <v>3</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="21">
+        <v>1</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="21">
+        <v>2</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="21">
+        <v>3</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" s="21">
+        <v>4</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+    </row>
+    <row r="66" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="21">
+        <v>1</v>
+      </c>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="21">
+        <v>2</v>
+      </c>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C70" s="21">
+        <v>3</v>
+      </c>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="21">
+        <v>1</v>
+      </c>
+      <c r="D73" s="21"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+    </row>
+    <row r="74" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="21">
+        <v>2</v>
+      </c>
+      <c r="D74" s="21"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+    </row>
+    <row r="75" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="21">
+        <v>3</v>
+      </c>
+      <c r="D75" s="21"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E79" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F79" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I79" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="21">
+        <v>1</v>
+      </c>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="21">
+        <v>2</v>
+      </c>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+    </row>
+    <row r="82" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="21">
+        <v>3</v>
+      </c>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+    </row>
+    <row r="83" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C83" s="21">
+        <v>4</v>
+      </c>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+    </row>
+    <row r="84" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="21">
+        <v>5</v>
+      </c>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" s="21">
+        <v>6</v>
+      </c>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="21">
+        <v>7</v>
+      </c>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="21"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F88" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G88" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C90" s="21"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241997C8-3C02-4FAD-8DDC-BF85BA1DD385}">
+  <dimension ref="A3:L89"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="21">
+        <v>1</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="21">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="25">
+        <v>1</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="21">
+        <v>2</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="21">
+        <v>250</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="21">
+        <v>3</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="21">
+        <v>500</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="21">
+        <v>4</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="21">
+        <v>300</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="21">
+        <v>5</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="21">
+        <v>1200</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="21">
+        <v>6</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="21">
+        <v>600</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="21">
+        <v>7</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="21">
+        <v>900</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="21">
+        <v>8</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="21">
+        <v>700</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="21">
+        <v>9</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="21">
+        <v>900</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="21">
+        <v>1</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="21">
+        <v>4</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="21">
+        <v>3</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="29"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="21">
+        <v>1</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="21">
+        <v>2</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="21">
+        <v>3</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="C32" s="21">
+        <v>1</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="27"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="21">
+        <v>2</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="21">
+        <v>3</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="C38" s="21">
+        <v>1</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="21">
+        <v>2</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="21">
+        <v>3</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="21">
+        <v>4</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="21">
+        <v>1</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="21">
+        <v>2</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="21">
+        <v>3</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="21">
+        <v>1</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="21">
+        <v>2</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="21">
+        <v>3</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="21">
+        <v>1</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="21">
+        <v>2</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="21">
+        <v>3</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="21">
+        <v>4</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="21">
+        <v>1</v>
+      </c>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="21">
+        <v>2</v>
+      </c>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="21">
+        <v>3</v>
+      </c>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H66" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="21">
+        <v>1</v>
+      </c>
+      <c r="D67" s="21"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+    </row>
+    <row r="68" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="21">
+        <v>2</v>
+      </c>
+      <c r="D68" s="21"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="21">
+        <v>3</v>
+      </c>
+      <c r="D69" s="21"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I73" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="21">
+        <v>1</v>
+      </c>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+    </row>
+    <row r="75" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="21">
+        <v>2</v>
+      </c>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="21">
+        <v>3</v>
+      </c>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C77" s="21">
+        <v>4</v>
+      </c>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" s="21">
+        <v>5</v>
+      </c>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="21">
+        <v>6</v>
+      </c>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="21">
+        <v>7</v>
+      </c>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G82" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+    </row>
+    <row r="84" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -3738,1127 +7907,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:L89"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="21">
-        <v>1</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="21">
-        <v>1000</v>
-      </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="21">
-        <v>2</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="21">
-        <v>250</v>
-      </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="21">
-        <v>3</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="21">
-        <v>500</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="21">
-        <v>4</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="21">
-        <v>300</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="21">
-        <v>5</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="21">
-        <v>1200</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="21">
-        <v>6</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="21">
-        <v>600</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="21">
-        <v>7</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="21">
-        <v>900</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="21">
-        <v>8</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="21">
-        <v>700</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="21">
-        <v>9</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="21">
-        <v>900</v>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="21">
-        <v>1</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="21">
-        <v>2</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="21">
-        <v>3</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="29"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="21">
-        <v>1</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="21">
-        <v>2</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="21">
-        <v>3</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="21">
-        <v>1</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="27"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="21">
-        <v>2</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="21">
-        <v>3</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="21">
-        <v>1</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="21">
-        <v>2</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="21">
-        <v>3</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="21">
-        <v>4</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" s="21">
-        <v>1</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="21">
-        <v>2</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="21">
-        <v>3</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F51" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" s="21">
-        <v>1</v>
-      </c>
-      <c r="D52" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="21">
-        <v>2</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="21">
-        <v>3</v>
-      </c>
-      <c r="D54" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58" s="21">
-        <v>1</v>
-      </c>
-      <c r="D58" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="21">
-        <v>2</v>
-      </c>
-      <c r="D59" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" s="21">
-        <v>3</v>
-      </c>
-      <c r="D60" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" s="21">
-        <v>4</v>
-      </c>
-      <c r="D61" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E63" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C64" s="21">
-        <v>1</v>
-      </c>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C65" s="21">
-        <v>2</v>
-      </c>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-    </row>
-    <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C66" s="21">
-        <v>3</v>
-      </c>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-    </row>
-    <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G68" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="H68" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C69" s="21">
-        <v>1</v>
-      </c>
-      <c r="D69" s="21"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C70" s="21">
-        <v>2</v>
-      </c>
-      <c r="D70" s="21"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="21">
-        <v>3</v>
-      </c>
-      <c r="D71" s="21"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="21"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
-    </row>
-    <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="31"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-    </row>
-    <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E75" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F75" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H75" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="I75" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C76" s="21">
-        <v>1</v>
-      </c>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C77" s="21">
-        <v>2</v>
-      </c>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C78" s="21">
-        <v>3</v>
-      </c>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="21"/>
-      <c r="I78" s="21"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C79" s="21">
-        <v>4</v>
-      </c>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="21"/>
-      <c r="H79" s="21"/>
-      <c r="I79" s="21"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C80" s="21">
-        <v>5</v>
-      </c>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="21"/>
-      <c r="I80" s="21"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C81" s="21">
-        <v>6</v>
-      </c>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="21"/>
-      <c r="I81" s="21"/>
-    </row>
-    <row r="82" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C82" s="21">
-        <v>7</v>
-      </c>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="21"/>
-      <c r="H82" s="21"/>
-      <c r="I82" s="21"/>
-    </row>
-    <row r="83" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="84" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D84" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E84" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F84" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="G84" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C85" s="21"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="21"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="21"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87" s="21"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="21"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C88" s="21"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="21"/>
-    </row>
-    <row r="89" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" s="21"/>
-      <c r="D89" s="21"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="21"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/tablas_ base de datos.xlsx
+++ b/tablas_ base de datos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
-  <workbookPr checkCompatibility="1" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\carpetaLaura\TP\VisteteDePoder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flor\Desktop\VisteteDePoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7C01C5-7E1E-4F2A-9964-0A250922EDA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="BASE DE DATOS" sheetId="3" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="VERSIÓN VIEJA" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Análisis de Tablas'!$L$16:$N$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Análisis de Tablas'!$N$13:$P$22</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="127">
   <si>
     <t>PRODUCTOS</t>
   </si>
@@ -527,29 +526,6 @@
     <t>unir todo en un tabla</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>subcategoria_id</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t>SUBCATEGORIA</t>
   </si>
   <si>
@@ -557,9 +533,6 @@
   </si>
   <si>
     <t>INDUMENTARIA</t>
-  </si>
-  <si>
-    <t>SUBCATEGORÍAS</t>
   </si>
   <si>
     <t>Indumentaria</t>
@@ -677,12 +650,218 @@
       <t>(FK)</t>
     </r>
   </si>
+  <si>
+    <t>categoria</t>
+  </si>
+  <si>
+    <t>subcategoria</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">categoria_id </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(FK)</t>
+    </r>
+  </si>
+  <si>
+    <t>genero</t>
+  </si>
+  <si>
+    <t>genero_id</t>
+  </si>
+  <si>
+    <t>producto_id</t>
+  </si>
+  <si>
+    <r>
+      <t>categorias_id</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(FK)</t>
+    </r>
+  </si>
+  <si>
+    <t>diseño</t>
+  </si>
+  <si>
+    <t>talle</t>
+  </si>
+  <si>
+    <t>ver si aca llamo a categoria para poner que es indumentaria</t>
+  </si>
+  <si>
+    <r>
+      <t>producto_id</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(FK)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>genero_id</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(FK)</t>
+    </r>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>talle_id</t>
+  </si>
+  <si>
+    <r>
+      <t>talle_id</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(FK)</t>
+    </r>
+  </si>
+  <si>
+    <t>categoria_id?</t>
+  </si>
+  <si>
+    <t>solo se pueden cargar los productos de la categoria indumentaria se aclara de alguna manera?</t>
+  </si>
+  <si>
+    <r>
+      <t>talle</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(FK)</t>
+    </r>
+  </si>
+  <si>
+    <t>aca no habria que agregar la columna de foto y nombre que le estamos pidiendo al usuario en el formulario?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lorem ipsum </t>
+  </si>
+  <si>
+    <t>no de una imagen a muchos productos</t>
+  </si>
+  <si>
+    <t>salvo la de default</t>
+  </si>
+  <si>
+    <t>imagen tiene una relacion de un producto con muchas imagenes</t>
+  </si>
+  <si>
+    <t>es de uno a muchos</t>
+  </si>
+  <si>
+    <t>producto_id?</t>
+  </si>
+  <si>
+    <t>imagen</t>
+  </si>
+  <si>
+    <t>IMAGENES</t>
+  </si>
+  <si>
+    <r>
+      <t>categoria_id</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(FK)</t>
+    </r>
+  </si>
+  <si>
+    <t>taza.jpg</t>
+  </si>
+  <si>
+    <t>barbijo.jpg</t>
+  </si>
+  <si>
+    <t>termo.jpg</t>
+  </si>
+  <si>
+    <t>remera.jpg</t>
+  </si>
+  <si>
+    <t>o una imagen a un producto</t>
+  </si>
+  <si>
+    <t>ver si quedan todas las relacione en esta tabla. Por ej: diseño-producto…va en las dos?</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>RESTRICCIONES</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,6 +888,12 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -746,7 +931,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -866,11 +1051,275 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -911,6 +1360,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -932,523 +1441,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>110435</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1050661</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>60264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1780761</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>110435</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Conector recto 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5CFFE3B-A18B-468B-8C42-DE7A43719E22}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2247900" y="1101035"/>
-          <a:ext cx="4038186" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1449457</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>96631</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>213691</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>108778</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="Conector recto 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14236C5E-82C3-47B4-B0C3-22CD4861B9AA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2240032" y="896731"/>
-          <a:ext cx="221559" cy="202647"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1560444</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>110987</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1787939</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>123134</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="Conector recto 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CEE3676-2F13-4A7A-8394-1B0101152E94}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6065769" y="1101587"/>
-          <a:ext cx="227495" cy="202647"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1443385</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>138044</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>234674</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38653</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Conector recto 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{989A785C-5763-414B-9FFF-0B89A22D2FB1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2233960" y="1128644"/>
-          <a:ext cx="248614" cy="91109"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>463829</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>13805</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>108227</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="Conector recto 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE19F8D5-ED6B-4F38-9969-F7E58C2F73DA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="11341379" y="1004405"/>
-          <a:ext cx="250546" cy="94422"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1546086</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>179457</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>5518</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>80618</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="Conector recto 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{280EFBAE-A2AD-41E4-8EDF-9674D6898D63}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6051411" y="979557"/>
-          <a:ext cx="250132" cy="91661"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3961849</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>110435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>124239</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="Conector recto 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56E4984F-323B-472B-ADFB-79EC36BDBFD2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10257874" y="1101035"/>
-          <a:ext cx="1334051" cy="13804"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3970685</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>138596</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>249029</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>39757</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="Conector recto 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B786ADF8-0446-457C-BDC3-3BC2C46CF9EE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="10266710" y="1129196"/>
-          <a:ext cx="250269" cy="91661"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3949148</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>111540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>200990</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123687</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="Conector recto 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB027A80-E401-4516-8F83-74F5AEE94D7E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10245173" y="911640"/>
-          <a:ext cx="223767" cy="202647"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>471005</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>112092</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>124239</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="Conector recto 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{252D2B47-EC9B-46AA-8F51-9229FCC3F815}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11348555" y="1102692"/>
-          <a:ext cx="227495" cy="202647"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1406551</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>144623</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>107983</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>127269</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>139393</xdr:rowOff>
+      <xdr:rowOff>83446</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="52" name="Flecha: a la izquierda, derecha y arriba 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB9934DE-6737-4350-9051-6C7E1F2E73F6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB9934DE-6737-4350-9051-6C7E1F2E73F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1456,8 +1465,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="6589734" flipH="1">
-          <a:off x="4237355" y="45779"/>
-          <a:ext cx="221910" cy="4308718"/>
+          <a:off x="6993201" y="-878476"/>
+          <a:ext cx="213682" cy="5672562"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightUpArrow">
           <a:avLst/>
@@ -1492,23 +1501,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1342858</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>60628</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>761489</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>185194</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>307452</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>118810</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>364363</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25104</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="53" name="Flecha: a la izquierda, derecha y arriba 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3097E1F8-85AD-4C9B-A988-60B813646FDD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3097E1F8-85AD-4C9B-A988-60B813646FDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1516,68 +1525,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="7168936" flipH="1">
-          <a:off x="4282214" y="1058272"/>
-          <a:ext cx="248682" cy="4552594"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftRightUpArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-AR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>768854</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>64456</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>127018</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>16174</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Flecha: a la izquierda, derecha y arriba 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB06C2DC-CFEB-43E3-ADDB-925B81771409}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="19600914" flipH="1">
-          <a:off x="3092954" y="2820356"/>
-          <a:ext cx="183664" cy="3291818"/>
+          <a:off x="6948521" y="-210638"/>
+          <a:ext cx="233610" cy="6181474"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightUpArrow">
           <a:avLst/>
@@ -1613,22 +1562,82 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>12698</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>5632</xdr:rowOff>
+      <xdr:colOff>691255</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>143477</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85815</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161248</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Flecha: a la izquierda, derecha y arriba 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB06C2DC-CFEB-43E3-ADDB-925B81771409}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19600914" flipH="1">
+          <a:off x="3015355" y="2721577"/>
+          <a:ext cx="220060" cy="2773671"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightUpArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12698</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>145332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1739899</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>177799</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="55" name="Flecha: a la izquierda, derecha y arriba 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1636,8 +1645,128 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1">
-          <a:off x="5374915" y="5514615"/>
+          <a:off x="5374915" y="4905015"/>
           <a:ext cx="172167" cy="1727201"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightUpArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>170732</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1727198</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Flecha: a la izquierda, derecha y arriba 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A357813C-8AF8-4299-BA91-0A528ED1F6BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="8803915" y="7508516"/>
+          <a:ext cx="159468" cy="1689099"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightUpArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12698</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>56432</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1739899</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Flecha: a la izquierda, derecha y arriba 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADF86149-9AF8-4979-9898-D92F280DF2FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="5368565" y="6003565"/>
+          <a:ext cx="184867" cy="1727201"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightUpArrow">
           <a:avLst/>
@@ -1673,31 +1802,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1435098</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>170732</xdr:rowOff>
+      <xdr:colOff>888719</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>117440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1727199</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:colOff>18715</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>67046</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="Flecha: a la izquierda, derecha y arriba 55">
+        <xdr:cNvPr id="58" name="Flecha: a la izquierda, derecha y arriba 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A357813C-8AF8-4299-BA91-0A528ED1F6BC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A207FFC-329A-4274-9A1D-BEBC97BC4C01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1">
-          <a:off x="5362215" y="8054615"/>
-          <a:ext cx="172167" cy="1727201"/>
+        <a:xfrm rot="20516351" flipH="1">
+          <a:off x="4101819" y="2886040"/>
+          <a:ext cx="209496" cy="5474106"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightUpArrow">
           <a:avLst/>
@@ -1733,31 +1862,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>12698</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>158032</xdr:rowOff>
+      <xdr:colOff>46788</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>150714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1739899</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>139699</xdr:rowOff>
+      <xdr:colOff>276876</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>149984</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="Flecha: a la izquierda, derecha y arriba 56">
+        <xdr:cNvPr id="59" name="Flecha: a la izquierda, derecha y arriba 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADF86149-9AF8-4979-9898-D92F280DF2FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E1F9FBF-07B9-42FC-AD07-5156F2305EE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1">
-          <a:off x="5374915" y="6657615"/>
-          <a:ext cx="172167" cy="1727201"/>
+        <a:xfrm rot="20581134" flipH="1">
+          <a:off x="2370888" y="2919314"/>
+          <a:ext cx="230088" cy="3948970"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightUpArrow">
           <a:avLst/>
@@ -1792,32 +1921,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1240830</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>192714</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2514599</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1446818</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>180726</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2705100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>166302</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="Flecha: a la izquierda, derecha y arriba 57">
+        <xdr:cNvPr id="20" name="Flecha: a la izquierda, derecha y arriba 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A207FFC-329A-4274-9A1D-BEBC97BC4C01}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3097E1F8-85AD-4C9B-A988-60B813646FDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="20516351" flipH="1">
-          <a:off x="2028230" y="2745414"/>
-          <a:ext cx="205988" cy="6287212"/>
+        <a:xfrm flipH="1">
+          <a:off x="8889999" y="3403600"/>
+          <a:ext cx="190501" cy="318702"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightUpArrow">
           <a:avLst/>
@@ -1852,32 +1981,212 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>66812</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>107736</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>330672</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>111460</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1752605</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114298</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="Flecha: a la izquierda, derecha y arriba 58">
+        <xdr:cNvPr id="22" name="Flecha: a la izquierda, derecha y arriba 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E1F9FBF-07B9-42FC-AD07-5156F2305EE1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="20581134" flipH="1">
-          <a:off x="2390912" y="2863636"/>
-          <a:ext cx="263860" cy="4715424"/>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="6927854" y="-1898654"/>
+          <a:ext cx="241298" cy="5410205"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightUpArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>177799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>698498</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190494</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Flecha: a la izquierda, derecha y arriba 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="15741651" y="260347"/>
+          <a:ext cx="215895" cy="1269999"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightUpArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>25406</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>139699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12694</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Flecha: a la izquierda, derecha y arriba 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="15316205" y="190500"/>
+          <a:ext cx="253995" cy="1777994"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightUpArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>638135</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>55742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>852576</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>29313</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Flecha: a la izquierda, derecha y arriba 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A207FFC-329A-4274-9A1D-BEBC97BC4C01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20516351">
+          <a:off x="3851235" y="3027542"/>
+          <a:ext cx="214441" cy="6679171"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightUpArrow">
           <a:avLst/>
@@ -1919,13 +2228,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1933,7 +2242,7 @@
         <xdr:cNvPr id="13" name="Conector recto 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1988,7 +2297,7 @@
         <xdr:cNvPr id="2" name="Conector recto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B76CAEE4-09D7-41C5-9067-4444BF67D33E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B76CAEE4-09D7-41C5-9067-4444BF67D33E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2043,7 +2352,7 @@
         <xdr:cNvPr id="16" name="Conector recto 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2093,7 +2402,7 @@
         <xdr:cNvPr id="32" name="Conector recto 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2143,7 +2452,7 @@
         <xdr:cNvPr id="35" name="Conector recto 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +2502,7 @@
         <xdr:cNvPr id="36" name="Conector recto 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2243,7 +2552,7 @@
         <xdr:cNvPr id="49" name="Conector recto 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2293,7 +2602,7 @@
         <xdr:cNvPr id="51" name="Conector recto 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2343,7 +2652,7 @@
         <xdr:cNvPr id="53" name="Conector recto 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2393,7 +2702,7 @@
         <xdr:cNvPr id="55" name="Conector recto 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2443,7 +2752,7 @@
         <xdr:cNvPr id="56" name="Conector recto 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2493,7 +2802,7 @@
         <xdr:cNvPr id="59" name="Conector recto 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2543,7 +2852,7 @@
         <xdr:cNvPr id="61" name="Conector recto 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2593,7 +2902,7 @@
         <xdr:cNvPr id="63" name="Conector recto 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2643,7 +2952,7 @@
         <xdr:cNvPr id="66" name="Conector recto 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2693,7 +3002,7 @@
         <xdr:cNvPr id="68" name="Conector recto 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2743,7 +3052,7 @@
         <xdr:cNvPr id="71" name="Conector recto 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2793,7 +3102,7 @@
         <xdr:cNvPr id="73" name="Conector recto 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2843,7 +3152,7 @@
         <xdr:cNvPr id="74" name="Conector recto 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2893,7 +3202,7 @@
         <xdr:cNvPr id="76" name="Conector recto 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2943,7 +3252,7 @@
         <xdr:cNvPr id="81" name="Conector recto 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2993,7 +3302,7 @@
         <xdr:cNvPr id="82" name="Conector recto 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3043,7 +3352,7 @@
         <xdr:cNvPr id="86" name="Conector recto 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3093,7 +3402,7 @@
         <xdr:cNvPr id="87" name="Conector recto 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3143,7 +3452,7 @@
         <xdr:cNvPr id="90" name="Conector recto 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3193,7 +3502,7 @@
         <xdr:cNvPr id="91" name="Conector recto 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3243,7 +3552,7 @@
         <xdr:cNvPr id="92" name="Conector recto 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3293,7 +3602,7 @@
         <xdr:cNvPr id="93" name="Conector recto 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3343,7 +3652,7 @@
         <xdr:cNvPr id="100" name="Conector recto 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3393,7 +3702,7 @@
         <xdr:cNvPr id="101" name="Conector recto 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3443,7 +3752,7 @@
         <xdr:cNvPr id="106" name="Conector recto 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3493,7 +3802,7 @@
         <xdr:cNvPr id="108" name="Conector recto 107">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3543,7 +3852,7 @@
         <xdr:cNvPr id="109" name="Conector recto 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3593,7 +3902,7 @@
         <xdr:cNvPr id="111" name="Conector recto 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3643,7 +3952,7 @@
         <xdr:cNvPr id="114" name="Conector recto 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3693,7 +4002,7 @@
         <xdr:cNvPr id="116" name="Conector recto 115">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3743,7 +4052,7 @@
         <xdr:cNvPr id="128" name="Conector recto 127">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3793,7 +4102,7 @@
         <xdr:cNvPr id="130" name="Conector recto 129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3843,7 +4152,7 @@
         <xdr:cNvPr id="131" name="Conector recto 130">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3893,7 +4202,7 @@
         <xdr:cNvPr id="132" name="Conector recto 131">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3943,7 +4252,7 @@
         <xdr:cNvPr id="133" name="Conector recto 132">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3993,7 +4302,7 @@
         <xdr:cNvPr id="136" name="Conector recto 135">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4043,7 +4352,7 @@
         <xdr:cNvPr id="139" name="Conector recto 138">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4093,7 +4402,7 @@
         <xdr:cNvPr id="141" name="Conector recto 140">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4143,7 +4452,7 @@
         <xdr:cNvPr id="142" name="Conector recto 141">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4193,7 +4502,7 @@
         <xdr:cNvPr id="143" name="Conector recto 142">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4524,542 +4833,826 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E81981-7626-48DB-9C5B-E34DDDCA1782}">
-  <dimension ref="B1:K67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:U67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="6" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" customWidth="1"/>
-    <col min="11" max="11" width="33" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" customWidth="1"/>
+    <col min="10" max="10" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.85546875" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+    <col min="18" max="18" width="27.7109375" customWidth="1"/>
+    <col min="19" max="19" width="33" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.7109375" customWidth="1"/>
+    <col min="21" max="21" width="18.140625" customWidth="1"/>
+    <col min="23" max="23" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="11" t="s">
+    <row r="1" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="53" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="S2" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+    </row>
+    <row r="3" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="F3" s="17" t="s">
+      <c r="C3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="J3" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="S3" s="46" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="F4" s="17" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="3"/>
+      <c r="J4" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="O4" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="P4" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="S4" s="38" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="17" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="J5" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="O5" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="S5" s="48" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="F6" s="18" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="3"/>
+      <c r="J6" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="I6" s="12" t="s">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="3"/>
+      <c r="O6" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="S6" s="48" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="F7" s="18" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="3"/>
+      <c r="J7" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="I7" s="1" t="s">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="3"/>
+      <c r="O7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="S7" s="48" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="F8" s="18" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="3"/>
+      <c r="J8" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="O8" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="S8" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+    </row>
+    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="F9" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="3"/>
+      <c r="J9" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="O9" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="J12" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="3"/>
+      <c r="J13" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="I14" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="J14" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+    </row>
+    <row r="15" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="9" t="s">
+      <c r="I16" s="3"/>
+      <c r="J16" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="R16" s="23"/>
+    </row>
+    <row r="17" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="R19" s="23"/>
+    </row>
+    <row r="20" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="J16" s="23"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="1" t="s">
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="R21" s="23"/>
+    </row>
+    <row r="22" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="J19" s="23"/>
-    </row>
-    <row r="20" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="J21" s="23"/>
-    </row>
-    <row r="22" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C24" s="3"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E24" s="3"/>
-      <c r="F24" s="9" t="s">
+      <c r="I24" s="3"/>
+      <c r="J24" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="3"/>
+      <c r="F28" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="1" t="s">
+      <c r="K28" s="47"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E29" s="3"/>
+      <c r="F29" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="K29" s="48"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="F30" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E30" s="4"/>
-      <c r="F30" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="9" t="s">
+      <c r="K30" s="48"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="J31" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="K31" s="50"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="I32" s="4"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F35" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D32" s="9" t="s">
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D33" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="1" t="s">
+      <c r="K35" s="47"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F36" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="K36" s="48"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+    </row>
+    <row r="37" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F37" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="13" t="s">
+      <c r="K37" s="48"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I38" s="3"/>
+      <c r="J38" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="K38" s="50"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="I39" s="3"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F42" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="47"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F43" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="K43" s="48"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D38" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D39" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D40" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="1" t="s">
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E41" s="3"/>
-      <c r="F41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="E42" s="3"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E43" s="3"/>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D45" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D46" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="1" t="s">
+      <c r="K44" s="48"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I45" s="3"/>
+      <c r="J45" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="K45" s="50"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="84"/>
+      <c r="H48" s="84"/>
+      <c r="I48" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F49" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="84"/>
+      <c r="H49" s="84"/>
+      <c r="I49" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F50" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="G50" s="88"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F51" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E48" s="3"/>
-      <c r="F48" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D54" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D55" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D56" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D57" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" s="3"/>
-    </row>
-    <row r="58" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D58" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3"/>
-    </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G59" s="3"/>
-    </row>
-    <row r="62" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G62" s="3"/>
-    </row>
-    <row r="63" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-    </row>
-    <row r="64" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G64" s="3"/>
-    </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G65" s="3"/>
-    </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G66" s="3"/>
-    </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G67" s="3"/>
+      <c r="G51" s="89"/>
+      <c r="H51" s="89"/>
+      <c r="I51" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F52" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="89"/>
+      <c r="H52" s="89"/>
+      <c r="I52" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="M54" s="4"/>
+    </row>
+    <row r="55" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="M55" s="4"/>
+    </row>
+    <row r="56" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="62" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M67" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5069,1261 +5662,1816 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:N93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.140625" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="10" width="19.28515625" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" customWidth="1"/>
+    <col min="12" max="12" width="23" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="20" t="s">
+      <c r="B2" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="F2" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="G2" s="66" t="s">
         <v>2</v>
       </c>
+      <c r="H2" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="68">
+        <v>1</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21">
+        <v>1</v>
+      </c>
+      <c r="K3" s="31">
+        <v>1</v>
+      </c>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="69"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="48"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="68">
+        <v>2</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="21">
+        <v>250</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21">
+        <v>1</v>
+      </c>
+      <c r="K4" s="31">
+        <v>2</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="69"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="48"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="68">
+        <v>3</v>
+      </c>
       <c r="F5" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="M5" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="21">
+        <v>500</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21">
+        <v>1</v>
+      </c>
+      <c r="K5" s="31">
+        <v>3</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="69"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="68">
         <v>4</v>
       </c>
-      <c r="N5" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="21">
-        <v>1</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="21">
-        <v>1000</v>
-      </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21">
-        <v>1</v>
-      </c>
-      <c r="I6" s="25">
-        <v>1</v>
-      </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="F6" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="21">
+        <v>300</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21">
+        <v>2</v>
+      </c>
+      <c r="K6" s="31">
+        <v>4</v>
+      </c>
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
       <c r="N6" s="21"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="21">
+      <c r="O6" s="21"/>
+      <c r="P6" s="69"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="49"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="68">
+        <v>5</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="21">
+        <v>1200</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21">
         <v>2</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="21">
-        <v>250</v>
-      </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21">
-        <v>1</v>
-      </c>
-      <c r="I7" s="25">
-        <v>2</v>
-      </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
+      <c r="K7" s="31">
+        <v>5</v>
+      </c>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="O7" s="21"/>
+      <c r="P7" s="69"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="68">
+        <v>6</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="21">
+        <v>600</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21">
         <v>2</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="21">
-        <v>3</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="21">
-        <v>500</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21">
-        <v>1</v>
-      </c>
-      <c r="I8" s="25">
-        <v>3</v>
-      </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
+      <c r="K8" s="31">
+        <v>6</v>
+      </c>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="21">
-        <v>4</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="21">
-        <v>300</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21">
-        <v>2</v>
-      </c>
-      <c r="I9" s="25">
-        <v>4</v>
-      </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="69"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="68">
+        <v>7</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="21">
+        <v>900</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21">
+        <v>3</v>
+      </c>
+      <c r="K9" s="31">
+        <v>7</v>
+      </c>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="21">
-        <v>5</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="21">
-        <v>1200</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21">
-        <v>2</v>
-      </c>
-      <c r="I10" s="25">
-        <v>5</v>
-      </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="69"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="48"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="68">
+        <v>8</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="21">
+        <v>700</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21">
+        <v>3</v>
+      </c>
+      <c r="K10" s="31">
+        <v>8</v>
+      </c>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="21">
+      <c r="O10" s="21"/>
+      <c r="P10" s="69"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="50"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="70">
+        <v>9</v>
+      </c>
+      <c r="F11" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="71">
+        <v>900</v>
+      </c>
+      <c r="H11" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71">
+        <v>3</v>
+      </c>
+      <c r="K11" s="73">
+        <v>9</v>
+      </c>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="74"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="80" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="34"/>
+      <c r="K13" s="36"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="68">
+        <v>1</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="37"/>
+      <c r="H14" s="81"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="36"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="52"/>
+      <c r="C15" s="15"/>
+      <c r="E15" s="68">
+        <v>2</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="69"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="36"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="48"/>
+      <c r="C16" s="1"/>
+      <c r="E16" s="70">
+        <v>3</v>
+      </c>
+      <c r="F16" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="71"/>
+      <c r="H16" s="74"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="50"/>
+      <c r="C17" s="2"/>
+      <c r="E17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="38"/>
+      <c r="C20" s="12"/>
+      <c r="E20" s="68">
+        <v>1</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="39">
+        <v>1</v>
+      </c>
+      <c r="H20" s="31"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="48"/>
+      <c r="C21" s="1"/>
+      <c r="E21" s="68">
+        <v>2</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="39">
+        <v>1</v>
+      </c>
+      <c r="H21" s="31"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="38"/>
+      <c r="C22" s="12"/>
+      <c r="E22" s="68">
+        <v>3</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="39">
+        <v>1</v>
+      </c>
+      <c r="H22" s="31"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="48"/>
+      <c r="C23" s="1"/>
+      <c r="E23" s="68">
+        <v>4</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="39">
+        <v>2</v>
+      </c>
+      <c r="H23" s="31"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="50"/>
+      <c r="C24" s="2"/>
+      <c r="E24" s="78">
+        <v>5</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="21">
+        <v>2</v>
+      </c>
+      <c r="H24" s="21"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="E25" s="78">
         <v>6</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="F25" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="21">
-        <v>600</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21">
+      <c r="G25" s="21">
         <v>2</v>
       </c>
-      <c r="I11" s="25">
+      <c r="H25" s="21"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="E26" s="78">
+        <v>7</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="21">
+        <v>3</v>
+      </c>
+      <c r="H26" s="21"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="E27" s="78">
+        <v>8</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="21">
+        <v>3</v>
+      </c>
+      <c r="H27" s="21"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="E28" s="79">
+        <v>9</v>
+      </c>
+      <c r="F28" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="71">
+        <v>3</v>
+      </c>
+      <c r="H28" s="71"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="J30" s="36"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="38"/>
+      <c r="C31" s="12"/>
+      <c r="E31" s="68">
+        <v>1</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="21"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="48"/>
+      <c r="C32" s="1"/>
+      <c r="E32" s="68">
+        <v>2</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" s="21"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="48"/>
+      <c r="C33" s="1"/>
+      <c r="E33" s="70">
+        <v>3</v>
+      </c>
+      <c r="F33" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="71"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="50"/>
+      <c r="C34" s="2"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="36"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="38"/>
+      <c r="C37" s="12"/>
+      <c r="E37" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="G37" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="H37" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="I37" s="67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="48"/>
+      <c r="C38" s="1"/>
+      <c r="E38" s="68">
+        <v>1</v>
+      </c>
+      <c r="F38" s="21">
+        <v>3</v>
+      </c>
+      <c r="G38" s="39">
+        <v>1</v>
+      </c>
+      <c r="H38" s="31"/>
+      <c r="I38" s="69"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="48"/>
+      <c r="C39" s="1"/>
+      <c r="E39" s="68">
+        <v>2</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G39" s="39">
+        <v>5</v>
+      </c>
+      <c r="H39" s="31"/>
+      <c r="I39" s="69"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="48"/>
+      <c r="C40" s="1"/>
+      <c r="E40" s="70">
+        <v>3</v>
+      </c>
+      <c r="F40" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="G40" s="72">
+        <v>7</v>
+      </c>
+      <c r="H40" s="73"/>
+      <c r="I40" s="74"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="50"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43" s="41"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="38"/>
+      <c r="C44" s="12"/>
+      <c r="E44" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="G44" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="H44" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="48"/>
+      <c r="C45" s="1"/>
+      <c r="E45" s="68">
+        <v>1</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G45" s="39">
+        <v>1</v>
+      </c>
+      <c r="H45" s="31"/>
+      <c r="I45" s="69"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="55"/>
+      <c r="C46" s="42"/>
+      <c r="E46" s="68">
+        <v>2</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G46" s="39">
+        <v>2</v>
+      </c>
+      <c r="H46" s="31"/>
+      <c r="I46" s="69"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="48"/>
+      <c r="C47" s="1"/>
+      <c r="E47" s="68">
+        <v>3</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G47" s="39">
+        <v>3</v>
+      </c>
+      <c r="H47" s="31"/>
+      <c r="I47" s="69"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="50"/>
+      <c r="C48" s="2"/>
+      <c r="E48" s="70">
+        <v>4</v>
+      </c>
+      <c r="F48" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="G48" s="72">
+        <v>1</v>
+      </c>
+      <c r="H48" s="73"/>
+      <c r="I48" s="74"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="41"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="38"/>
+      <c r="C51" s="12"/>
+      <c r="E51" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="G51" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="H51" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="I51" s="67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="48"/>
+      <c r="C52" s="1"/>
+      <c r="E52" s="68">
+        <v>1</v>
+      </c>
+      <c r="F52" s="21">
+        <v>1</v>
+      </c>
+      <c r="G52" s="39">
+        <v>1</v>
+      </c>
+      <c r="H52" s="31"/>
+      <c r="I52" s="69"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="48"/>
+      <c r="C53" s="1"/>
+      <c r="E53" s="68">
+        <v>2</v>
+      </c>
+      <c r="F53" s="21">
+        <v>2</v>
+      </c>
+      <c r="G53" s="39">
+        <v>2</v>
+      </c>
+      <c r="H53" s="31"/>
+      <c r="I53" s="69"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="55"/>
+      <c r="C54" s="42"/>
+      <c r="E54" s="68">
+        <v>3</v>
+      </c>
+      <c r="F54" s="21">
+        <v>3</v>
+      </c>
+      <c r="G54" s="39">
+        <v>3</v>
+      </c>
+      <c r="H54" s="31"/>
+      <c r="I54" s="69"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="48"/>
+      <c r="C55" s="1"/>
+      <c r="E55" s="70">
+        <v>4</v>
+      </c>
+      <c r="F55" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="G55" s="72">
         <v>6</v>
       </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="21">
+      <c r="H55" s="73"/>
+      <c r="I55" s="74"/>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="50"/>
+      <c r="C56" s="2"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="E58" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="38"/>
+      <c r="C59" s="12"/>
+      <c r="E59" s="68">
+        <v>1</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G59" s="21"/>
+      <c r="H59" s="69"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B60" s="48"/>
+      <c r="C60" s="1"/>
+      <c r="E60" s="68">
+        <v>2</v>
+      </c>
+      <c r="F60" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G60" s="21"/>
+      <c r="H60" s="69"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="48"/>
+      <c r="C61" s="1"/>
+      <c r="E61" s="68">
+        <v>3</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G61" s="21"/>
+      <c r="H61" s="69"/>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="50"/>
+      <c r="C62" s="2"/>
+      <c r="E62" s="70">
+        <v>4</v>
+      </c>
+      <c r="F62" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="G62" s="71"/>
+      <c r="H62" s="74"/>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="E64" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="G64" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="H64" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="I64" s="67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" s="38"/>
+      <c r="C65" s="12"/>
+      <c r="E65" s="68">
+        <v>1</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="G65" s="39">
+        <v>20</v>
+      </c>
+      <c r="H65" s="31"/>
+      <c r="I65" s="69"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" s="48"/>
+      <c r="C66" s="1"/>
+      <c r="E66" s="68">
+        <v>2</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G66" s="39">
+        <v>18</v>
+      </c>
+      <c r="H66" s="31"/>
+      <c r="I66" s="69"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" s="55"/>
+      <c r="C67" s="42"/>
+      <c r="E67" s="68">
+        <v>3</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="G67" s="39">
+        <v>23</v>
+      </c>
+      <c r="H67" s="31"/>
+      <c r="I67" s="69"/>
+    </row>
+    <row r="68" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="48"/>
+      <c r="C68" s="1"/>
+      <c r="E68" s="70">
+        <v>4</v>
+      </c>
+      <c r="F68" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="G68" s="72">
+        <v>1</v>
+      </c>
+      <c r="H68" s="73"/>
+      <c r="I68" s="74"/>
+    </row>
+    <row r="69" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="50"/>
+      <c r="C69" s="2"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C71" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="E71" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="G71" s="76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" s="38"/>
+      <c r="C72" s="12"/>
+      <c r="E72" s="68">
+        <v>1</v>
+      </c>
+      <c r="F72" s="21"/>
+      <c r="G72" s="69"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73" s="38"/>
+      <c r="C73" s="12"/>
+      <c r="E73" s="68">
+        <v>2</v>
+      </c>
+      <c r="F73" s="21"/>
+      <c r="G73" s="69"/>
+    </row>
+    <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74" s="63"/>
+      <c r="C74" s="57"/>
+      <c r="E74" s="70">
+        <v>3</v>
+      </c>
+      <c r="F74" s="71"/>
+      <c r="G74" s="74"/>
+    </row>
+    <row r="75" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C76" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="E76" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H76" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="21">
-        <v>900</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="I76" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="21">
-        <v>8</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="21">
-        <v>700</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="21">
-        <v>9</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="21">
-        <v>900</v>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="20" t="s">
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" s="38"/>
+      <c r="C77" s="12"/>
+      <c r="E77" s="68">
+        <v>1</v>
+      </c>
+      <c r="F77" s="21"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="69"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B78" s="38"/>
+      <c r="C78" s="12"/>
+      <c r="E78" s="68">
+        <v>2</v>
+      </c>
+      <c r="F78" s="21"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="69"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="48"/>
+      <c r="C79" s="1"/>
+      <c r="E79" s="68">
+        <v>3</v>
+      </c>
+      <c r="F79" s="21"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="69"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="48"/>
+      <c r="C80" s="1"/>
+      <c r="E80" s="68"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="69"/>
+    </row>
+    <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="50"/>
+      <c r="C81" s="2"/>
+      <c r="E81" s="70"/>
+      <c r="F81" s="71"/>
+      <c r="G81" s="73"/>
+      <c r="H81" s="73"/>
+      <c r="I81" s="74"/>
+    </row>
+    <row r="82" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="83" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C83" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="E83" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="L16" s="20" t="s">
+      <c r="F83" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="G83" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="H83" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="I83" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="J83" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="M16" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="21">
+      <c r="B84" s="38"/>
+      <c r="C84" s="12"/>
+      <c r="E84" s="68">
         <v>1</v>
       </c>
-      <c r="F17" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="21">
-        <v>1</v>
-      </c>
-      <c r="M17" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="21">
-        <v>2</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="L18" s="21">
-        <v>2</v>
-      </c>
-      <c r="M18" s="21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="21">
-        <v>3</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L19" s="21">
-        <v>3</v>
-      </c>
-      <c r="M19" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="21">
-        <v>4</v>
-      </c>
-      <c r="M20" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="L21" s="21">
-        <v>5</v>
-      </c>
-      <c r="M21" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="21">
-        <v>6</v>
-      </c>
-      <c r="M22" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="21">
-        <v>7</v>
-      </c>
-      <c r="M23" s="21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L24" s="21">
-        <v>8</v>
-      </c>
-      <c r="M24" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L25" s="21">
-        <v>9</v>
-      </c>
-      <c r="M25" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="29"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="21">
-        <v>1</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="21">
-        <v>2</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-      <c r="C32" s="21">
-        <v>3</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="C38" s="21">
-        <v>1</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="27"/>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="21">
-        <v>2</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="21">
-        <v>3</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="21">
-        <v>1</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" s="21">
-        <v>2</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" s="21">
-        <v>3</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="21">
-        <v>4</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="21">
-        <v>1</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" s="21">
-        <v>2</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" s="21">
-        <v>3</v>
-      </c>
-      <c r="D52" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F55" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="21">
-        <v>1</v>
-      </c>
-      <c r="D56" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="21">
-        <v>2</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58" s="21">
-        <v>3</v>
-      </c>
-      <c r="D58" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F61" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="21">
-        <v>1</v>
-      </c>
-      <c r="D62" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C63" s="21">
-        <v>2</v>
-      </c>
-      <c r="D63" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C64" s="21">
-        <v>3</v>
-      </c>
-      <c r="D64" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C65" s="21">
-        <v>4</v>
-      </c>
-      <c r="D65" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-    </row>
-    <row r="66" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E67" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C68" s="21">
-        <v>1</v>
-      </c>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C69" s="21">
-        <v>2</v>
-      </c>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C70" s="21">
-        <v>3</v>
-      </c>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G72" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="H72" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="21">
-        <v>1</v>
-      </c>
-      <c r="D73" s="21"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="31"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-    </row>
-    <row r="74" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C74" s="21">
-        <v>2</v>
-      </c>
-      <c r="D74" s="21"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="21"/>
-    </row>
-    <row r="75" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C75" s="21">
-        <v>3</v>
-      </c>
-      <c r="D75" s="21"/>
-      <c r="E75" s="31"/>
-      <c r="F75" s="31"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="21"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="31"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="31"/>
-      <c r="F77" s="31"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C79" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D79" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E79" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F79" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H79" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="I79" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C80" s="21">
-        <v>1</v>
-      </c>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="21"/>
-      <c r="I80" s="21"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C81" s="21">
-        <v>2</v>
-      </c>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="21"/>
-      <c r="I81" s="21"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C82" s="21">
-        <v>3</v>
-      </c>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="21"/>
-      <c r="H82" s="21"/>
-      <c r="I82" s="21"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C83" s="21">
-        <v>4</v>
-      </c>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="21"/>
-      <c r="H83" s="21"/>
-      <c r="I83" s="21"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" s="21">
-        <v>5</v>
-      </c>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
       <c r="F84" s="21"/>
       <c r="G84" s="21"/>
       <c r="H84" s="21"/>
       <c r="I84" s="21"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
+      <c r="J84" s="21"/>
+      <c r="K84" s="69"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C85" s="21">
-        <v>6</v>
-      </c>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
+      <c r="A85" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="B85" s="38"/>
+      <c r="C85" s="12"/>
+      <c r="E85" s="68">
+        <v>2</v>
+      </c>
       <c r="F85" s="21"/>
       <c r="G85" s="21"/>
       <c r="H85" s="21"/>
       <c r="I85" s="21"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
+      <c r="J85" s="21"/>
+      <c r="K85" s="69"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C86" s="21">
-        <v>7</v>
-      </c>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
+      <c r="A86" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B86" s="38"/>
+      <c r="C86" s="12"/>
+      <c r="E86" s="68">
+        <v>3</v>
+      </c>
       <c r="F86" s="21"/>
       <c r="G86" s="21"/>
       <c r="H86" s="21"/>
       <c r="I86" s="21"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
+      <c r="J86" s="21"/>
+      <c r="K86" s="69"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" s="48"/>
+      <c r="C87" s="1"/>
+      <c r="E87" s="68">
+        <v>4</v>
+      </c>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="69"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="48"/>
+      <c r="C88" s="1"/>
+      <c r="E88" s="68">
+        <v>5</v>
+      </c>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="21"/>
+      <c r="K88" s="69"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="48"/>
+      <c r="C89" s="1"/>
+      <c r="E89" s="68">
         <v>6</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C88" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D88" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E88" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F88" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="G88" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" s="21"/>
-      <c r="D89" s="21"/>
-      <c r="E89" s="21"/>
       <c r="F89" s="21"/>
       <c r="G89" s="21"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C90" s="21"/>
-      <c r="D90" s="21"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="21"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C91" s="21"/>
-      <c r="D91" s="21"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="21"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C92" s="21"/>
-      <c r="D92" s="21"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="21"/>
-      <c r="G92" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
+      <c r="J89" s="21"/>
+      <c r="K89" s="69"/>
+    </row>
+    <row r="90" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" s="50"/>
+      <c r="C90" s="2"/>
+      <c r="E90" s="70">
+        <v>7</v>
+      </c>
+      <c r="F90" s="71"/>
+      <c r="G90" s="71"/>
+      <c r="H90" s="71"/>
+      <c r="I90" s="71"/>
+      <c r="J90" s="71"/>
+      <c r="K90" s="74"/>
+    </row>
+    <row r="91" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E91" s="23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C92" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="E92" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="F92" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="G92" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="H92" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="I92" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="J92" s="3"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C93" s="21"/>
-      <c r="D93" s="21"/>
-      <c r="E93" s="21"/>
+      <c r="A93" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" s="38"/>
+      <c r="C93" s="12"/>
+      <c r="E93" s="68"/>
       <c r="F93" s="21"/>
       <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="69"/>
+      <c r="J93" s="3"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="48"/>
+      <c r="C94" s="1"/>
+      <c r="E94" s="68"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="69"/>
+      <c r="J94" s="3"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="48"/>
+      <c r="C95" s="1"/>
+      <c r="E95" s="68"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="69"/>
+      <c r="J95" s="3"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="48"/>
+      <c r="C96" s="1"/>
+      <c r="E96" s="68"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="69"/>
+      <c r="J96" s="3"/>
+    </row>
+    <row r="97" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" s="50"/>
+      <c r="C97" s="2"/>
+      <c r="E97" s="70"/>
+      <c r="F97" s="71"/>
+      <c r="G97" s="71"/>
+      <c r="H97" s="71"/>
+      <c r="I97" s="74"/>
+      <c r="J97" s="3"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
+      <c r="M105" s="3"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
+      <c r="M107" s="3"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
+      <c r="M108" s="3"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6333,10 +7481,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241997C8-3C02-4FAD-8DDC-BF85BA1DD385}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L89"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -6415,7 +7563,7 @@
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I6" s="25">
         <v>1</v>
@@ -6616,7 +7764,7 @@
         <v>53</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F16" s="25" t="s">
         <v>55</v>
@@ -7479,7 +8627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K36"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">

--- a/tablas_ base de datos.xlsx
+++ b/tablas_ base de datos.xlsx
@@ -16,9 +16,10 @@
     <sheet name="Análisis de Tablas" sheetId="2" r:id="rId2"/>
     <sheet name="Análisis de Tablas (2)" sheetId="4" r:id="rId3"/>
     <sheet name="VERSIÓN VIEJA" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Análisis de Tablas'!$N$13:$P$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Análisis de Tablas'!$N$16:$P$25</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="154">
   <si>
     <t>PRODUCTOS</t>
   </si>
@@ -544,68 +545,6 @@
     <t>Accesorios</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>diseño_producto_id</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (FK)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">subcategoria_id </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(FK)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">genero_producto_id </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(FK)</t>
-    </r>
-  </si>
-  <si>
     <t>GENERO_PRODUCTO</t>
   </si>
   <si>
@@ -635,22 +574,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">producto_talle_id </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(FK)</t>
-    </r>
-  </si>
-  <si>
     <t>categoria</t>
   </si>
   <si>
@@ -705,9 +628,6 @@
     </r>
   </si>
   <si>
-    <t>diseño</t>
-  </si>
-  <si>
     <t>talle</t>
   </si>
   <si>
@@ -771,50 +691,10 @@
     <t>categoria_id?</t>
   </si>
   <si>
-    <t>solo se pueden cargar los productos de la categoria indumentaria se aclara de alguna manera?</t>
-  </si>
-  <si>
-    <r>
-      <t>talle</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(FK)</t>
-    </r>
-  </si>
-  <si>
     <t>aca no habria que agregar la columna de foto y nombre que le estamos pidiendo al usuario en el formulario?</t>
   </si>
   <si>
     <t xml:space="preserve">lorem ipsum </t>
-  </si>
-  <si>
-    <t>no de una imagen a muchos productos</t>
-  </si>
-  <si>
-    <t>salvo la de default</t>
-  </si>
-  <si>
-    <t>imagen tiene una relacion de un producto con muchas imagenes</t>
-  </si>
-  <si>
-    <t>es de uno a muchos</t>
-  </si>
-  <si>
-    <t>producto_id?</t>
-  </si>
-  <si>
-    <t>imagen</t>
-  </si>
-  <si>
-    <t>IMAGENES</t>
   </si>
   <si>
     <r>
@@ -845,23 +725,332 @@
     <t>remera.jpg</t>
   </si>
   <si>
-    <t>o una imagen a un producto</t>
-  </si>
-  <si>
-    <t>ver si quedan todas las relacione en esta tabla. Por ej: diseño-producto…va en las dos?</t>
-  </si>
-  <si>
     <t>TIPO</t>
   </si>
   <si>
     <t>RESTRICCIONES</t>
+  </si>
+  <si>
+    <t>timestamps?</t>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>imagenUsuario</t>
+  </si>
+  <si>
+    <t>categoriaUsuario-id</t>
+  </si>
+  <si>
+    <t>CATEGORIAUSUARIOS</t>
+  </si>
+  <si>
+    <t>abierto</t>
+  </si>
+  <si>
+    <t>cerrado</t>
+  </si>
+  <si>
+    <t>flor</t>
+  </si>
+  <si>
+    <t>lau</t>
+  </si>
+  <si>
+    <t>CATEGORIA USUARIOS</t>
+  </si>
+  <si>
+    <t>xio</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)???</t>
+  </si>
+  <si>
+    <t>DATETIME???</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> confirmar si todos las claves foraneas de las tablas intermedias, tambien van ahi...</t>
+  </si>
+  <si>
+    <t>DATETIME??</t>
+  </si>
+  <si>
+    <t>el principito</t>
+  </si>
+  <si>
+    <t>VARCHAR(25)</t>
+  </si>
+  <si>
+    <t>PRODUCTS</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">image_id </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(FK)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">category_id </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(FK)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">subcategory_id </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(FK)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">genre_product_id </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(FK)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>design_product_id</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (FK)</t>
+    </r>
+  </si>
+  <si>
+    <t>DESIGNS</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">product_size_id </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(FK)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">product_size_id </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(FK)</t>
+    </r>
+  </si>
+  <si>
+    <t>IMAGES</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>product_id</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">design_id </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(FK)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>product_id</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (FK)</t>
+    </r>
+  </si>
+  <si>
+    <t>DESIGN_PRODUCT</t>
+  </si>
+  <si>
+    <r>
+      <t>categoria_id</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(FK)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>product_id</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(FK)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -898,8 +1087,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -930,8 +1143,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1315,11 +1534,130 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1373,11 +1711,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1393,7 +1729,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
@@ -1406,20 +1741,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1441,8 +1796,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1050661</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>60264</xdr:rowOff>
     </xdr:from>
@@ -1502,15 +1857,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>761489</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>185194</xdr:rowOff>
+      <xdr:colOff>1130299</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>45493</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>364363</xdr:colOff>
+      <xdr:colOff>237362</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>25104</xdr:rowOff>
+      <xdr:rowOff>75903</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1525,8 +1880,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="7168936" flipH="1">
-          <a:off x="6948521" y="-210638"/>
-          <a:ext cx="233610" cy="6181474"/>
+          <a:off x="7729826" y="-834"/>
+          <a:ext cx="233610" cy="5863463"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightUpArrow">
           <a:avLst/>
@@ -1802,15 +2157,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>888719</xdr:colOff>
+      <xdr:colOff>935117</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>117440</xdr:rowOff>
+      <xdr:rowOff>94344</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>18715</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1160693</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>67046</xdr:rowOff>
+      <xdr:rowOff>146625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1824,9 +2179,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="20516351" flipH="1">
-          <a:off x="4101819" y="2886040"/>
-          <a:ext cx="209496" cy="5474106"/>
+        <a:xfrm rot="20516351">
+          <a:off x="4719717" y="2862944"/>
+          <a:ext cx="225576" cy="5576781"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightUpArrow">
           <a:avLst/>
@@ -2048,7 +2403,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>698498</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>190494</xdr:rowOff>
     </xdr:to>
@@ -2101,13 +2456,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>25406</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>139699</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>1803400</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>12694</xdr:rowOff>
@@ -2161,20 +2516,80 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1587498</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1803399</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Flecha: a la izquierda, derecha y arriba 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3097E1F8-85AD-4C9B-A988-60B813646FDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="24904698" y="2222500"/>
+          <a:ext cx="215901" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightUpArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>638135</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>55742</xdr:rowOff>
+      <xdr:colOff>526384</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>109202</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>852576</xdr:colOff>
+      <xdr:colOff>784546</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>29313</xdr:rowOff>
+      <xdr:rowOff>97912</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Flecha: a la izquierda, derecha y arriba 57">
+        <xdr:cNvPr id="18" name="Flecha: a la izquierda, derecha y arriba 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A207FFC-329A-4274-9A1D-BEBC97BC4C01}"/>
@@ -2185,8 +2600,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="20516351">
-          <a:off x="3851235" y="3027542"/>
-          <a:ext cx="214441" cy="6679171"/>
+          <a:off x="4310984" y="2877802"/>
+          <a:ext cx="258162" cy="6986410"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightUpArrow">
           <a:avLst/>
@@ -2228,13 +2643,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4834,417 +5249,496 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U67"/>
+  <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="C29" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
     <col min="6" max="6" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
     <col min="9" max="9" width="26.85546875" customWidth="1"/>
     <col min="10" max="10" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
     <col min="13" max="13" width="9.140625" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.85546875" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" customWidth="1"/>
-    <col min="18" max="18" width="27.7109375" customWidth="1"/>
-    <col min="19" max="19" width="33" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.7109375" customWidth="1"/>
-    <col min="21" max="21" width="18.140625" customWidth="1"/>
-    <col min="23" max="23" width="33" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" customWidth="1"/>
+    <col min="18" max="18" width="33" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.7109375" customWidth="1"/>
+    <col min="20" max="20" width="18.140625" customWidth="1"/>
+    <col min="22" max="22" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="53" t="s">
+    <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="51" t="s">
         <v>12</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="S2" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+    </row>
+    <row r="3" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-    </row>
-    <row r="3" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>125</v>
-      </c>
       <c r="D3" s="10" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="J3" s="58" t="s">
+      <c r="J3" s="56" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
-      <c r="S3" s="46" t="s">
+      <c r="R3" s="45" t="s">
         <v>1</v>
       </c>
+      <c r="S3" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="T3" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
+      <c r="C4" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>112</v>
+      </c>
       <c r="E4" s="3"/>
-      <c r="J4" s="58" t="s">
+      <c r="J4" s="56" t="s">
         <v>35</v>
       </c>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
-      <c r="O4" s="46" t="s">
+      <c r="N4" s="45" t="s">
         <v>19</v>
       </c>
+      <c r="O4" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="P4" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="S4" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="R4" s="38" t="s">
         <v>23</v>
       </c>
+      <c r="S4" s="9"/>
       <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="12"/>
       <c r="E5" s="3"/>
       <c r="F5" s="30"/>
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
-      <c r="J5" s="58" t="s">
+      <c r="J5" s="56" t="s">
         <v>34</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
-      <c r="O5" s="38" t="s">
+      <c r="N5" s="38" t="s">
         <v>23</v>
       </c>
+      <c r="O5" s="9"/>
       <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="S5" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="R5" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="12"/>
       <c r="E6" s="3"/>
-      <c r="J6" s="59" t="s">
+      <c r="J6" s="57" t="s">
         <v>13</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="3"/>
-      <c r="O6" s="38" t="s">
+      <c r="N6" s="38" t="s">
         <v>36</v>
       </c>
+      <c r="O6" s="12"/>
       <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="S6" s="48" t="s">
-        <v>6</v>
-      </c>
+      <c r="R6" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="12"/>
       <c r="E7" s="3"/>
-      <c r="J7" s="59" t="s">
+      <c r="J7" s="57" t="s">
         <v>14</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="3"/>
-      <c r="O7" s="48" t="s">
+      <c r="N7" s="47" t="s">
         <v>7</v>
       </c>
+      <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="S7" s="48" t="s">
-        <v>4</v>
-      </c>
+      <c r="R7" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-    </row>
-    <row r="8" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="14"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="93" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="81" t="s">
+        <v>116</v>
+      </c>
       <c r="D8" s="14"/>
       <c r="E8" s="3"/>
-      <c r="J8" s="59" t="s">
+      <c r="J8" s="57" t="s">
         <v>4</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="O8" s="48" t="s">
+      <c r="N8" s="47" t="s">
         <v>4</v>
       </c>
+      <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="S8" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-    </row>
-    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="R8" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>115</v>
+      </c>
       <c r="E9" s="3"/>
-      <c r="J9" s="60" t="s">
+      <c r="J9" s="58" t="s">
         <v>3</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="O9" s="50" t="s">
+      <c r="N9" s="48" t="s">
         <v>3</v>
       </c>
+      <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="R9" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>115</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
+      <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="R10" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="12"/>
       <c r="E11" s="3"/>
+      <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="R11" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="12"/>
       <c r="E12" s="3"/>
-      <c r="J12" s="46" t="s">
+      <c r="J12" s="45" t="s">
         <v>8</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>115</v>
+      </c>
       <c r="E13" s="3"/>
-      <c r="J13" s="47" t="s">
+      <c r="J13" s="46" t="s">
         <v>18</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="C14" s="79" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="79"/>
       <c r="E14" s="3"/>
-      <c r="J14" s="52" t="s">
-        <v>91</v>
+      <c r="J14" s="50" t="s">
+        <v>87</v>
       </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
+      <c r="N14" s="23"/>
       <c r="O14" s="23"/>
       <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-    </row>
-    <row r="15" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
+    </row>
+    <row r="15" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="C15" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="78"/>
       <c r="E15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="48" t="s">
+      <c r="J15" s="47" t="s">
         <v>4</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="3"/>
+      <c r="P15" s="27"/>
+      <c r="R15" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="S15" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="T15" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="50" t="s">
+      <c r="J16" s="48" t="s">
         <v>3</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="R16" s="23"/>
-    </row>
-    <row r="17" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D17" s="3"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E17" s="3"/>
       <c r="I17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="3"/>
+      <c r="R17" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+    </row>
+    <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="33"/>
       <c r="K18" s="33"/>
       <c r="L18" s="33"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="3"/>
+      <c r="R18" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="46" t="s">
+      <c r="J19" s="45" t="s">
         <v>79</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="R19" s="23"/>
-    </row>
-    <row r="20" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D20" s="3"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="47" t="s">
+      <c r="J20" s="46" t="s">
         <v>18</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D21" s="3"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="48" t="s">
-        <v>92</v>
+      <c r="J21" s="47" t="s">
+        <v>88</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="R21" s="23"/>
-    </row>
-    <row r="22" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="Q21" s="23"/>
+    </row>
+    <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="48" t="s">
-        <v>97</v>
+      <c r="J22" s="47" t="s">
+        <v>93</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="48" t="s">
+      <c r="J23" s="47" t="s">
         <v>4</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>0</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="50" t="s">
+      <c r="J24" s="48" t="s">
         <v>3</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="51" t="s">
+        <v>21</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -5252,7 +5746,13 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>20</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -5260,326 +5760,399 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="46" t="s">
-        <v>20</v>
+      <c r="J27" s="45" t="s">
+        <v>142</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="51" t="s">
+        <v>84</v>
+      </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="53" t="s">
+      <c r="F28" s="51" t="s">
         <v>21</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="I28" s="3"/>
-      <c r="J28" s="47" t="s">
+      <c r="J28" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="K28" s="47"/>
-      <c r="L28" s="9"/>
+      <c r="K28" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="L28" s="17" t="s">
+        <v>112</v>
+      </c>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>30</v>
+      </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="47" t="s">
+      <c r="F29" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="G29" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>112</v>
+      </c>
       <c r="I29" s="3"/>
-      <c r="J29" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="K29" s="48"/>
-      <c r="L29" s="1"/>
+      <c r="J29" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="K29" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>115</v>
+      </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="F30" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" s="12"/>
+    </row>
+    <row r="30" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>116</v>
+      </c>
       <c r="H30" s="12"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="48" t="s">
+      <c r="J30" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="K30" s="48"/>
+      <c r="K30" s="79" t="s">
+        <v>128</v>
+      </c>
       <c r="L30" s="1"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F31" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="J31" s="50" t="s">
+    </row>
+    <row r="31" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="H31" s="55"/>
+      <c r="J31" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="K31" s="50"/>
+      <c r="K31" s="79" t="s">
+        <v>128</v>
+      </c>
       <c r="L31" s="2"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="4:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>8</v>
+      </c>
       <c r="I32" s="4"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F34" s="53" t="s">
-        <v>87</v>
+    </row>
+    <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="51" t="s">
+        <v>84</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="I34" s="3"/>
-      <c r="J34" s="46" t="s">
+      <c r="J34" s="45" t="s">
         <v>30</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F35" s="47" t="s">
+    </row>
+    <row r="35" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="46" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="47" t="s">
+      <c r="J35" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="K35" s="47"/>
+      <c r="K35" s="46"/>
       <c r="L35" s="9"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="36" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F36" s="47" t="s">
+    </row>
+    <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="46" t="s">
         <v>41</v>
       </c>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="K36" s="48"/>
+      <c r="J36" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="K36" s="47"/>
       <c r="L36" s="1"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-    </row>
-    <row r="37" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F37" s="56" t="s">
+    </row>
+    <row r="37" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="F37" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="48" t="s">
+      <c r="J37" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="K37" s="48"/>
+      <c r="K37" s="47"/>
       <c r="L37" s="1"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I38" s="3"/>
-      <c r="J38" s="50" t="s">
+      <c r="J38" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="50"/>
+      <c r="K38" s="48"/>
       <c r="L38" s="2"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B39" s="34"/>
       <c r="I39" s="3"/>
       <c r="J39" s="23"/>
       <c r="K39" s="23"/>
       <c r="L39" s="23"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I40" s="3"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F41" s="53" t="s">
-        <v>88</v>
+    <row r="41" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="51" t="s">
+        <v>85</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="I41" s="3"/>
-      <c r="J41" s="46" t="s">
+      <c r="J41" s="45" t="s">
         <v>22</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F42" s="47" t="s">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F42" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="9"/>
+      <c r="G42" s="32"/>
       <c r="H42" s="9"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="47" t="s">
+      <c r="J42" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="K42" s="47"/>
+      <c r="K42" s="46"/>
       <c r="L42" s="9"/>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F43" s="47" t="s">
-        <v>89</v>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F43" s="46" t="s">
+        <v>86</v>
       </c>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="K43" s="48"/>
+      <c r="J43" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="K43" s="47"/>
       <c r="L43" s="1"/>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F44" s="56" t="s">
+    <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="48" t="s">
+      <c r="J44" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="48"/>
+      <c r="K44" s="47"/>
       <c r="L44" s="1"/>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I45" s="3"/>
-      <c r="J45" s="50" t="s">
+      <c r="J45" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="50"/>
+      <c r="K45" s="48"/>
       <c r="L45" s="2"/>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F47" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
+    <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F47" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
     </row>
-    <row r="48" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F48" s="6" t="s">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F48" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="84"/>
-      <c r="H48" s="84"/>
-      <c r="I48" s="43" t="s">
-        <v>113</v>
-      </c>
+      <c r="G48" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="I48" s="43"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
     </row>
-    <row r="49" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F49" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="84"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="43" t="s">
-        <v>123</v>
-      </c>
+    <row r="49" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F49" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="G49" s="92" t="s">
+        <v>127</v>
+      </c>
+      <c r="H49" s="87"/>
+      <c r="I49" s="43"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
     </row>
     <row r="50" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F50" s="85" t="s">
-        <v>96</v>
-      </c>
-      <c r="G50" s="88"/>
-      <c r="H50" s="88"/>
-      <c r="I50" s="43" t="s">
-        <v>111</v>
-      </c>
+      <c r="F50" s="88" t="s">
+        <v>148</v>
+      </c>
+      <c r="G50" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="H50" s="89"/>
+      <c r="I50" s="43"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -5589,22 +6162,22 @@
       <c r="F51" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="G51" s="89"/>
-      <c r="H51" s="89"/>
-      <c r="I51" s="43" t="s">
-        <v>112</v>
-      </c>
+      <c r="G51" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="H51" s="87"/>
+      <c r="I51" s="43"/>
       <c r="M51" s="3"/>
     </row>
     <row r="52" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F52" s="87" t="s">
+      <c r="F52" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="89"/>
-      <c r="H52" s="89"/>
-      <c r="I52" s="44" t="s">
-        <v>114</v>
-      </c>
+      <c r="G52" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="H52" s="91"/>
+      <c r="I52" s="44"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -5663,17 +6236,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P111"/>
+  <dimension ref="A1:P115"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
@@ -5689,65 +6262,69 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E1" s="23" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>126</v>
+      <c r="A2" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>110</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="82" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="83" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="M2" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="N2" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="O2" s="66" t="s">
+      <c r="F2" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" s="93" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="L2" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="M2" s="97" t="s">
+        <v>145</v>
+      </c>
+      <c r="N2" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="O2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="67" t="s">
+      <c r="P2" s="64" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="12"/>
+      <c r="B3" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>112</v>
+      </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="68">
+      <c r="E3" s="65">
         <v>1</v>
       </c>
       <c r="F3" s="21" t="s">
@@ -5757,7 +6334,7 @@
         <v>1000</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="I3" s="21"/>
       <c r="J3" s="21">
@@ -5770,16 +6347,18 @@
       <c r="M3" s="21"/>
       <c r="N3" s="21"/>
       <c r="O3" s="21"/>
-      <c r="P3" s="69"/>
+      <c r="P3" s="66"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="12"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="68">
+      <c r="E4" s="65">
         <v>2</v>
       </c>
       <c r="F4" s="21" t="s">
@@ -5789,7 +6368,7 @@
         <v>250</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="21">
@@ -5802,16 +6381,18 @@
       <c r="M4" s="21"/>
       <c r="N4" s="21"/>
       <c r="O4" s="21"/>
-      <c r="P4" s="69"/>
+      <c r="P4" s="66"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="12"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="68">
+      <c r="E5" s="65">
         <v>3</v>
       </c>
       <c r="F5" s="21" t="s">
@@ -5821,7 +6402,7 @@
         <v>500</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="21">
@@ -5834,16 +6415,18 @@
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
-      <c r="P5" s="69"/>
+      <c r="P5" s="66"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="12"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="68">
+      <c r="E6" s="65">
         <v>4</v>
       </c>
       <c r="F6" s="21" t="s">
@@ -5853,7 +6436,7 @@
         <v>300</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="21">
@@ -5866,16 +6449,18 @@
       <c r="M6" s="21"/>
       <c r="N6" s="21"/>
       <c r="O6" s="21"/>
-      <c r="P6" s="69"/>
+      <c r="P6" s="66"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="49"/>
+      <c r="A7" s="93" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="81" t="s">
+        <v>116</v>
+      </c>
       <c r="C7" s="14"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="68">
+      <c r="E7" s="65">
         <v>5</v>
       </c>
       <c r="F7" s="21" t="s">
@@ -5885,7 +6470,7 @@
         <v>1200</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="21">
@@ -5898,16 +6483,20 @@
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
-      <c r="P7" s="69"/>
+      <c r="P7" s="66"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="12"/>
+        <v>138</v>
+      </c>
+      <c r="B8" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>115</v>
+      </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="68">
+      <c r="E8" s="65">
         <v>6</v>
       </c>
       <c r="F8" s="21" t="s">
@@ -5917,7 +6506,7 @@
         <v>600</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="21">
@@ -5930,16 +6519,20 @@
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
-      <c r="P8" s="69"/>
+      <c r="P8" s="66"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="12"/>
+        <v>139</v>
+      </c>
+      <c r="B9" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>115</v>
+      </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="68">
+      <c r="E9" s="65">
         <v>7</v>
       </c>
       <c r="F9" s="21" t="s">
@@ -5949,7 +6542,7 @@
         <v>900</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="21">
@@ -5962,16 +6555,18 @@
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="21"/>
-      <c r="P9" s="69"/>
+      <c r="P9" s="66"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="12"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="68">
+      <c r="E10" s="65">
         <v>8</v>
       </c>
       <c r="F10" s="21" t="s">
@@ -5981,7 +6576,7 @@
         <v>700</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="21">
@@ -5994,255 +6589,268 @@
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
-      <c r="P10" s="69"/>
+      <c r="P10" s="66"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="67">
+        <v>9</v>
+      </c>
+      <c r="F11" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="68">
+        <v>900</v>
+      </c>
+      <c r="H11" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68">
         <v>3</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="70">
+      <c r="K11" s="70">
         <v>9</v>
       </c>
-      <c r="F11" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="71">
-        <v>900</v>
-      </c>
-      <c r="H11" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71">
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="71"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="79" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="79"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="73">
-        <v>9</v>
-      </c>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="74"/>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="80" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" s="34"/>
-      <c r="K13" s="36"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="12"/>
+      <c r="B14" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="78"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="68">
-        <v>1</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="81"/>
-      <c r="J14" s="34"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
       <c r="K14" s="36"/>
+      <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="15"/>
-      <c r="E15" s="68">
-        <v>2</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="69"/>
-      <c r="J15" s="35"/>
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
       <c r="K15" s="36"/>
+      <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="1"/>
-      <c r="E16" s="70">
+      <c r="H16" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" s="71"/>
-      <c r="H16" s="74"/>
-      <c r="J16" s="36"/>
+      <c r="J16" s="34"/>
       <c r="K16" s="36"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
       <c r="P16" s="3"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="2"/>
-      <c r="E17" s="36"/>
-      <c r="J17" s="36"/>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="65">
+        <v>1</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="37"/>
+      <c r="H17" s="77"/>
+      <c r="J17" s="34"/>
       <c r="K17" s="36"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J18" s="3"/>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="50"/>
+      <c r="C18" s="15"/>
+      <c r="E18" s="65">
+        <v>2</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="66"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="36"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
     </row>
     <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="C19" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="E19" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="77" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" s="66" t="s">
+      <c r="A19" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="I19" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="3"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="1"/>
+      <c r="E19" s="67">
+        <v>3</v>
+      </c>
+      <c r="F19" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="68"/>
+      <c r="H19" s="71"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="12"/>
-      <c r="E20" s="68">
-        <v>1</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="39">
-        <v>1</v>
-      </c>
-      <c r="H20" s="31"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="3"/>
+    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="48"/>
+      <c r="C20" s="2"/>
+      <c r="E20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="1"/>
-      <c r="E21" s="68">
-        <v>2</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="39">
-        <v>1</v>
-      </c>
-      <c r="H21" s="31"/>
-      <c r="I21" s="69"/>
+    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="12"/>
-      <c r="E22" s="68">
-        <v>3</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="39">
-        <v>1</v>
-      </c>
-      <c r="H22" s="31"/>
-      <c r="I22" s="69"/>
+    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="64" t="s">
+        <v>4</v>
+      </c>
       <c r="J22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -6250,45 +6858,45 @@
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="1"/>
-      <c r="E23" s="68">
-        <v>4</v>
+      <c r="A23" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="38"/>
+      <c r="C23" s="12"/>
+      <c r="E23" s="65">
+        <v>1</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="G23" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" s="31"/>
-      <c r="I23" s="69"/>
+      <c r="I23" s="66"/>
       <c r="J23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="2"/>
-      <c r="E24" s="78">
-        <v>5</v>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="47"/>
+      <c r="C24" s="1"/>
+      <c r="E24" s="65">
+        <v>2</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" s="21">
-        <v>2</v>
-      </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="69"/>
+        <v>46</v>
+      </c>
+      <c r="G24" s="39">
+        <v>1</v>
+      </c>
+      <c r="H24" s="31"/>
+      <c r="I24" s="66"/>
       <c r="J24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -6296,1146 +6904,1262 @@
       <c r="P24" s="3"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="E25" s="78">
-        <v>6</v>
+      <c r="A25" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="38"/>
+      <c r="C25" s="12"/>
+      <c r="E25" s="65">
+        <v>3</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" s="21">
+        <v>47</v>
+      </c>
+      <c r="G25" s="39">
+        <v>1</v>
+      </c>
+      <c r="H25" s="31"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="47"/>
+      <c r="C26" s="1"/>
+      <c r="E26" s="65">
+        <v>4</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="39">
         <v>2</v>
       </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="E26" s="78">
-        <v>7</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="21">
+      <c r="H26" s="31"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="E27" s="78">
-        <v>8</v>
+      <c r="B27" s="48"/>
+      <c r="C27" s="2"/>
+      <c r="E27" s="74">
+        <v>5</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G27" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27" s="21"/>
-      <c r="I27" s="69"/>
+      <c r="I27" s="66"/>
       <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="E28" s="79">
-        <v>9</v>
-      </c>
-      <c r="F28" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="71">
-        <v>3</v>
-      </c>
-      <c r="H28" s="71"/>
-      <c r="I28" s="74"/>
+      <c r="E28" s="74">
+        <v>6</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="21">
+        <v>2</v>
+      </c>
+      <c r="H28" s="21"/>
+      <c r="I28" s="66"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-    </row>
-    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="G30" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="H30" s="67" t="s">
+      <c r="E29" s="74">
+        <v>7</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="21">
         <v>3</v>
       </c>
-      <c r="I30" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="J30" s="36"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="12"/>
-      <c r="E31" s="68">
-        <v>1</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="1"/>
-      <c r="E32" s="68">
-        <v>2</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32" s="21"/>
-      <c r="H32" s="69"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="E30" s="74">
+        <v>8</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="21">
+        <v>3</v>
+      </c>
+      <c r="H30" s="21"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="E31" s="75">
+        <v>9</v>
+      </c>
+      <c r="F31" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="68">
+        <v>3</v>
+      </c>
+      <c r="H31" s="68"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="E32" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" s="36"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
       <c r="I32" s="36"/>
       <c r="J32" s="36"/>
     </row>
-    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="48" t="s">
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" s="104" t="s">
+        <v>152</v>
+      </c>
+      <c r="H33" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="1"/>
-      <c r="E33" s="70">
+      <c r="I33" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="71" t="s">
+      <c r="J33" s="40"/>
+      <c r="K33" s="36"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="38"/>
+      <c r="C34" s="12"/>
+      <c r="E34" s="99">
+        <v>1</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" s="100">
+        <v>1</v>
+      </c>
+      <c r="H34" s="37"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="47"/>
+      <c r="C35" s="1"/>
+      <c r="E35" s="65">
+        <v>2</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" s="31">
+        <v>1</v>
+      </c>
+      <c r="H35" s="21"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="47"/>
+      <c r="C36" s="1"/>
+      <c r="E36" s="67">
+        <v>3</v>
+      </c>
+      <c r="F36" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="G33" s="71"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="50" t="s">
+      <c r="G36" s="31">
+        <v>1</v>
+      </c>
+      <c r="H36" s="68"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="2"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="36"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="C36" s="54" t="s">
-        <v>126</v>
-      </c>
-      <c r="E36" s="41" t="s">
+      <c r="B37" s="48"/>
+      <c r="C37" s="2"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="36"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="E38" s="41"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="G39" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="H39" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="I39" s="64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="38"/>
+      <c r="C40" s="12"/>
+      <c r="E40" s="65">
+        <v>1</v>
+      </c>
+      <c r="F40" s="21">
+        <v>3</v>
+      </c>
+      <c r="G40" s="39">
+        <v>1</v>
+      </c>
+      <c r="H40" s="31"/>
+      <c r="I40" s="66"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="47"/>
+      <c r="C41" s="1"/>
+      <c r="E41" s="65">
+        <v>2</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" s="39">
+        <v>5</v>
+      </c>
+      <c r="H41" s="31"/>
+      <c r="I41" s="66"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="47"/>
+      <c r="C42" s="1"/>
+      <c r="E42" s="67">
+        <v>3</v>
+      </c>
+      <c r="F42" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" s="69">
+        <v>7</v>
+      </c>
+      <c r="H42" s="70"/>
+      <c r="I42" s="71"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="47"/>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="48"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="E45" s="40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="E46" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="G46" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="H46" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46" s="64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="38"/>
+      <c r="C47" s="12"/>
+      <c r="E47" s="65">
+        <v>1</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G47" s="39">
+        <v>1</v>
+      </c>
+      <c r="H47" s="31"/>
+      <c r="I47" s="66"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="47"/>
+      <c r="C48" s="1"/>
+      <c r="E48" s="65">
+        <v>2</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G48" s="39">
+        <v>1</v>
+      </c>
+      <c r="H48" s="31"/>
+      <c r="I48" s="66"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="53"/>
+      <c r="C49" s="42"/>
+      <c r="E49" s="65">
+        <v>3</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G49" s="39">
+        <v>1</v>
+      </c>
+      <c r="H49" s="31"/>
+      <c r="I49" s="66"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="47"/>
+      <c r="C50" s="1"/>
+      <c r="E50" s="67">
+        <v>4</v>
+      </c>
+      <c r="F50" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="G50" s="69">
+        <v>1</v>
+      </c>
+      <c r="H50" s="70"/>
+      <c r="I50" s="71"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="48"/>
+      <c r="C51" s="2"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="J52" s="41"/>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="E53" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="G53" s="82" t="s">
+        <v>96</v>
+      </c>
+      <c r="H53" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="I53" s="82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" s="38"/>
+      <c r="C54" s="12"/>
+      <c r="E54" s="65">
+        <v>1</v>
+      </c>
+      <c r="F54" s="37">
+        <v>1</v>
+      </c>
+      <c r="G54" s="105">
+        <v>1</v>
+      </c>
+      <c r="H54" s="100"/>
+      <c r="I54" s="77"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" s="47"/>
+      <c r="C55" s="1"/>
+      <c r="E55" s="65">
+        <v>2</v>
+      </c>
+      <c r="F55" s="21">
+        <v>2</v>
+      </c>
+      <c r="G55" s="39">
+        <v>2</v>
+      </c>
+      <c r="H55" s="31"/>
+      <c r="I55" s="66"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" s="47"/>
+      <c r="C56" s="1"/>
+      <c r="E56" s="65">
+        <v>3</v>
+      </c>
+      <c r="F56" s="21">
+        <v>3</v>
+      </c>
+      <c r="G56" s="39">
+        <v>3</v>
+      </c>
+      <c r="H56" s="31"/>
+      <c r="I56" s="66"/>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" s="53"/>
+      <c r="C57" s="42"/>
+      <c r="E57" s="67">
+        <v>4</v>
+      </c>
+      <c r="F57" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="G57" s="69">
+        <v>6</v>
+      </c>
+      <c r="H57" s="70"/>
+      <c r="I57" s="71"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="47"/>
+      <c r="C58" s="1"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="48"/>
+      <c r="C59" s="2"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="3"/>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="B61" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="E61" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="G61" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="H61" s="64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E62" s="65">
+        <v>1</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G62" s="21"/>
+      <c r="H62" s="66"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="B63" s="96" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="E63" s="65">
+        <v>2</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G63" s="21"/>
+      <c r="H63" s="66"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="79" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="E64" s="65">
+        <v>3</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G64" s="21"/>
+      <c r="H64" s="66"/>
+    </row>
+    <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="79" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="E65" s="67">
+        <v>4</v>
+      </c>
+      <c r="F65" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="G65" s="68"/>
+      <c r="H65" s="71"/>
+    </row>
+    <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="E67" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="G67" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="H67" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="I67" s="64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E68" s="65">
+        <v>1</v>
+      </c>
+      <c r="F68" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G68" s="39">
+        <v>20</v>
+      </c>
+      <c r="H68" s="31"/>
+      <c r="I68" s="66"/>
+    </row>
+    <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="B69" s="92" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="E69" s="65">
+        <v>2</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G69" s="39">
+        <v>18</v>
+      </c>
+      <c r="H69" s="31"/>
+      <c r="I69" s="66"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="98" t="s">
+        <v>148</v>
+      </c>
+      <c r="B70" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C70" s="42"/>
+      <c r="E70" s="65">
+        <v>3</v>
+      </c>
+      <c r="F70" s="21" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="47" t="s">
+      <c r="G70" s="39">
+        <v>23</v>
+      </c>
+      <c r="H70" s="31"/>
+      <c r="I70" s="66"/>
+    </row>
+    <row r="71" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="79" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="E71" s="67">
+        <v>4</v>
+      </c>
+      <c r="F71" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="G71" s="69">
+        <v>1</v>
+      </c>
+      <c r="H71" s="70"/>
+      <c r="I71" s="71"/>
+    </row>
+    <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="79" t="s">
+        <v>130</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="B74" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="E74" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="12"/>
-      <c r="E37" s="64" t="s">
+      <c r="F74" s="106" t="s">
+        <v>149</v>
+      </c>
+      <c r="G74" s="106" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F37" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="G37" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="H37" s="66" t="s">
+      <c r="B75" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E75" s="99">
+        <v>1</v>
+      </c>
+      <c r="F75" s="37">
         <v>4</v>
       </c>
-      <c r="I37" s="67" t="s">
+      <c r="G75" s="77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C76" s="12"/>
+      <c r="E76" s="65">
+        <v>2</v>
+      </c>
+      <c r="F76" s="21">
+        <v>2</v>
+      </c>
+      <c r="G76" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C77" s="55"/>
+      <c r="E77" s="67">
+        <v>3</v>
+      </c>
+      <c r="F77" s="68">
+        <v>1</v>
+      </c>
+      <c r="G77" s="71">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="C79" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="E79" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G79" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="H79" s="64" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="1"/>
-      <c r="E38" s="68">
+      <c r="I79" s="82" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" s="38"/>
+      <c r="C80" s="12"/>
+      <c r="E80" s="65">
         <v>1</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F80" s="21">
+        <v>28</v>
+      </c>
+      <c r="G80" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="H80" s="31"/>
+      <c r="I80" s="66"/>
+      <c r="J80" s="83"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B81" s="38"/>
+      <c r="C81" s="12"/>
+      <c r="E81" s="65">
+        <v>2</v>
+      </c>
+      <c r="F81" s="21"/>
+      <c r="G81" t="s">
+        <v>122</v>
+      </c>
+      <c r="H81" s="31"/>
+      <c r="I81" s="66"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" s="47"/>
+      <c r="C82" s="1"/>
+      <c r="E82" s="65">
         <v>3</v>
       </c>
-      <c r="G38" s="39">
+      <c r="F82" s="21"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="66"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="47"/>
+      <c r="C83" s="1"/>
+      <c r="E83" s="65"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="66"/>
+    </row>
+    <row r="84" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" s="48"/>
+      <c r="C84" s="2"/>
+      <c r="E84" s="67"/>
+      <c r="F84" s="68"/>
+      <c r="G84" s="70"/>
+      <c r="H84" s="70"/>
+      <c r="I84" s="71"/>
+    </row>
+    <row r="85" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="86" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="C86" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="E86" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="G86" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="H86" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="I86" s="63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="B87" s="38"/>
+      <c r="C87" s="12"/>
+      <c r="E87" s="65">
         <v>1</v>
       </c>
-      <c r="H38" s="31"/>
-      <c r="I38" s="69"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" s="48"/>
-      <c r="C39" s="1"/>
-      <c r="E39" s="68">
+      <c r="F87" s="21">
         <v>2</v>
       </c>
-      <c r="F39" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="G39" s="39">
-        <v>5</v>
-      </c>
-      <c r="H39" s="31"/>
-      <c r="I39" s="69"/>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="48"/>
-      <c r="C40" s="1"/>
-      <c r="E40" s="70">
-        <v>3</v>
-      </c>
-      <c r="F40" s="71" t="s">
-        <v>103</v>
-      </c>
-      <c r="G40" s="72">
+      <c r="G87" s="21">
         <v>7</v>
       </c>
-      <c r="H40" s="73"/>
-      <c r="I40" s="74"/>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="50"/>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="E43" s="41"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="12"/>
-      <c r="E44" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="G44" s="65" t="s">
-        <v>118</v>
-      </c>
-      <c r="H44" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="67" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="B45" s="48"/>
-      <c r="C45" s="1"/>
-      <c r="E45" s="68">
-        <v>1</v>
-      </c>
-      <c r="F45" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="G45" s="39">
-        <v>1</v>
-      </c>
-      <c r="H45" s="31"/>
-      <c r="I45" s="69"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="B46" s="55"/>
-      <c r="C46" s="42"/>
-      <c r="E46" s="68">
-        <v>2</v>
-      </c>
-      <c r="F46" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="G46" s="39">
-        <v>2</v>
-      </c>
-      <c r="H46" s="31"/>
-      <c r="I46" s="69"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="48"/>
-      <c r="C47" s="1"/>
-      <c r="E47" s="68">
-        <v>3</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="G47" s="39">
-        <v>3</v>
-      </c>
-      <c r="H47" s="31"/>
-      <c r="I47" s="69"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="B48" s="50"/>
-      <c r="C48" s="2"/>
-      <c r="E48" s="70">
-        <v>4</v>
-      </c>
-      <c r="F48" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="G48" s="72">
-        <v>1</v>
-      </c>
-      <c r="H48" s="73"/>
-      <c r="I48" s="74"/>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="41"/>
-    </row>
-    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="C50" s="54" t="s">
-        <v>126</v>
-      </c>
-      <c r="E50" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" s="38"/>
-      <c r="C51" s="12"/>
-      <c r="E51" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="G51" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="H51" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="I51" s="67" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="B52" s="48"/>
-      <c r="C52" s="1"/>
-      <c r="E52" s="68">
-        <v>1</v>
-      </c>
-      <c r="F52" s="21">
-        <v>1</v>
-      </c>
-      <c r="G52" s="39">
-        <v>1</v>
-      </c>
-      <c r="H52" s="31"/>
-      <c r="I52" s="69"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="B53" s="48"/>
-      <c r="C53" s="1"/>
-      <c r="E53" s="68">
-        <v>2</v>
-      </c>
-      <c r="F53" s="21">
-        <v>2</v>
-      </c>
-      <c r="G53" s="39">
-        <v>2</v>
-      </c>
-      <c r="H53" s="31"/>
-      <c r="I53" s="69"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="B54" s="55"/>
-      <c r="C54" s="42"/>
-      <c r="E54" s="68">
-        <v>3</v>
-      </c>
-      <c r="F54" s="21">
-        <v>3</v>
-      </c>
-      <c r="G54" s="39">
-        <v>3</v>
-      </c>
-      <c r="H54" s="31"/>
-      <c r="I54" s="69"/>
-    </row>
-    <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" s="48"/>
-      <c r="C55" s="1"/>
-      <c r="E55" s="70">
-        <v>4</v>
-      </c>
-      <c r="F55" s="71" t="s">
-        <v>103</v>
-      </c>
-      <c r="G55" s="72">
-        <v>6</v>
-      </c>
-      <c r="H55" s="73"/>
-      <c r="I55" s="74"/>
-    </row>
-    <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" s="50"/>
-      <c r="C56" s="2"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B58" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="C58" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="E58" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="67" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="B59" s="38"/>
-      <c r="C59" s="12"/>
-      <c r="E59" s="68">
-        <v>1</v>
-      </c>
-      <c r="F59" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G59" s="21"/>
-      <c r="H59" s="69"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="B60" s="48"/>
-      <c r="C60" s="1"/>
-      <c r="E60" s="68">
-        <v>2</v>
-      </c>
-      <c r="F60" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G60" s="21"/>
-      <c r="H60" s="69"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" s="48"/>
-      <c r="C61" s="1"/>
-      <c r="E61" s="68">
-        <v>3</v>
-      </c>
-      <c r="F61" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="G61" s="21"/>
-      <c r="H61" s="69"/>
-    </row>
-    <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="B62" s="50"/>
-      <c r="C62" s="2"/>
-      <c r="E62" s="70">
-        <v>4</v>
-      </c>
-      <c r="F62" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="G62" s="71"/>
-      <c r="H62" s="74"/>
-    </row>
-    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-    </row>
-    <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="B64" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="C64" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="E64" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="F64" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="G64" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="H64" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="I64" s="67" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="B65" s="38"/>
-      <c r="C65" s="12"/>
-      <c r="E65" s="68">
-        <v>1</v>
-      </c>
-      <c r="F65" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="G65" s="39">
-        <v>20</v>
-      </c>
-      <c r="H65" s="31"/>
-      <c r="I65" s="69"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="B66" s="48"/>
-      <c r="C66" s="1"/>
-      <c r="E66" s="68">
-        <v>2</v>
-      </c>
-      <c r="F66" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="G66" s="39">
-        <v>18</v>
-      </c>
-      <c r="H66" s="31"/>
-      <c r="I66" s="69"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="B67" s="55"/>
-      <c r="C67" s="42"/>
-      <c r="E67" s="68">
-        <v>3</v>
-      </c>
-      <c r="F67" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="G67" s="39">
-        <v>23</v>
-      </c>
-      <c r="H67" s="31"/>
-      <c r="I67" s="69"/>
-    </row>
-    <row r="68" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" s="48"/>
-      <c r="C68" s="1"/>
-      <c r="E68" s="70">
-        <v>4</v>
-      </c>
-      <c r="F68" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="G68" s="72">
-        <v>1</v>
-      </c>
-      <c r="H68" s="73"/>
-      <c r="I68" s="74"/>
-    </row>
-    <row r="69" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="B69" s="50"/>
-      <c r="C69" s="2"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-    </row>
-    <row r="70" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="B71" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="C71" s="54" t="s">
-        <v>126</v>
-      </c>
-      <c r="E71" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="F71" s="75" t="s">
-        <v>40</v>
-      </c>
-      <c r="G71" s="76" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="B72" s="38"/>
-      <c r="C72" s="12"/>
-      <c r="E72" s="68">
-        <v>1</v>
-      </c>
-      <c r="F72" s="21"/>
-      <c r="G72" s="69"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="B73" s="38"/>
-      <c r="C73" s="12"/>
-      <c r="E73" s="68">
-        <v>2</v>
-      </c>
-      <c r="F73" s="21"/>
-      <c r="G73" s="69"/>
-    </row>
-    <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="B74" s="63"/>
-      <c r="C74" s="57"/>
-      <c r="E74" s="70">
-        <v>3</v>
-      </c>
-      <c r="F74" s="71"/>
-      <c r="G74" s="74"/>
-    </row>
-    <row r="75" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="B76" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="C76" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="E76" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="F76" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="G76" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="H76" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="I76" s="67" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B77" s="38"/>
-      <c r="C77" s="12"/>
-      <c r="E77" s="68">
-        <v>1</v>
-      </c>
-      <c r="F77" s="21"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="69"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B78" s="38"/>
-      <c r="C78" s="12"/>
-      <c r="E78" s="68">
-        <v>2</v>
-      </c>
-      <c r="F78" s="21"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="69"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="B79" s="48"/>
-      <c r="C79" s="1"/>
-      <c r="E79" s="68">
-        <v>3</v>
-      </c>
-      <c r="F79" s="21"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="69"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B80" s="48"/>
-      <c r="C80" s="1"/>
-      <c r="E80" s="68"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="69"/>
-    </row>
-    <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="B81" s="50"/>
-      <c r="C81" s="2"/>
-      <c r="E81" s="70"/>
-      <c r="F81" s="71"/>
-      <c r="G81" s="73"/>
-      <c r="H81" s="73"/>
-      <c r="I81" s="74"/>
-    </row>
-    <row r="82" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="83" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="B83" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="C83" s="54" t="s">
-        <v>126</v>
-      </c>
-      <c r="E83" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="F83" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="G83" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="H83" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="I83" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="J83" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="67" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="B84" s="38"/>
-      <c r="C84" s="12"/>
-      <c r="E84" s="68">
-        <v>1</v>
-      </c>
-      <c r="F84" s="21"/>
-      <c r="G84" s="21"/>
-      <c r="H84" s="21"/>
-      <c r="I84" s="21"/>
-      <c r="J84" s="21"/>
-      <c r="K84" s="69"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="B85" s="38"/>
-      <c r="C85" s="12"/>
-      <c r="E85" s="68">
-        <v>2</v>
-      </c>
-      <c r="F85" s="21"/>
-      <c r="G85" s="21"/>
-      <c r="H85" s="21"/>
-      <c r="I85" s="21"/>
-      <c r="J85" s="21"/>
-      <c r="K85" s="69"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="B86" s="38"/>
-      <c r="C86" s="12"/>
-      <c r="E86" s="68">
-        <v>3</v>
-      </c>
-      <c r="F86" s="21"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="21"/>
-      <c r="I86" s="21"/>
-      <c r="J86" s="21"/>
-      <c r="K86" s="69"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="B87" s="48"/>
-      <c r="C87" s="1"/>
-      <c r="E87" s="68">
-        <v>4</v>
-      </c>
-      <c r="F87" s="21"/>
-      <c r="G87" s="21"/>
       <c r="H87" s="21"/>
       <c r="I87" s="21"/>
-      <c r="J87" s="21"/>
-      <c r="K87" s="69"/>
+      <c r="J87" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="K87" s="64" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="B88" s="48"/>
-      <c r="C88" s="1"/>
-      <c r="E88" s="68">
-        <v>5</v>
+      <c r="A88" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B88" s="38"/>
+      <c r="C88" s="12"/>
+      <c r="E88" s="65">
+        <v>2</v>
       </c>
       <c r="F88" s="21"/>
       <c r="G88" s="21"/>
       <c r="H88" s="21"/>
       <c r="I88" s="21"/>
       <c r="J88" s="21"/>
-      <c r="K88" s="69"/>
+      <c r="K88" s="66"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="B89" s="48"/>
-      <c r="C89" s="1"/>
-      <c r="E89" s="68">
-        <v>6</v>
+      <c r="A89" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B89" s="38"/>
+      <c r="C89" s="12"/>
+      <c r="E89" s="65">
+        <v>3</v>
       </c>
       <c r="F89" s="21"/>
       <c r="G89" s="21"/>
       <c r="H89" s="21"/>
       <c r="I89" s="21"/>
       <c r="J89" s="21"/>
-      <c r="K89" s="69"/>
-    </row>
-    <row r="90" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="60" t="s">
+      <c r="K89" s="66"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" s="47"/>
+      <c r="C90" s="1"/>
+      <c r="E90" s="65">
+        <v>4</v>
+      </c>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="21"/>
+      <c r="J90" s="21"/>
+      <c r="K90" s="66"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" s="47"/>
+      <c r="C91" s="1"/>
+      <c r="E91" s="65">
+        <v>5</v>
+      </c>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="21"/>
+      <c r="J91" s="21"/>
+      <c r="K91" s="66"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" s="47"/>
+      <c r="C92" s="1"/>
+      <c r="E92" s="65">
+        <v>6</v>
+      </c>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="21"/>
+      <c r="K92" s="66"/>
+    </row>
+    <row r="93" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B90" s="50"/>
-      <c r="C90" s="2"/>
-      <c r="E90" s="70">
+      <c r="B93" s="48"/>
+      <c r="C93" s="2"/>
+      <c r="E93" s="67">
         <v>7</v>
       </c>
-      <c r="F90" s="71"/>
-      <c r="G90" s="71"/>
-      <c r="H90" s="71"/>
-      <c r="I90" s="71"/>
-      <c r="J90" s="71"/>
-      <c r="K90" s="74"/>
-    </row>
-    <row r="91" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E91" s="23" t="s">
+      <c r="F93" s="68"/>
+      <c r="G93" s="68"/>
+      <c r="H93" s="68"/>
+      <c r="I93" s="68"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="66"/>
+    </row>
+    <row r="94" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E94" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="J94" s="68"/>
+      <c r="K94" s="71"/>
+    </row>
+    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" s="59" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="B92" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="C92" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="E92" s="64" t="s">
+      <c r="C95" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="E95" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="F92" s="66" t="s">
+      <c r="F95" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G92" s="66" t="s">
+      <c r="G95" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="H92" s="66" t="s">
+      <c r="H95" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="I92" s="67" t="s">
+      <c r="I95" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="J92" s="3"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="38" t="s">
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B93" s="38"/>
-      <c r="C93" s="12"/>
-      <c r="E93" s="68"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="21"/>
-      <c r="H93" s="21"/>
-      <c r="I93" s="69"/>
-      <c r="J93" s="3"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B94" s="48"/>
-      <c r="C94" s="1"/>
-      <c r="E94" s="68"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="21"/>
-      <c r="H94" s="21"/>
-      <c r="I94" s="69"/>
-      <c r="J94" s="3"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="B95" s="48"/>
-      <c r="C95" s="1"/>
-      <c r="E95" s="68"/>
-      <c r="F95" s="21"/>
-      <c r="G95" s="21"/>
-      <c r="H95" s="21"/>
-      <c r="I95" s="69"/>
-      <c r="J95" s="3"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B96" s="48"/>
-      <c r="C96" s="1"/>
-      <c r="E96" s="68"/>
+      <c r="B96" s="38"/>
+      <c r="C96" s="12"/>
+      <c r="E96" s="65"/>
       <c r="F96" s="21"/>
       <c r="G96" s="21"/>
       <c r="H96" s="21"/>
-      <c r="I96" s="69"/>
+      <c r="I96" s="66"/>
       <c r="J96" s="3"/>
     </row>
-    <row r="97" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="50" t="s">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="47"/>
+      <c r="C97" s="1"/>
+      <c r="E97" s="65"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
+      <c r="I97" s="66"/>
+      <c r="J97" s="3"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="47"/>
+      <c r="C98" s="1"/>
+      <c r="E98" s="65"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
+      <c r="I98" s="66"/>
+      <c r="J98" s="3"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" s="47"/>
+      <c r="C99" s="1"/>
+      <c r="E99" s="65"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="21"/>
+      <c r="I99" s="66"/>
+      <c r="J99" s="3"/>
+    </row>
+    <row r="100" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B97" s="50"/>
-      <c r="C97" s="2"/>
-      <c r="E97" s="70"/>
-      <c r="F97" s="71"/>
-      <c r="G97" s="71"/>
-      <c r="H97" s="71"/>
-      <c r="I97" s="74"/>
-      <c r="J97" s="3"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B100" s="48"/>
+      <c r="C100" s="2"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="68"/>
+      <c r="G100" s="68"/>
+      <c r="H100" s="68"/>
+      <c r="I100" s="71"/>
       <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
-      <c r="L102" s="3"/>
-      <c r="M102" s="3"/>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
-      <c r="L103" s="3"/>
-      <c r="M103" s="3"/>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
-      <c r="L104" s="3"/>
-      <c r="M104" s="3"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J105" s="3"/>
@@ -7464,14 +8188,38 @@
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
+      <c r="L109" s="3"/>
+      <c r="M109" s="3"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
+      <c r="M110" s="3"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3"/>
+    </row>
+    <row r="113" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+    </row>
+    <row r="114" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+    </row>
+    <row r="115" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J115" s="3"/>
+      <c r="K115" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9055,4 +9803,16 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tablas_ base de datos.xlsx
+++ b/tablas_ base de datos.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr checkCompatibility="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flor\Desktop\VisteteDePoder\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BASE DE DATOS" sheetId="3" r:id="rId1"/>
@@ -21,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Análisis de Tablas'!$N$16:$P$25</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="178">
   <si>
     <t>PRODUCTOS</t>
   </si>
@@ -691,9 +686,6 @@
     <t>categoria_id?</t>
   </si>
   <si>
-    <t>aca no habria que agregar la columna de foto y nombre que le estamos pidiendo al usuario en el formulario?</t>
-  </si>
-  <si>
     <t xml:space="preserve">lorem ipsum </t>
   </si>
   <si>
@@ -759,12 +751,6 @@
   </si>
   <si>
     <t>CATEGORIAUSUARIOS</t>
-  </si>
-  <si>
-    <t>abierto</t>
-  </si>
-  <si>
-    <t>cerrado</t>
   </si>
   <si>
     <t>flor</t>
@@ -1045,12 +1031,113 @@
       <t>(FK)</t>
     </r>
   </si>
+  <si>
+    <t>*A</t>
+  </si>
+  <si>
+    <t>*A puede tener 2 restricciones ej.Auto increment y UNIQUE KEYS?</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>COMO FUNCIONA ESO</t>
+  </si>
+  <si>
+    <t>hace falta agregar la foto?</t>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+  </si>
+  <si>
+    <t>Lujan</t>
+  </si>
+  <si>
+    <t>Mariana</t>
+  </si>
+  <si>
+    <t>Debora</t>
+  </si>
+  <si>
+    <t>Cecilia</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Mariana@gmail.com</t>
+  </si>
+  <si>
+    <t>Lujan@gmail.com</t>
+  </si>
+  <si>
+    <t>Debora@gmail.com</t>
+  </si>
+  <si>
+    <t>Ana@gmail.com</t>
+  </si>
+  <si>
+    <t>Cecilia@gmail.com</t>
+  </si>
+  <si>
+    <t>AUTO-INCREMENT/ NOT NULL</t>
+  </si>
+  <si>
+    <t>AUTO-INCREMENT/NOT NULL</t>
+  </si>
+  <si>
+    <t>USERS</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>CONSTRAINTS</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>user_id</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (FK)</t>
+    </r>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>CARRITO_PRODUCT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1111,8 +1198,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1149,8 +1244,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="38">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1653,11 +1754,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1775,8 +1903,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1812,7 +1956,7 @@
         <xdr:cNvPr id="52" name="Flecha: a la izquierda, derecha y arriba 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB9934DE-6737-4350-9051-6C7E1F2E73F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB9934DE-6737-4350-9051-6C7E1F2E73F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1872,7 +2016,7 @@
         <xdr:cNvPr id="53" name="Flecha: a la izquierda, derecha y arriba 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3097E1F8-85AD-4C9B-A988-60B813646FDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3097E1F8-85AD-4C9B-A988-60B813646FDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1932,7 +2076,7 @@
         <xdr:cNvPr id="54" name="Flecha: a la izquierda, derecha y arriba 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB06C2DC-CFEB-43E3-ADDB-925B81771409}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB06C2DC-CFEB-43E3-ADDB-925B81771409}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1992,7 +2136,7 @@
         <xdr:cNvPr id="55" name="Flecha: a la izquierda, derecha y arriba 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2052,7 +2196,7 @@
         <xdr:cNvPr id="56" name="Flecha: a la izquierda, derecha y arriba 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A357813C-8AF8-4299-BA91-0A528ED1F6BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A357813C-8AF8-4299-BA91-0A528ED1F6BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2112,7 +2256,7 @@
         <xdr:cNvPr id="57" name="Flecha: a la izquierda, derecha y arriba 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADF86149-9AF8-4979-9898-D92F280DF2FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ADF86149-9AF8-4979-9898-D92F280DF2FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2172,7 +2316,7 @@
         <xdr:cNvPr id="58" name="Flecha: a la izquierda, derecha y arriba 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A207FFC-329A-4274-9A1D-BEBC97BC4C01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2A207FFC-329A-4274-9A1D-BEBC97BC4C01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2232,7 +2376,7 @@
         <xdr:cNvPr id="59" name="Flecha: a la izquierda, derecha y arriba 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E1F9FBF-07B9-42FC-AD07-5156F2305EE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E1F9FBF-07B9-42FC-AD07-5156F2305EE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2292,7 +2436,7 @@
         <xdr:cNvPr id="20" name="Flecha: a la izquierda, derecha y arriba 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3097E1F8-85AD-4C9B-A988-60B813646FDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3097E1F8-85AD-4C9B-A988-60B813646FDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2352,7 +2496,7 @@
         <xdr:cNvPr id="22" name="Flecha: a la izquierda, derecha y arriba 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2412,7 +2556,7 @@
         <xdr:cNvPr id="23" name="Flecha: a la izquierda, derecha y arriba 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2472,7 +2616,7 @@
         <xdr:cNvPr id="24" name="Flecha: a la izquierda, derecha y arriba 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2532,7 +2676,7 @@
         <xdr:cNvPr id="17" name="Flecha: a la izquierda, derecha y arriba 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3097E1F8-85AD-4C9B-A988-60B813646FDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3097E1F8-85AD-4C9B-A988-60B813646FDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2592,7 +2736,7 @@
         <xdr:cNvPr id="18" name="Flecha: a la izquierda, derecha y arriba 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A207FFC-329A-4274-9A1D-BEBC97BC4C01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2A207FFC-329A-4274-9A1D-BEBC97BC4C01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2657,7 +2801,7 @@
         <xdr:cNvPr id="13" name="Conector recto 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2687,6 +2831,61 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="4 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20459700"/>
+          <a:ext cx="7286625" cy="1571625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2712,7 +2911,7 @@
         <xdr:cNvPr id="2" name="Conector recto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B76CAEE4-09D7-41C5-9067-4444BF67D33E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B76CAEE4-09D7-41C5-9067-4444BF67D33E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2767,7 +2966,7 @@
         <xdr:cNvPr id="16" name="Conector recto 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2817,7 +3016,7 @@
         <xdr:cNvPr id="32" name="Conector recto 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2867,7 +3066,7 @@
         <xdr:cNvPr id="35" name="Conector recto 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2917,7 +3116,7 @@
         <xdr:cNvPr id="36" name="Conector recto 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2967,7 +3166,7 @@
         <xdr:cNvPr id="49" name="Conector recto 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3017,7 +3216,7 @@
         <xdr:cNvPr id="51" name="Conector recto 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3067,7 +3266,7 @@
         <xdr:cNvPr id="53" name="Conector recto 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3117,7 +3316,7 @@
         <xdr:cNvPr id="55" name="Conector recto 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3167,7 +3366,7 @@
         <xdr:cNvPr id="56" name="Conector recto 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3217,7 +3416,7 @@
         <xdr:cNvPr id="59" name="Conector recto 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3267,7 +3466,7 @@
         <xdr:cNvPr id="61" name="Conector recto 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3317,7 +3516,7 @@
         <xdr:cNvPr id="63" name="Conector recto 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3367,7 +3566,7 @@
         <xdr:cNvPr id="66" name="Conector recto 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3417,7 +3616,7 @@
         <xdr:cNvPr id="68" name="Conector recto 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3467,7 +3666,7 @@
         <xdr:cNvPr id="71" name="Conector recto 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3517,7 +3716,7 @@
         <xdr:cNvPr id="73" name="Conector recto 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3567,7 +3766,7 @@
         <xdr:cNvPr id="74" name="Conector recto 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3617,7 +3816,7 @@
         <xdr:cNvPr id="76" name="Conector recto 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3667,7 +3866,7 @@
         <xdr:cNvPr id="81" name="Conector recto 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3717,7 +3916,7 @@
         <xdr:cNvPr id="82" name="Conector recto 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3767,7 +3966,7 @@
         <xdr:cNvPr id="86" name="Conector recto 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000056000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3817,7 +4016,7 @@
         <xdr:cNvPr id="87" name="Conector recto 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000057000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3867,7 +4066,7 @@
         <xdr:cNvPr id="90" name="Conector recto 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00005A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3917,7 +4116,7 @@
         <xdr:cNvPr id="91" name="Conector recto 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00005B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3967,7 +4166,7 @@
         <xdr:cNvPr id="92" name="Conector recto 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00005C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4017,7 +4216,7 @@
         <xdr:cNvPr id="93" name="Conector recto 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00005D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4067,7 +4266,7 @@
         <xdr:cNvPr id="100" name="Conector recto 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4117,7 +4316,7 @@
         <xdr:cNvPr id="101" name="Conector recto 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4167,7 +4366,7 @@
         <xdr:cNvPr id="106" name="Conector recto 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4217,7 +4416,7 @@
         <xdr:cNvPr id="108" name="Conector recto 107">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4267,7 +4466,7 @@
         <xdr:cNvPr id="109" name="Conector recto 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4317,7 +4516,7 @@
         <xdr:cNvPr id="111" name="Conector recto 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4367,7 +4566,7 @@
         <xdr:cNvPr id="114" name="Conector recto 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000072000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4417,7 +4616,7 @@
         <xdr:cNvPr id="116" name="Conector recto 115">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000074000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4467,7 +4666,7 @@
         <xdr:cNvPr id="128" name="Conector recto 127">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000080000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4517,7 +4716,7 @@
         <xdr:cNvPr id="130" name="Conector recto 129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000082000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4567,7 +4766,7 @@
         <xdr:cNvPr id="131" name="Conector recto 130">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000083000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4617,7 +4816,7 @@
         <xdr:cNvPr id="132" name="Conector recto 131">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4667,7 +4866,7 @@
         <xdr:cNvPr id="133" name="Conector recto 132">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000085000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4717,7 +4916,7 @@
         <xdr:cNvPr id="136" name="Conector recto 135">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000088000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4767,7 +4966,7 @@
         <xdr:cNvPr id="139" name="Conector recto 138">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00008B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4817,7 +5016,7 @@
         <xdr:cNvPr id="141" name="Conector recto 140">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00008D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4867,7 +5066,7 @@
         <xdr:cNvPr id="142" name="Conector recto 141">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00008E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4917,7 +5116,7 @@
         <xdr:cNvPr id="143" name="Conector recto 142">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00008F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4995,7 +5194,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -5047,7 +5246,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -5241,7 +5440,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5251,7 +5450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C29" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="C29" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
@@ -5286,10 +5485,10 @@
         <v>12</v>
       </c>
       <c r="K2" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>109</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>110</v>
       </c>
       <c r="R2" s="23"/>
       <c r="S2" s="23"/>
@@ -5297,13 +5496,13 @@
     </row>
     <row r="3" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="E3" s="4"/>
       <c r="J3" s="56" t="s">
@@ -5315,10 +5514,10 @@
         <v>1</v>
       </c>
       <c r="S3" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="T3" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5326,10 +5525,10 @@
         <v>18</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" s="3"/>
       <c r="J4" s="56" t="s">
@@ -5341,10 +5540,10 @@
         <v>19</v>
       </c>
       <c r="O4" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="P4" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="R4" s="38" t="s">
         <v>23</v>
@@ -5354,10 +5553,10 @@
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="47" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="3"/>
@@ -5382,10 +5581,10 @@
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="47" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="3"/>
@@ -5408,10 +5607,10 @@
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="47" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="3"/>
@@ -5434,10 +5633,10 @@
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="93" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C8" s="81" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="3"/>
@@ -5452,20 +5651,20 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="R8" s="47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="38" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C9" s="79" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E9" s="3"/>
       <c r="J9" s="58" t="s">
@@ -5479,20 +5678,20 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="R9" s="47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="38" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C10" s="79" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E10" s="3"/>
       <c r="J10" s="3"/>
@@ -5509,10 +5708,10 @@
     </row>
     <row r="11" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="47" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C11" s="79" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="3"/>
@@ -5527,10 +5726,10 @@
     </row>
     <row r="12" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="47" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C12" s="79" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="3"/>
@@ -5538,10 +5737,10 @@
         <v>8</v>
       </c>
       <c r="K12" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L12" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -5550,13 +5749,13 @@
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="38" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C13" s="79" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" s="3"/>
       <c r="J13" s="46" t="s">
@@ -5570,7 +5769,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="79" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D14" s="79"/>
       <c r="E14" s="3"/>
@@ -5588,7 +5787,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D15" s="78"/>
       <c r="E15" s="3"/>
@@ -5601,13 +5800,13 @@
       <c r="M15" s="4"/>
       <c r="P15" s="27"/>
       <c r="R15" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S15" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="T15" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="T15" s="10" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="16" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5656,10 +5855,10 @@
         <v>79</v>
       </c>
       <c r="K19" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="M19" s="3"/>
       <c r="Q19" s="23"/>
@@ -5702,7 +5901,7 @@
     </row>
     <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>15</v>
@@ -5718,7 +5917,7 @@
     </row>
     <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>0</v>
@@ -5734,7 +5933,7 @@
     </row>
     <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B25" s="51" t="s">
         <v>21</v>
@@ -5748,7 +5947,7 @@
     </row>
     <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B26" s="45" t="s">
         <v>20</v>
@@ -5764,19 +5963,19 @@
       <c r="E27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="45" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K27" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L27" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="M27" s="3"/>
     </row>
     <row r="28" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B28" s="51" t="s">
         <v>84</v>
@@ -5786,26 +5985,26 @@
         <v>21</v>
       </c>
       <c r="G28" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="11" t="s">
         <v>109</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>110</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="46" t="s">
         <v>18</v>
       </c>
       <c r="K28" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L28" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M28" s="3"/>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B29" s="45" t="s">
         <v>30</v>
@@ -5815,36 +6014,36 @@
         <v>18</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="47" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K29" s="47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B30" s="45" t="s">
         <v>22</v>
       </c>
       <c r="F30" s="46" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="4"/>
@@ -5852,7 +6051,7 @@
         <v>4</v>
       </c>
       <c r="K30" s="79" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="3"/>
@@ -5860,23 +6059,23 @@
     </row>
     <row r="31" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B31" s="45" t="s">
         <v>79</v>
       </c>
       <c r="F31" s="54" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H31" s="55"/>
       <c r="J31" s="48" t="s">
         <v>3</v>
       </c>
       <c r="K31" s="79" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="3"/>
@@ -5884,7 +6083,7 @@
     </row>
     <row r="32" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B32" s="45" t="s">
         <v>8</v>
@@ -5906,7 +6105,7 @@
     </row>
     <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B34" s="51" t="s">
         <v>12</v>
@@ -5915,27 +6114,27 @@
         <v>84</v>
       </c>
       <c r="G34" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H34" s="11" t="s">
         <v>109</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>110</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="45" t="s">
         <v>30</v>
       </c>
       <c r="K34" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L34" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="L34" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B35" s="45" t="s">
         <v>19</v>
@@ -5956,7 +6155,7 @@
     </row>
     <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B36" s="45" t="s">
         <v>1</v>
@@ -5979,10 +6178,10 @@
     </row>
     <row r="37" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B37" s="84" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F37" s="54" t="s">
         <v>34</v>
@@ -6023,20 +6222,20 @@
         <v>85</v>
       </c>
       <c r="G41" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H41" s="11" t="s">
         <v>109</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>110</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="45" t="s">
         <v>22</v>
       </c>
       <c r="K41" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L41" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="L41" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="M41" s="3"/>
     </row>
@@ -6100,13 +6299,13 @@
     </row>
     <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F47" s="45" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G47" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H47" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -6119,10 +6318,10 @@
         <v>9</v>
       </c>
       <c r="G48" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I48" s="43"/>
       <c r="J48" s="3"/>
@@ -6132,10 +6331,10 @@
     </row>
     <row r="49" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F49" s="86" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G49" s="92" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H49" s="87"/>
       <c r="I49" s="43"/>
@@ -6146,10 +6345,10 @@
     </row>
     <row r="50" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F50" s="88" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G50" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H50" s="89"/>
       <c r="I50" s="43"/>
@@ -6163,7 +6362,7 @@
         <v>4</v>
       </c>
       <c r="G51" s="79" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H51" s="87"/>
       <c r="I51" s="43"/>
@@ -6174,7 +6373,7 @@
         <v>3</v>
       </c>
       <c r="G52" s="79" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H52" s="91"/>
       <c r="I52" s="44"/>
@@ -6238,18 +6437,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P115"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" customWidth="1"/>
     <col min="9" max="9" width="20.85546875" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" customWidth="1"/>
@@ -6262,49 +6461,49 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E1" s="23" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B2" s="94" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="95" t="s">
         <v>109</v>
-      </c>
-      <c r="C2" s="95" t="s">
-        <v>110</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="61" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" s="93" t="s">
         <v>134</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="J2" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="K2" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="I2" s="93" t="s">
+      <c r="L2" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="M2" s="97" t="s">
+        <v>142</v>
+      </c>
+      <c r="N2" s="38" t="s">
         <v>138</v>
-      </c>
-      <c r="K2" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="L2" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="M2" s="97" t="s">
-        <v>145</v>
-      </c>
-      <c r="N2" s="38" t="s">
-        <v>141</v>
       </c>
       <c r="O2" s="63" t="s">
         <v>4</v>
@@ -6318,10 +6517,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="65">
@@ -6334,7 +6533,7 @@
         <v>1000</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I3" s="21"/>
       <c r="J3" s="21">
@@ -6351,10 +6550,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="3"/>
@@ -6368,7 +6567,7 @@
         <v>250</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="21">
@@ -6385,10 +6584,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="3"/>
@@ -6402,7 +6601,7 @@
         <v>500</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="21">
@@ -6419,10 +6618,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="3"/>
@@ -6436,7 +6635,7 @@
         <v>300</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="21">
@@ -6453,10 +6652,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="93" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B7" s="81" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="3"/>
@@ -6470,7 +6669,7 @@
         <v>1200</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="21">
@@ -6487,13 +6686,13 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B8" s="79" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="65">
@@ -6506,7 +6705,7 @@
         <v>600</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="21">
@@ -6523,13 +6722,13 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="65">
@@ -6542,7 +6741,7 @@
         <v>900</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="21">
@@ -6559,10 +6758,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B10" s="79" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="3"/>
@@ -6576,7 +6775,7 @@
         <v>700</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="21">
@@ -6593,10 +6792,10 @@
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B11" s="79" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="3"/>
@@ -6610,7 +6809,7 @@
         <v>900</v>
       </c>
       <c r="H11" s="68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I11" s="68"/>
       <c r="J11" s="68">
@@ -6627,13 +6826,13 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B12" s="79" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -6654,7 +6853,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="79" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="79"/>
       <c r="D13" s="3"/>
@@ -6676,7 +6875,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" s="78"/>
       <c r="D14" s="3"/>
@@ -6716,10 +6915,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="49" t="s">
         <v>109</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>110</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="61" t="s">
@@ -6831,10 +7030,10 @@
         <v>78</v>
       </c>
       <c r="B22" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="49" t="s">
         <v>109</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>110</v>
       </c>
       <c r="E22" s="61" t="s">
         <v>18</v>
@@ -7058,10 +7257,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="49" t="s">
         <v>109</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>110</v>
       </c>
       <c r="E33" s="101" t="s">
         <v>18</v>
@@ -7070,7 +7269,7 @@
         <v>90</v>
       </c>
       <c r="G33" s="104" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H33" s="102" t="s">
         <v>4</v>
@@ -7165,10 +7364,10 @@
         <v>84</v>
       </c>
       <c r="B39" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="52" t="s">
         <v>109</v>
-      </c>
-      <c r="C39" s="52" t="s">
-        <v>110</v>
       </c>
       <c r="E39" s="61" t="s">
         <v>18</v>
@@ -7267,10 +7466,10 @@
         <v>22</v>
       </c>
       <c r="B46" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="49" t="s">
         <v>109</v>
-      </c>
-      <c r="C46" s="49" t="s">
-        <v>110</v>
       </c>
       <c r="E46" s="61" t="s">
         <v>18</v>
@@ -7279,7 +7478,7 @@
         <v>94</v>
       </c>
       <c r="G46" s="62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H46" s="63" t="s">
         <v>4</v>
@@ -7387,10 +7586,10 @@
         <v>85</v>
       </c>
       <c r="B53" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="52" t="s">
         <v>109</v>
-      </c>
-      <c r="C53" s="52" t="s">
-        <v>110</v>
       </c>
       <c r="E53" s="61" t="s">
         <v>18</v>
@@ -7507,19 +7706,19 @@
     <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="45" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B61" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="49" t="s">
         <v>109</v>
-      </c>
-      <c r="C61" s="49" t="s">
-        <v>110</v>
       </c>
       <c r="E61" s="61" t="s">
         <v>18</v>
       </c>
       <c r="F61" s="63" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G61" s="63" t="s">
         <v>4</v>
@@ -7533,10 +7732,10 @@
         <v>18</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E62" s="65">
         <v>1</v>
@@ -7549,10 +7748,10 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="47" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B63" s="96" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C63" s="1"/>
       <c r="E63" s="65">
@@ -7569,14 +7768,14 @@
         <v>4</v>
       </c>
       <c r="B64" s="79" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C64" s="1"/>
       <c r="E64" s="65">
         <v>3</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G64" s="21"/>
       <c r="H64" s="66"/>
@@ -7586,7 +7785,7 @@
         <v>3</v>
       </c>
       <c r="B65" s="79" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C65" s="2"/>
       <c r="E65" s="67">
@@ -7609,22 +7808,22 @@
     </row>
     <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="45" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B67" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" s="49" t="s">
         <v>109</v>
-      </c>
-      <c r="C67" s="49" t="s">
-        <v>110</v>
       </c>
       <c r="E67" s="61" t="s">
         <v>18</v>
       </c>
       <c r="F67" s="62" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G67" s="62" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H67" s="63" t="s">
         <v>4</v>
@@ -7638,16 +7837,16 @@
         <v>18</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E68" s="65">
         <v>1</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G68" s="39">
         <v>20</v>
@@ -7657,17 +7856,17 @@
     </row>
     <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="47" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B69" s="92" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C69" s="1"/>
       <c r="E69" s="65">
         <v>2</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G69" s="39">
         <v>18</v>
@@ -7677,17 +7876,17 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="98" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C70" s="42"/>
       <c r="E70" s="65">
         <v>3</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G70" s="39">
         <v>23</v>
@@ -7700,14 +7899,14 @@
         <v>4</v>
       </c>
       <c r="B71" s="79" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C71" s="1"/>
       <c r="E71" s="67">
         <v>4</v>
       </c>
       <c r="F71" s="68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G71" s="69">
         <v>1</v>
@@ -7720,7 +7919,7 @@
         <v>3</v>
       </c>
       <c r="B72" s="79" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C72" s="2"/>
       <c r="E72" s="3"/>
@@ -7731,22 +7930,22 @@
     <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="74" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="51" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B74" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="C74" s="52" t="s">
         <v>109</v>
-      </c>
-      <c r="C74" s="52" t="s">
-        <v>110</v>
       </c>
       <c r="E74" s="101" t="s">
         <v>18</v>
       </c>
       <c r="F74" s="106" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G74" s="106" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -7754,10 +7953,10 @@
         <v>18</v>
       </c>
       <c r="B75" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E75" s="99">
         <v>1</v>
@@ -7771,10 +7970,10 @@
     </row>
     <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="46" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C76" s="12"/>
       <c r="E76" s="65">
@@ -7789,10 +7988,10 @@
     </row>
     <row r="77" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="54" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B77" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C77" s="55"/>
       <c r="E77" s="67">
@@ -7811,16 +8010,16 @@
         <v>19</v>
       </c>
       <c r="B79" s="59" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="C79" s="49" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="E79" s="61" t="s">
         <v>18</v>
       </c>
       <c r="F79" s="32" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="G79" s="62" t="s">
         <v>7</v>
@@ -7836,8 +8035,12 @@
       <c r="A80" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B80" s="38"/>
-      <c r="C80" s="12"/>
+      <c r="B80" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>168</v>
+      </c>
       <c r="E80" s="65">
         <v>1</v>
       </c>
@@ -7845,7 +8048,7 @@
         <v>28</v>
       </c>
       <c r="G80" s="31" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="H80" s="31"/>
       <c r="I80" s="66"/>
@@ -7853,16 +8056,20 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B81" s="38"/>
-      <c r="C81" s="12"/>
+        <v>173</v>
+      </c>
+      <c r="B81" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>168</v>
+      </c>
       <c r="E81" s="65">
         <v>2</v>
       </c>
       <c r="F81" s="21"/>
       <c r="G81" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="H81" s="31"/>
       <c r="I81" s="66"/>
@@ -7885,7 +8092,9 @@
       <c r="A83" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="47"/>
+      <c r="B83" s="38" t="s">
+        <v>153</v>
+      </c>
       <c r="C83" s="1"/>
       <c r="E83" s="65"/>
       <c r="F83" s="21"/>
@@ -7897,7 +8106,9 @@
       <c r="A84" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B84" s="48"/>
+      <c r="B84" s="38" t="s">
+        <v>153</v>
+      </c>
       <c r="C84" s="2"/>
       <c r="E84" s="67"/>
       <c r="F84" s="68"/>
@@ -7908,13 +8119,13 @@
     <row r="85" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="86" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="51" t="s">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="B86" s="60" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="C86" s="52" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="E86" s="61" t="s">
         <v>18</v>
@@ -7923,12 +8134,12 @@
         <v>35</v>
       </c>
       <c r="G86" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="H86" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="H86" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="I86" s="63" t="s">
+      <c r="I86" s="108" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7936,8 +8147,15 @@
       <c r="A87" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B87" s="38"/>
-      <c r="C87" s="12"/>
+      <c r="B87" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D87" s="107" t="s">
+        <v>151</v>
+      </c>
       <c r="E87" s="65">
         <v>1</v>
       </c>
@@ -7947,8 +8165,10 @@
       <c r="G87" s="21">
         <v>7</v>
       </c>
-      <c r="H87" s="21"/>
-      <c r="I87" s="21"/>
+      <c r="H87" s="109" t="s">
+        <v>154</v>
+      </c>
+      <c r="I87" s="109"/>
       <c r="J87" s="63" t="s">
         <v>3</v>
       </c>
@@ -7960,63 +8180,71 @@
       <c r="A88" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="B88" s="38"/>
-      <c r="C88" s="12"/>
+      <c r="B88" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>168</v>
+      </c>
       <c r="E88" s="65">
         <v>2</v>
       </c>
       <c r="F88" s="21"/>
       <c r="G88" s="21"/>
-      <c r="H88" s="21"/>
-      <c r="I88" s="21"/>
+      <c r="H88" s="109"/>
+      <c r="I88" s="109"/>
       <c r="J88" s="21"/>
       <c r="K88" s="66"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="B89" s="38"/>
-      <c r="C89" s="12"/>
+        <v>147</v>
+      </c>
+      <c r="B89" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>168</v>
+      </c>
       <c r="E89" s="65">
         <v>3</v>
       </c>
       <c r="F89" s="21"/>
       <c r="G89" s="21"/>
-      <c r="H89" s="21"/>
-      <c r="I89" s="21"/>
+      <c r="H89" s="109"/>
+      <c r="I89" s="109"/>
       <c r="J89" s="21"/>
       <c r="K89" s="66"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="57" t="s">
+      <c r="A90" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="B90" s="47"/>
-      <c r="C90" s="1"/>
+      <c r="B90" s="112"/>
+      <c r="C90" s="113"/>
       <c r="E90" s="65">
         <v>4</v>
       </c>
       <c r="F90" s="21"/>
       <c r="G90" s="21"/>
-      <c r="H90" s="21"/>
-      <c r="I90" s="21"/>
+      <c r="H90" s="109"/>
+      <c r="I90" s="109"/>
       <c r="J90" s="21"/>
       <c r="K90" s="66"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="57" t="s">
+      <c r="A91" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="B91" s="47"/>
-      <c r="C91" s="1"/>
+      <c r="B91" s="112"/>
+      <c r="C91" s="113"/>
       <c r="E91" s="65">
         <v>5</v>
       </c>
       <c r="F91" s="21"/>
       <c r="G91" s="21"/>
-      <c r="H91" s="21"/>
-      <c r="I91" s="21"/>
+      <c r="H91" s="109"/>
+      <c r="I91" s="109"/>
       <c r="J91" s="21"/>
       <c r="K91" s="66"/>
     </row>
@@ -8024,15 +8252,17 @@
       <c r="A92" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B92" s="47"/>
+      <c r="B92" s="38" t="s">
+        <v>153</v>
+      </c>
       <c r="C92" s="1"/>
       <c r="E92" s="65">
         <v>6</v>
       </c>
       <c r="F92" s="21"/>
       <c r="G92" s="21"/>
-      <c r="H92" s="21"/>
-      <c r="I92" s="21"/>
+      <c r="H92" s="109"/>
+      <c r="I92" s="109"/>
       <c r="J92" s="21"/>
       <c r="K92" s="66"/>
     </row>
@@ -8040,120 +8270,187 @@
       <c r="A93" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B93" s="48"/>
+      <c r="B93" s="38" t="s">
+        <v>153</v>
+      </c>
       <c r="C93" s="2"/>
       <c r="E93" s="67">
         <v>7</v>
       </c>
       <c r="F93" s="68"/>
       <c r="G93" s="68"/>
-      <c r="H93" s="68"/>
-      <c r="I93" s="68"/>
+      <c r="H93" s="110"/>
+      <c r="I93" s="110"/>
       <c r="J93" s="21"/>
       <c r="K93" s="66"/>
     </row>
     <row r="94" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E94" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="J94" s="117"/>
+      <c r="K94" s="71"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="B95" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="C95" s="95" t="s">
+        <v>171</v>
+      </c>
+      <c r="E95" s="119" t="s">
+        <v>23</v>
+      </c>
+      <c r="F95" s="119" t="s">
+        <v>131</v>
+      </c>
+      <c r="G95" s="119" t="s">
+        <v>5</v>
+      </c>
+      <c r="H95" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="I95" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="J95" s="114" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="E96" s="65">
+        <v>23</v>
+      </c>
+      <c r="F96" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="G96" s="120" t="s">
+        <v>162</v>
+      </c>
+      <c r="H96" s="21">
+        <v>123456</v>
+      </c>
+      <c r="I96" s="115"/>
+      <c r="J96" s="21"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C97" s="21"/>
+      <c r="E97" s="65">
+        <v>33</v>
+      </c>
+      <c r="F97" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="G97" s="120" t="s">
+        <v>163</v>
+      </c>
+      <c r="H97" s="21">
+        <v>853697</v>
+      </c>
+      <c r="I97" s="115"/>
+      <c r="J97" s="21"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C98" s="21"/>
+      <c r="E98" s="65">
+        <v>58</v>
+      </c>
+      <c r="F98" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="G98" s="120" t="s">
+        <v>164</v>
+      </c>
+      <c r="H98" s="21">
+        <v>421586</v>
+      </c>
+      <c r="I98" s="115"/>
+      <c r="J98" s="21"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C99" s="21"/>
+      <c r="E99" s="65">
         <v>102</v>
       </c>
-      <c r="J94" s="68"/>
-      <c r="K94" s="71"/>
-    </row>
-    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="B95" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="C95" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="E95" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="F95" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="G95" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="H95" s="63" t="s">
+      <c r="F99" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="G99" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="H99" s="21">
+        <v>754896</v>
+      </c>
+      <c r="I99" s="115"/>
+      <c r="J99" s="21"/>
+    </row>
+    <row r="100" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I95" s="64" t="s">
+      <c r="B100" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C100" s="21"/>
+      <c r="E100" s="67">
+        <v>200</v>
+      </c>
+      <c r="F100" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="G100" s="121" t="s">
+        <v>165</v>
+      </c>
+      <c r="H100" s="68">
+        <v>214659</v>
+      </c>
+      <c r="I100" s="116"/>
+      <c r="J100" s="21"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" s="21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B96" s="38"/>
-      <c r="C96" s="12"/>
-      <c r="E96" s="65"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="21"/>
-      <c r="H96" s="21"/>
-      <c r="I96" s="66"/>
-      <c r="J96" s="3"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B97" s="47"/>
-      <c r="C97" s="1"/>
-      <c r="E97" s="65"/>
-      <c r="F97" s="21"/>
-      <c r="G97" s="21"/>
-      <c r="H97" s="21"/>
-      <c r="I97" s="66"/>
-      <c r="J97" s="3"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B98" s="47"/>
-      <c r="C98" s="1"/>
-      <c r="E98" s="65"/>
-      <c r="F98" s="21"/>
-      <c r="G98" s="21"/>
-      <c r="H98" s="21"/>
-      <c r="I98" s="66"/>
-      <c r="J98" s="3"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B99" s="47"/>
-      <c r="C99" s="1"/>
-      <c r="E99" s="65"/>
-      <c r="F99" s="21"/>
-      <c r="G99" s="21"/>
-      <c r="H99" s="21"/>
-      <c r="I99" s="66"/>
-      <c r="J99" s="3"/>
-    </row>
-    <row r="100" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="B100" s="48"/>
-      <c r="C100" s="2"/>
-      <c r="E100" s="67"/>
-      <c r="F100" s="68"/>
-      <c r="G100" s="68"/>
-      <c r="H100" s="68"/>
-      <c r="I100" s="71"/>
-      <c r="J100" s="3"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B101" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C101" s="21"/>
       <c r="J101" s="3"/>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>152</v>
+      </c>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
     </row>
@@ -8174,6 +8471,7 @@
       <c r="M106" s="3"/>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I107" s="118"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
@@ -8222,9 +8520,16 @@
       <c r="K115" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G96" r:id="rId1"/>
+    <hyperlink ref="G97" r:id="rId2"/>
+    <hyperlink ref="G98" r:id="rId3"/>
+    <hyperlink ref="G99" r:id="rId4"/>
+    <hyperlink ref="G100" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/tablas_ base de datos.xlsx
+++ b/tablas_ base de datos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr checkCompatibility="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="BASE DE DATOS" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="188">
   <si>
     <t>PRODUCTOS</t>
   </si>
@@ -601,12 +601,6 @@
     <t>genero</t>
   </si>
   <si>
-    <t>genero_id</t>
-  </si>
-  <si>
-    <t>producto_id</t>
-  </si>
-  <si>
     <r>
       <t>categorias_id</t>
     </r>
@@ -629,82 +623,12 @@
     <t>ver si aca llamo a categoria para poner que es indumentaria</t>
   </si>
   <si>
-    <r>
-      <t>producto_id</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(FK)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>genero_id</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(FK)</t>
-    </r>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
-    <t>talle_id</t>
-  </si>
-  <si>
-    <r>
-      <t>talle_id</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(FK)</t>
-    </r>
-  </si>
-  <si>
-    <t>categoria_id?</t>
-  </si>
-  <si>
     <t xml:space="preserve">lorem ipsum </t>
   </si>
   <si>
-    <r>
-      <t>categoria_id</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(FK)</t>
-    </r>
-  </si>
-  <si>
     <t>taza.jpg</t>
   </si>
   <si>
@@ -765,16 +689,7 @@
     <t>xio</t>
   </si>
   <si>
-    <t>VARCHAR(50)???</t>
-  </si>
-  <si>
-    <t>DATETIME???</t>
-  </si>
-  <si>
     <t xml:space="preserve"> confirmar si todos las claves foraneas de las tablas intermedias, tambien van ahi...</t>
-  </si>
-  <si>
-    <t>DATETIME??</t>
   </si>
   <si>
     <t>el principito</t>
@@ -1001,22 +916,6 @@
   </si>
   <si>
     <r>
-      <t>categoria_id</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(FK)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>product_id</t>
     </r>
     <r>
@@ -1130,7 +1029,181 @@
     <t>Type</t>
   </si>
   <si>
-    <t>CARRITO_PRODUCT</t>
+    <t>CART_PRODUCT</t>
+  </si>
+  <si>
+    <t>CARTS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">cart_id </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(FK)</t>
+    </r>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>PRODUCT_SIZE</t>
+  </si>
+  <si>
+    <t>CONTRAINTS</t>
+  </si>
+  <si>
+    <r>
+      <t>size_id</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(FK)</t>
+    </r>
+  </si>
+  <si>
+    <t>imagen</t>
+  </si>
+  <si>
+    <t>UNIQUE-KEYS</t>
+  </si>
+  <si>
+    <t>SIZES</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>category_id?</t>
+  </si>
+  <si>
+    <r>
+      <t>category_id</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(FK)</t>
+    </r>
+  </si>
+  <si>
+    <t>CATEGORy</t>
+  </si>
+  <si>
+    <t>GENRES</t>
+  </si>
+  <si>
+    <t>genre</t>
+  </si>
+  <si>
+    <r>
+      <t>category_id</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(FK)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>genre_id</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(FK)</t>
+    </r>
+  </si>
+  <si>
+    <t>genre_id</t>
+  </si>
+  <si>
+    <t>size_id</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">image_id </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(FK)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">subcategory_id </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(FK)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1785,7 +1858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1881,13 +1954,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1918,6 +1984,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1940,66 +2021,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>60264</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>144623</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>83446</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="Flecha: a la izquierda, derecha y arriba 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB9934DE-6737-4350-9051-6C7E1F2E73F6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="6589734" flipH="1">
-          <a:off x="6993201" y="-878476"/>
-          <a:ext cx="213682" cy="5672562"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftRightUpArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-AR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1130299</xdr:colOff>
       <xdr:row>14</xdr:row>
@@ -2016,7 +2037,7 @@
         <xdr:cNvPr id="53" name="Flecha: a la izquierda, derecha y arriba 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3097E1F8-85AD-4C9B-A988-60B813646FDD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3097E1F8-85AD-4C9B-A988-60B813646FDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2076,7 +2097,7 @@
         <xdr:cNvPr id="54" name="Flecha: a la izquierda, derecha y arriba 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB06C2DC-CFEB-43E3-ADDB-925B81771409}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB06C2DC-CFEB-43E3-ADDB-925B81771409}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2136,7 +2157,7 @@
         <xdr:cNvPr id="55" name="Flecha: a la izquierda, derecha y arriba 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2196,7 +2217,7 @@
         <xdr:cNvPr id="56" name="Flecha: a la izquierda, derecha y arriba 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A357813C-8AF8-4299-BA91-0A528ED1F6BC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A357813C-8AF8-4299-BA91-0A528ED1F6BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2256,7 +2277,7 @@
         <xdr:cNvPr id="57" name="Flecha: a la izquierda, derecha y arriba 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ADF86149-9AF8-4979-9898-D92F280DF2FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADF86149-9AF8-4979-9898-D92F280DF2FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2316,7 +2337,7 @@
         <xdr:cNvPr id="58" name="Flecha: a la izquierda, derecha y arriba 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2A207FFC-329A-4274-9A1D-BEBC97BC4C01}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A207FFC-329A-4274-9A1D-BEBC97BC4C01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2376,7 +2397,7 @@
         <xdr:cNvPr id="59" name="Flecha: a la izquierda, derecha y arriba 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E1F9FBF-07B9-42FC-AD07-5156F2305EE1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E1F9FBF-07B9-42FC-AD07-5156F2305EE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2436,7 +2457,7 @@
         <xdr:cNvPr id="20" name="Flecha: a la izquierda, derecha y arriba 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3097E1F8-85AD-4C9B-A988-60B813646FDD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3097E1F8-85AD-4C9B-A988-60B813646FDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2496,7 +2517,7 @@
         <xdr:cNvPr id="22" name="Flecha: a la izquierda, derecha y arriba 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2556,7 +2577,7 @@
         <xdr:cNvPr id="23" name="Flecha: a la izquierda, derecha y arriba 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2616,7 +2637,7 @@
         <xdr:cNvPr id="24" name="Flecha: a la izquierda, derecha y arriba 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2676,7 +2697,7 @@
         <xdr:cNvPr id="17" name="Flecha: a la izquierda, derecha y arriba 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3097E1F8-85AD-4C9B-A988-60B813646FDD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3097E1F8-85AD-4C9B-A988-60B813646FDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2736,7 +2757,7 @@
         <xdr:cNvPr id="18" name="Flecha: a la izquierda, derecha y arriba 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2A207FFC-329A-4274-9A1D-BEBC97BC4C01}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A207FFC-329A-4274-9A1D-BEBC97BC4C01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2801,7 +2822,7 @@
         <xdr:cNvPr id="13" name="Conector recto 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2911,7 +2932,7 @@
         <xdr:cNvPr id="2" name="Conector recto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B76CAEE4-09D7-41C5-9067-4444BF67D33E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B76CAEE4-09D7-41C5-9067-4444BF67D33E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2966,7 +2987,7 @@
         <xdr:cNvPr id="16" name="Conector recto 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3016,7 +3037,7 @@
         <xdr:cNvPr id="32" name="Conector recto 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3066,7 +3087,7 @@
         <xdr:cNvPr id="35" name="Conector recto 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3116,7 +3137,7 @@
         <xdr:cNvPr id="36" name="Conector recto 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3166,7 +3187,7 @@
         <xdr:cNvPr id="49" name="Conector recto 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000031000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3216,7 +3237,7 @@
         <xdr:cNvPr id="51" name="Conector recto 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000033000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3266,7 +3287,7 @@
         <xdr:cNvPr id="53" name="Conector recto 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000035000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3316,7 +3337,7 @@
         <xdr:cNvPr id="55" name="Conector recto 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000037000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3366,7 +3387,7 @@
         <xdr:cNvPr id="56" name="Conector recto 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000038000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3416,7 +3437,7 @@
         <xdr:cNvPr id="59" name="Conector recto 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3466,7 +3487,7 @@
         <xdr:cNvPr id="61" name="Conector recto 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3516,7 +3537,7 @@
         <xdr:cNvPr id="63" name="Conector recto 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3566,7 +3587,7 @@
         <xdr:cNvPr id="66" name="Conector recto 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000042000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3616,7 +3637,7 @@
         <xdr:cNvPr id="68" name="Conector recto 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000044000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3666,7 +3687,7 @@
         <xdr:cNvPr id="71" name="Conector recto 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000047000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3716,7 +3737,7 @@
         <xdr:cNvPr id="73" name="Conector recto 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000049000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3766,7 +3787,7 @@
         <xdr:cNvPr id="74" name="Conector recto 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3816,7 +3837,7 @@
         <xdr:cNvPr id="76" name="Conector recto 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3866,7 +3887,7 @@
         <xdr:cNvPr id="81" name="Conector recto 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000051000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3916,7 +3937,7 @@
         <xdr:cNvPr id="82" name="Conector recto 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000052000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3966,7 +3987,7 @@
         <xdr:cNvPr id="86" name="Conector recto 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000056000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4016,7 +4037,7 @@
         <xdr:cNvPr id="87" name="Conector recto 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000057000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4066,7 +4087,7 @@
         <xdr:cNvPr id="90" name="Conector recto 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00005A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4116,7 +4137,7 @@
         <xdr:cNvPr id="91" name="Conector recto 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00005B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4166,7 +4187,7 @@
         <xdr:cNvPr id="92" name="Conector recto 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00005C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4216,7 +4237,7 @@
         <xdr:cNvPr id="93" name="Conector recto 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00005D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4266,7 +4287,7 @@
         <xdr:cNvPr id="100" name="Conector recto 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000064000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4316,7 +4337,7 @@
         <xdr:cNvPr id="101" name="Conector recto 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000065000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4366,7 +4387,7 @@
         <xdr:cNvPr id="106" name="Conector recto 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4416,7 +4437,7 @@
         <xdr:cNvPr id="108" name="Conector recto 107">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4466,7 +4487,7 @@
         <xdr:cNvPr id="109" name="Conector recto 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4516,7 +4537,7 @@
         <xdr:cNvPr id="111" name="Conector recto 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4566,7 +4587,7 @@
         <xdr:cNvPr id="114" name="Conector recto 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000072000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4616,7 +4637,7 @@
         <xdr:cNvPr id="116" name="Conector recto 115">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000074000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4666,7 +4687,7 @@
         <xdr:cNvPr id="128" name="Conector recto 127">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000080000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4716,7 +4737,7 @@
         <xdr:cNvPr id="130" name="Conector recto 129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000082000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4766,7 +4787,7 @@
         <xdr:cNvPr id="131" name="Conector recto 130">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000083000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4816,7 +4837,7 @@
         <xdr:cNvPr id="132" name="Conector recto 131">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4866,7 +4887,7 @@
         <xdr:cNvPr id="133" name="Conector recto 132">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000085000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4916,7 +4937,7 @@
         <xdr:cNvPr id="136" name="Conector recto 135">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000088000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4966,7 +4987,7 @@
         <xdr:cNvPr id="139" name="Conector recto 138">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00008B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5016,7 +5037,7 @@
         <xdr:cNvPr id="141" name="Conector recto 140">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00008D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5066,7 +5087,7 @@
         <xdr:cNvPr id="142" name="Conector recto 141">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00008E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5116,7 +5137,7 @@
         <xdr:cNvPr id="143" name="Conector recto 142">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00008F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5440,7 +5461,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5450,8 +5471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView topLeftCell="C29" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5485,10 +5506,10 @@
         <v>12</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="R2" s="23"/>
       <c r="S2" s="23"/>
@@ -5496,13 +5517,13 @@
     </row>
     <row r="3" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E3" s="4"/>
       <c r="J3" s="56" t="s">
@@ -5514,10 +5535,10 @@
         <v>1</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5525,10 +5546,10 @@
         <v>18</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E4" s="3"/>
       <c r="J4" s="56" t="s">
@@ -5540,10 +5561,10 @@
         <v>19</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="R4" s="38" t="s">
         <v>23</v>
@@ -5553,10 +5574,10 @@
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="47" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="3"/>
@@ -5581,10 +5602,10 @@
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="47" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="3"/>
@@ -5607,10 +5628,10 @@
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="47" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="3"/>
@@ -5632,13 +5653,13 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="93" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="81" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="14"/>
+      <c r="B8" s="124" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="125" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="125"/>
       <c r="E8" s="3"/>
       <c r="J8" s="57" t="s">
         <v>4</v>
@@ -5651,20 +5672,20 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="R8" s="47" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="79" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>114</v>
+      <c r="B9" s="126" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="121" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="121" t="s">
+        <v>106</v>
       </c>
       <c r="E9" s="3"/>
       <c r="J9" s="58" t="s">
@@ -5678,20 +5699,20 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="R9" s="47" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="79" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>114</v>
+      <c r="B10" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="121" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" s="121" t="s">
+        <v>94</v>
       </c>
       <c r="E10" s="3"/>
       <c r="J10" s="3"/>
@@ -5707,13 +5728,15 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" s="79" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="12"/>
+      <c r="B11" s="127" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="128" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="129" t="s">
+        <v>94</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -5725,22 +5748,18 @@
       <c r="T11" s="2"/>
     </row>
     <row r="12" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" s="79" t="s">
-        <v>115</v>
-      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="12"/>
       <c r="E12" s="3"/>
       <c r="J12" s="45" t="s">
         <v>8</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -5748,15 +5767,6 @@
       <c r="P12" s="3"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="79" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>114</v>
-      </c>
       <c r="E13" s="3"/>
       <c r="J13" s="46" t="s">
         <v>18</v>
@@ -5765,13 +5775,6 @@
       <c r="L13" s="9"/>
     </row>
     <row r="14" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="79" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="79"/>
       <c r="E14" s="3"/>
       <c r="J14" s="50" t="s">
         <v>87</v>
@@ -5783,13 +5786,6 @@
       <c r="P14" s="23"/>
     </row>
     <row r="15" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="80" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="78"/>
       <c r="E15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="47" t="s">
@@ -5800,13 +5796,13 @@
       <c r="M15" s="4"/>
       <c r="P15" s="27"/>
       <c r="R15" s="45" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5855,10 +5851,10 @@
         <v>79</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="M19" s="3"/>
       <c r="Q19" s="23"/>
@@ -5893,7 +5889,7 @@
       <c r="E22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -5901,7 +5897,7 @@
     </row>
     <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>15</v>
@@ -5917,7 +5913,7 @@
     </row>
     <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>0</v>
@@ -5933,7 +5929,7 @@
     </row>
     <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B25" s="51" t="s">
         <v>21</v>
@@ -5947,7 +5943,7 @@
     </row>
     <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B26" s="45" t="s">
         <v>20</v>
@@ -5963,19 +5959,19 @@
       <c r="E27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="45" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="M27" s="3"/>
     </row>
     <row r="28" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B28" s="51" t="s">
         <v>84</v>
@@ -5985,26 +5981,26 @@
         <v>21</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="46" t="s">
         <v>18</v>
       </c>
       <c r="K28" s="32" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="L28" s="17" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="M28" s="3"/>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B29" s="45" t="s">
         <v>30</v>
@@ -6014,76 +6010,80 @@
         <v>18</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="47" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="K29" s="47" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B30" s="45" t="s">
         <v>22</v>
       </c>
       <c r="F30" s="46" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="47" t="s">
+      <c r="J30" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="K30" s="79" t="s">
-        <v>125</v>
-      </c>
-      <c r="L30" s="1"/>
+      <c r="K30" s="121" t="s">
+        <v>185</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B31" s="45" t="s">
         <v>79</v>
       </c>
       <c r="F31" s="54" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H31" s="55"/>
-      <c r="J31" s="48" t="s">
+      <c r="J31" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="K31" s="79" t="s">
-        <v>125</v>
-      </c>
-      <c r="L31" s="2"/>
+      <c r="K31" s="121" t="s">
+        <v>185</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B32" s="45" t="s">
         <v>8</v>
@@ -6105,7 +6105,7 @@
     </row>
     <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B34" s="51" t="s">
         <v>12</v>
@@ -6114,27 +6114,27 @@
         <v>84</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="45" t="s">
         <v>30</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B35" s="45" t="s">
         <v>19</v>
@@ -6155,7 +6155,7 @@
     </row>
     <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B36" s="45" t="s">
         <v>1</v>
@@ -6178,10 +6178,10 @@
     </row>
     <row r="37" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B37" s="84" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F37" s="54" t="s">
         <v>34</v>
@@ -6222,20 +6222,20 @@
         <v>85</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="45" t="s">
         <v>22</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="M41" s="3"/>
     </row>
@@ -6261,7 +6261,7 @@
       <c r="H43" s="12"/>
       <c r="I43" s="3"/>
       <c r="J43" s="47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K43" s="47"/>
       <c r="L43" s="1"/>
@@ -6299,13 +6299,13 @@
     </row>
     <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F47" s="45" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -6314,14 +6314,14 @@
       <c r="M47" s="3"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F48" s="85" t="s">
+      <c r="F48" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="H48" s="17" t="s">
-        <v>111</v>
+      <c r="G48" s="117" t="s">
+        <v>107</v>
+      </c>
+      <c r="H48" s="118" t="s">
+        <v>103</v>
       </c>
       <c r="I48" s="43"/>
       <c r="J48" s="3"/>
@@ -6330,13 +6330,13 @@
       <c r="M48" s="3"/>
     </row>
     <row r="49" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F49" s="86" t="s">
+      <c r="F49" s="119" t="s">
+        <v>133</v>
+      </c>
+      <c r="G49" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="G49" s="92" t="s">
-        <v>124</v>
-      </c>
-      <c r="H49" s="87"/>
+      <c r="H49" s="120"/>
       <c r="I49" s="43"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -6344,13 +6344,13 @@
       <c r="M49" s="3"/>
     </row>
     <row r="50" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F50" s="88" t="s">
-        <v>145</v>
-      </c>
-      <c r="G50" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="H50" s="89"/>
+      <c r="F50" s="119" t="s">
+        <v>134</v>
+      </c>
+      <c r="G50" s="117" t="s">
+        <v>107</v>
+      </c>
+      <c r="H50" s="120"/>
       <c r="I50" s="43"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
@@ -6358,24 +6358,28 @@
       <c r="M50" s="3"/>
     </row>
     <row r="51" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F51" s="86" t="s">
+      <c r="F51" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="G51" s="79" t="s">
-        <v>125</v>
-      </c>
-      <c r="H51" s="87"/>
+      <c r="G51" s="121" t="s">
+        <v>185</v>
+      </c>
+      <c r="H51" s="120" t="s">
+        <v>94</v>
+      </c>
       <c r="I51" s="43"/>
       <c r="M51" s="3"/>
     </row>
     <row r="52" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F52" s="90" t="s">
+      <c r="F52" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="79" t="s">
-        <v>125</v>
-      </c>
-      <c r="H52" s="91"/>
+      <c r="G52" s="121" t="s">
+        <v>185</v>
+      </c>
+      <c r="H52" s="123" t="s">
+        <v>94</v>
+      </c>
       <c r="I52" s="44"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -6437,8 +6441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6461,49 +6465,49 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E1" s="23" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="94" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="95" t="s">
-        <v>109</v>
+        <v>119</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="88" t="s">
+        <v>170</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="61" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="86" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="L2" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="M2" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="H2" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="I2" s="93" t="s">
-        <v>134</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="K2" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="L2" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="M2" s="97" t="s">
-        <v>142</v>
-      </c>
       <c r="N2" s="38" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="O2" s="63" t="s">
         <v>4</v>
@@ -6517,10 +6521,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="65">
@@ -6533,7 +6537,7 @@
         <v>1000</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I3" s="21"/>
       <c r="J3" s="21">
@@ -6550,10 +6554,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="3"/>
@@ -6567,7 +6571,7 @@
         <v>250</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="21">
@@ -6584,10 +6588,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="3"/>
@@ -6601,7 +6605,7 @@
         <v>500</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="21">
@@ -6618,10 +6622,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="3"/>
@@ -6635,7 +6639,7 @@
         <v>300</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="21">
@@ -6651,11 +6655,11 @@
       <c r="P6" s="66"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="93" t="s">
-        <v>134</v>
+      <c r="A7" s="86" t="s">
+        <v>123</v>
       </c>
       <c r="B7" s="81" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="3"/>
@@ -6669,7 +6673,7 @@
         <v>1200</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="21">
@@ -6686,13 +6690,13 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B8" s="79" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="65">
@@ -6705,7 +6709,7 @@
         <v>600</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="21">
@@ -6722,13 +6726,13 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="65">
@@ -6741,7 +6745,7 @@
         <v>900</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="21">
@@ -6758,10 +6762,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B10" s="79" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="3"/>
@@ -6775,7 +6779,7 @@
         <v>700</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="21">
@@ -6792,10 +6796,10 @@
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B11" s="79" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="3"/>
@@ -6809,7 +6813,7 @@
         <v>900</v>
       </c>
       <c r="H11" s="68" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I11" s="68"/>
       <c r="J11" s="68">
@@ -6826,13 +6830,13 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B12" s="79" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -6853,7 +6857,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="79" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C13" s="79"/>
       <c r="D13" s="3"/>
@@ -6875,7 +6879,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="80" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C14" s="78"/>
       <c r="D14" s="3"/>
@@ -6912,13 +6916,13 @@
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="45" t="s">
-        <v>8</v>
+        <v>178</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="61" t="s">
@@ -7030,10 +7034,10 @@
         <v>78</v>
       </c>
       <c r="B22" s="59" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="E22" s="61" t="s">
         <v>18</v>
@@ -7244,7 +7248,7 @@
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="E32" s="40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F32" s="36"/>
       <c r="G32" s="34"/>
@@ -7254,27 +7258,27 @@
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="45" t="s">
-        <v>30</v>
+        <v>179</v>
       </c>
       <c r="B33" s="59" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="C33" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="E33" s="101" t="s">
+        <v>170</v>
+      </c>
+      <c r="E33" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="102" t="s">
-        <v>90</v>
-      </c>
-      <c r="G33" s="104" t="s">
-        <v>149</v>
-      </c>
-      <c r="H33" s="102" t="s">
+      <c r="F33" s="95" t="s">
+        <v>180</v>
+      </c>
+      <c r="G33" s="97" t="s">
+        <v>181</v>
+      </c>
+      <c r="H33" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="I33" s="103" t="s">
+      <c r="I33" s="96" t="s">
         <v>3</v>
       </c>
       <c r="J33" s="40"/>
@@ -7286,13 +7290,13 @@
       </c>
       <c r="B34" s="38"/>
       <c r="C34" s="12"/>
-      <c r="E34" s="99">
+      <c r="E34" s="92">
         <v>1</v>
       </c>
       <c r="F34" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="G34" s="100">
+      <c r="G34" s="93">
         <v>1</v>
       </c>
       <c r="H34" s="37"/>
@@ -7302,7 +7306,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="47" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="B35" s="47"/>
       <c r="C35" s="1"/>
@@ -7364,19 +7368,19 @@
         <v>84</v>
       </c>
       <c r="B39" s="60" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="C39" s="52" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="E39" s="61" t="s">
         <v>18</v>
       </c>
       <c r="F39" s="62" t="s">
-        <v>97</v>
+        <v>182</v>
       </c>
       <c r="G39" s="62" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="H39" s="63" t="s">
         <v>4</v>
@@ -7405,7 +7409,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="47" t="s">
-        <v>91</v>
+        <v>183</v>
       </c>
       <c r="B41" s="47"/>
       <c r="C41" s="1"/>
@@ -7413,7 +7417,7 @@
         <v>2</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G41" s="39">
         <v>5</v>
@@ -7423,7 +7427,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="47" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="B42" s="47"/>
       <c r="C42" s="1"/>
@@ -7431,7 +7435,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="68" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G42" s="69">
         <v>7</v>
@@ -7458,27 +7462,27 @@
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="E45" s="40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="45" t="s">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="B46" s="59" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C46" s="49" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="E46" s="61" t="s">
         <v>18</v>
       </c>
       <c r="F46" s="62" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="G46" s="62" t="s">
-        <v>103</v>
+        <v>177</v>
       </c>
       <c r="H46" s="63" t="s">
         <v>4</v>
@@ -7507,7 +7511,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="47" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="B48" s="47"/>
       <c r="C48" s="1"/>
@@ -7525,7 +7529,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="53" t="s">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c r="B49" s="53"/>
       <c r="C49" s="42"/>
@@ -7583,28 +7587,28 @@
     </row>
     <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="51" t="s">
-        <v>85</v>
+        <v>169</v>
       </c>
       <c r="B53" s="60" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="C53" s="52" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="E53" s="61" t="s">
         <v>18</v>
       </c>
       <c r="F53" s="82" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="G53" s="82" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="H53" s="82" t="s">
         <v>4</v>
       </c>
       <c r="I53" s="82" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -7619,15 +7623,15 @@
       <c r="F54" s="37">
         <v>1</v>
       </c>
-      <c r="G54" s="105">
+      <c r="G54" s="98">
         <v>1</v>
       </c>
-      <c r="H54" s="100"/>
+      <c r="H54" s="93"/>
       <c r="I54" s="77"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="47" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="B55" s="47"/>
       <c r="C55" s="1"/>
@@ -7645,7 +7649,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="47" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="B56" s="47"/>
       <c r="C56" s="1"/>
@@ -7663,7 +7667,7 @@
     </row>
     <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="53" t="s">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c r="B57" s="53"/>
       <c r="C57" s="42"/>
@@ -7671,7 +7675,7 @@
         <v>4</v>
       </c>
       <c r="F57" s="68" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G57" s="69">
         <v>6</v>
@@ -7706,19 +7710,19 @@
     <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="45" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B61" s="59" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="C61" s="49" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="E61" s="61" t="s">
         <v>18</v>
       </c>
       <c r="F61" s="63" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G61" s="63" t="s">
         <v>4</v>
@@ -7732,10 +7736,10 @@
         <v>18</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E62" s="65">
         <v>1</v>
@@ -7748,10 +7752,10 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="B63" s="96" t="s">
         <v>129</v>
+      </c>
+      <c r="B63" s="89" t="s">
+        <v>118</v>
       </c>
       <c r="C63" s="1"/>
       <c r="E63" s="65">
@@ -7768,14 +7772,14 @@
         <v>4</v>
       </c>
       <c r="B64" s="79" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C64" s="1"/>
       <c r="E64" s="65">
         <v>3</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G64" s="21"/>
       <c r="H64" s="66"/>
@@ -7785,7 +7789,7 @@
         <v>3</v>
       </c>
       <c r="B65" s="79" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C65" s="2"/>
       <c r="E65" s="67">
@@ -7808,22 +7812,22 @@
     </row>
     <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="45" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B67" s="59" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="C67" s="49" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="E67" s="61" t="s">
         <v>18</v>
       </c>
       <c r="F67" s="62" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="G67" s="62" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H67" s="63" t="s">
         <v>4</v>
@@ -7837,16 +7841,16 @@
         <v>18</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E68" s="65">
         <v>1</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G68" s="39">
         <v>20</v>
@@ -7856,17 +7860,17 @@
     </row>
     <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" s="85" t="s">
         <v>144</v>
-      </c>
-      <c r="B69" s="92" t="s">
-        <v>124</v>
       </c>
       <c r="C69" s="1"/>
       <c r="E69" s="65">
         <v>2</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G69" s="39">
         <v>18</v>
@@ -7875,18 +7879,18 @@
       <c r="I69" s="66"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="98" t="s">
-        <v>145</v>
+      <c r="A70" s="91" t="s">
+        <v>134</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C70" s="42"/>
       <c r="E70" s="65">
         <v>3</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G70" s="39">
         <v>23</v>
@@ -7899,14 +7903,14 @@
         <v>4</v>
       </c>
       <c r="B71" s="79" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C71" s="1"/>
       <c r="E71" s="67">
         <v>4</v>
       </c>
       <c r="F71" s="68" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G71" s="69">
         <v>1</v>
@@ -7919,7 +7923,7 @@
         <v>3</v>
       </c>
       <c r="B72" s="79" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C72" s="2"/>
       <c r="E72" s="3"/>
@@ -7930,22 +7934,22 @@
     <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="74" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="51" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B74" s="60" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="C74" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="E74" s="101" t="s">
+        <v>159</v>
+      </c>
+      <c r="E74" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="F74" s="106" t="s">
-        <v>146</v>
-      </c>
-      <c r="G74" s="106" t="s">
-        <v>147</v>
+      <c r="F74" s="99" t="s">
+        <v>135</v>
+      </c>
+      <c r="G74" s="99" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -7953,12 +7957,12 @@
         <v>18</v>
       </c>
       <c r="B75" s="32" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="E75" s="99">
+        <v>103</v>
+      </c>
+      <c r="E75" s="92">
         <v>1</v>
       </c>
       <c r="F75" s="37">
@@ -7970,10 +7974,10 @@
     </row>
     <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="46" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C76" s="12"/>
       <c r="E76" s="65">
@@ -7988,10 +7992,10 @@
     </row>
     <row r="77" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="54" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B77" s="32" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C77" s="55"/>
       <c r="E77" s="67">
@@ -8007,21 +8011,21 @@
     <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="45" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="B79" s="59" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C79" s="49" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E79" s="61" t="s">
         <v>18</v>
       </c>
       <c r="F79" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="G79" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="G79" s="115" t="s">
         <v>7</v>
       </c>
       <c r="H79" s="64" t="s">
@@ -8036,10 +8040,10 @@
         <v>23</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E80" s="65">
         <v>1</v>
@@ -8048,7 +8052,7 @@
         <v>28</v>
       </c>
       <c r="G80" s="31" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="H80" s="31"/>
       <c r="I80" s="66"/>
@@ -8056,20 +8060,20 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E81" s="65">
         <v>2</v>
       </c>
       <c r="F81" s="21"/>
       <c r="G81" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="H81" s="31"/>
       <c r="I81" s="66"/>
@@ -8093,7 +8097,7 @@
         <v>4</v>
       </c>
       <c r="B83" s="38" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C83" s="1"/>
       <c r="E83" s="65"/>
@@ -8107,7 +8111,7 @@
         <v>3</v>
       </c>
       <c r="B84" s="38" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C84" s="2"/>
       <c r="E84" s="67"/>
@@ -8119,27 +8123,27 @@
     <row r="85" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="86" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="51" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B86" s="60" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C86" s="52" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E86" s="61" t="s">
         <v>18</v>
       </c>
       <c r="F86" s="72" t="s">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="G86" s="72" t="s">
-        <v>147</v>
-      </c>
-      <c r="H86" s="108" t="s">
+        <v>136</v>
+      </c>
+      <c r="H86" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="I86" s="108" t="s">
+      <c r="I86" s="101" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8148,13 +8152,13 @@
         <v>18</v>
       </c>
       <c r="B87" s="38" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="D87" s="107" t="s">
-        <v>151</v>
+        <v>155</v>
+      </c>
+      <c r="D87" s="100" t="s">
+        <v>139</v>
       </c>
       <c r="E87" s="65">
         <v>1</v>
@@ -8165,10 +8169,10 @@
       <c r="G87" s="21">
         <v>7</v>
       </c>
-      <c r="H87" s="109" t="s">
-        <v>154</v>
-      </c>
-      <c r="I87" s="109"/>
+      <c r="H87" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="I87" s="102"/>
       <c r="J87" s="63" t="s">
         <v>3</v>
       </c>
@@ -8181,70 +8185,70 @@
         <v>35</v>
       </c>
       <c r="B88" s="38" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E88" s="65">
         <v>2</v>
       </c>
       <c r="F88" s="21"/>
       <c r="G88" s="21"/>
-      <c r="H88" s="109"/>
-      <c r="I88" s="109"/>
+      <c r="H88" s="102"/>
+      <c r="I88" s="102"/>
       <c r="J88" s="21"/>
       <c r="K88" s="66"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="56" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B89" s="38" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E89" s="65">
         <v>3</v>
       </c>
       <c r="F89" s="21"/>
       <c r="G89" s="21"/>
-      <c r="H89" s="109"/>
-      <c r="I89" s="109"/>
+      <c r="H89" s="102"/>
+      <c r="I89" s="102"/>
       <c r="J89" s="21"/>
       <c r="K89" s="66"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="111" t="s">
-        <v>13</v>
-      </c>
-      <c r="B90" s="112"/>
-      <c r="C90" s="113"/>
+      <c r="A90" s="104" t="s">
+        <v>168</v>
+      </c>
+      <c r="B90" s="105"/>
+      <c r="C90" s="106"/>
       <c r="E90" s="65">
         <v>4</v>
       </c>
       <c r="F90" s="21"/>
       <c r="G90" s="21"/>
-      <c r="H90" s="109"/>
-      <c r="I90" s="109"/>
+      <c r="H90" s="102"/>
+      <c r="I90" s="102"/>
       <c r="J90" s="21"/>
       <c r="K90" s="66"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="111" t="s">
+      <c r="A91" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="B91" s="112"/>
-      <c r="C91" s="113"/>
+      <c r="B91" s="105"/>
+      <c r="C91" s="106"/>
       <c r="E91" s="65">
         <v>5</v>
       </c>
       <c r="F91" s="21"/>
       <c r="G91" s="21"/>
-      <c r="H91" s="109"/>
-      <c r="I91" s="109"/>
+      <c r="H91" s="102"/>
+      <c r="I91" s="102"/>
       <c r="J91" s="21"/>
       <c r="K91" s="66"/>
     </row>
@@ -8253,7 +8257,7 @@
         <v>4</v>
       </c>
       <c r="B92" s="38" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C92" s="1"/>
       <c r="E92" s="65">
@@ -8261,8 +8265,8 @@
       </c>
       <c r="F92" s="21"/>
       <c r="G92" s="21"/>
-      <c r="H92" s="109"/>
-      <c r="I92" s="109"/>
+      <c r="H92" s="102"/>
+      <c r="I92" s="102"/>
       <c r="J92" s="21"/>
       <c r="K92" s="66"/>
     </row>
@@ -8271,7 +8275,7 @@
         <v>3</v>
       </c>
       <c r="B93" s="38" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C93" s="2"/>
       <c r="E93" s="67">
@@ -8279,44 +8283,44 @@
       </c>
       <c r="F93" s="68"/>
       <c r="G93" s="68"/>
-      <c r="H93" s="110"/>
-      <c r="I93" s="110"/>
+      <c r="H93" s="103"/>
+      <c r="I93" s="103"/>
       <c r="J93" s="21"/>
       <c r="K93" s="66"/>
     </row>
     <row r="94" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E94" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="J94" s="117"/>
+        <v>143</v>
+      </c>
+      <c r="J94" s="110"/>
       <c r="K94" s="71"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="94" t="s">
-        <v>169</v>
-      </c>
-      <c r="B95" s="94" t="s">
-        <v>170</v>
-      </c>
-      <c r="C95" s="95" t="s">
-        <v>171</v>
-      </c>
-      <c r="E95" s="119" t="s">
+      <c r="A95" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="B95" s="87" t="s">
+        <v>158</v>
+      </c>
+      <c r="C95" s="88" t="s">
+        <v>159</v>
+      </c>
+      <c r="E95" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="F95" s="119" t="s">
-        <v>131</v>
-      </c>
-      <c r="G95" s="119" t="s">
+      <c r="F95" s="112" t="s">
+        <v>120</v>
+      </c>
+      <c r="G95" s="112" t="s">
         <v>5</v>
       </c>
       <c r="H95" s="63" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="I95" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="J95" s="114" t="s">
+      <c r="J95" s="107" t="s">
         <v>3</v>
       </c>
     </row>
@@ -8325,47 +8329,47 @@
         <v>23</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E96" s="65">
         <v>23</v>
       </c>
       <c r="F96" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="G96" s="120" t="s">
-        <v>162</v>
+        <v>146</v>
+      </c>
+      <c r="G96" s="113" t="s">
+        <v>150</v>
       </c>
       <c r="H96" s="21">
         <v>123456</v>
       </c>
-      <c r="I96" s="115"/>
+      <c r="I96" s="108"/>
       <c r="J96" s="21"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="21" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C97" s="21"/>
       <c r="E97" s="65">
         <v>33</v>
       </c>
       <c r="F97" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="G97" s="120" t="s">
-        <v>163</v>
+        <v>145</v>
+      </c>
+      <c r="G97" s="113" t="s">
+        <v>151</v>
       </c>
       <c r="H97" s="21">
         <v>853697</v>
       </c>
-      <c r="I97" s="115"/>
+      <c r="I97" s="108"/>
       <c r="J97" s="21"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -8373,83 +8377,93 @@
         <v>5</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C98" s="21"/>
+        <v>144</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>173</v>
+      </c>
       <c r="E98" s="65">
         <v>58</v>
       </c>
       <c r="F98" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="G98" s="120" t="s">
-        <v>164</v>
+        <v>147</v>
+      </c>
+      <c r="G98" s="113" t="s">
+        <v>152</v>
       </c>
       <c r="H98" s="21">
         <v>421586</v>
       </c>
-      <c r="I98" s="115"/>
+      <c r="I98" s="108"/>
       <c r="J98" s="21"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="21" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C99" s="21"/>
       <c r="E99" s="65">
         <v>102</v>
       </c>
       <c r="F99" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="G99" s="120" t="s">
-        <v>166</v>
+        <v>148</v>
+      </c>
+      <c r="G99" s="113" t="s">
+        <v>154</v>
       </c>
       <c r="H99" s="21">
         <v>754896</v>
       </c>
-      <c r="I99" s="115"/>
+      <c r="I99" s="108"/>
       <c r="J99" s="21"/>
     </row>
     <row r="100" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B100" s="20" t="s">
-        <v>153</v>
+      <c r="A100" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B100" s="34" t="s">
+        <v>144</v>
       </c>
       <c r="C100" s="21"/>
       <c r="E100" s="67">
         <v>200</v>
       </c>
       <c r="F100" s="68" t="s">
-        <v>161</v>
-      </c>
-      <c r="G100" s="121" t="s">
-        <v>165</v>
+        <v>149</v>
+      </c>
+      <c r="G100" s="114" t="s">
+        <v>153</v>
       </c>
       <c r="H100" s="68">
         <v>214659</v>
       </c>
-      <c r="I100" s="116"/>
+      <c r="I100" s="109"/>
       <c r="J100" s="21"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="21" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C101" s="21"/>
       <c r="J101" s="3"/>
     </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
@@ -8471,7 +8485,7 @@
       <c r="M106" s="3"/>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I107" s="118"/>
+      <c r="I107" s="111"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>

--- a/tablas_ base de datos.xlsx
+++ b/tablas_ base de datos.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr checkCompatibility="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flor\Desktop\VisteteDePoder\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="11160"/>
   </bookViews>
@@ -14,7 +19,7 @@
     <sheet name="Hoja1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Análisis de Tablas'!$N$16:$P$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Análisis de Tablas'!$N$15:$P$24</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="180">
   <si>
     <t>PRODUCTOS</t>
   </si>
@@ -647,9 +652,6 @@
     <t>RESTRICCIONES</t>
   </si>
   <si>
-    <t>timestamps?</t>
-  </si>
-  <si>
     <t>AUTO_INCREMENT</t>
   </si>
   <si>
@@ -665,18 +667,9 @@
     <t>INTEGER</t>
   </si>
   <si>
-    <t>DATETIME</t>
-  </si>
-  <si>
     <t>imagenUsuario</t>
   </si>
   <si>
-    <t>categoriaUsuario-id</t>
-  </si>
-  <si>
-    <t>CATEGORIAUSUARIOS</t>
-  </si>
-  <si>
     <t>flor</t>
   </si>
   <si>
@@ -689,9 +682,6 @@
     <t>xio</t>
   </si>
   <si>
-    <t xml:space="preserve"> confirmar si todos las claves foraneas de las tablas intermedias, tambien van ahi...</t>
-  </si>
-  <si>
     <t>el principito</t>
   </si>
   <si>
@@ -708,52 +698,6 @@
   </si>
   <si>
     <t>description</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">image_id </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(FK)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">category_id </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(FK)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -779,82 +723,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">genre_product_id </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(FK)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>design_product_id</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (FK)</t>
-    </r>
-  </si>
-  <si>
     <t>DESIGNS</t>
   </si>
   <si>
     <t>design</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">product_size_id </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(FK)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">product_size_id </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(FK)</t>
-    </r>
   </si>
   <si>
     <t>IMAGES</t>
@@ -943,9 +815,6 @@
     <t>COMO FUNCIONA ESO</t>
   </si>
   <si>
-    <t>hace falta agregar la foto?</t>
-  </si>
-  <si>
     <t>VARCHAR(255)</t>
   </si>
   <si>
@@ -1026,9 +895,6 @@
     <t>close</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>CART_PRODUCT</t>
   </si>
   <si>
@@ -1083,9 +949,6 @@
     </r>
   </si>
   <si>
-    <t>imagen</t>
-  </si>
-  <si>
     <t>UNIQUE-KEYS</t>
   </si>
   <si>
@@ -1114,9 +977,6 @@
     </r>
   </si>
   <si>
-    <t>CATEGORy</t>
-  </si>
-  <si>
     <t>GENRES</t>
   </si>
   <si>
@@ -1159,30 +1019,6 @@
   </si>
   <si>
     <t>size_id</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">image_id </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(FK)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1205,12 +1041,39 @@
       <t>(FK)</t>
     </r>
   </si>
+  <si>
+    <t>product_id(FK)</t>
+  </si>
+  <si>
+    <t>TIMESTAMPS</t>
+  </si>
+  <si>
+    <t>categoriaUsuario</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+  </si>
+  <si>
+    <t>gorra.jpg</t>
+  </si>
+  <si>
+    <t>botella.jpg</t>
+  </si>
+  <si>
+    <t>bolso.jpg</t>
+  </si>
+  <si>
+    <t>cartuchera.jpg</t>
+  </si>
+  <si>
+    <t>mochila.jpg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1263,15 +1126,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -1280,7 +1134,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1323,8 +1177,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7D0F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="40">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1767,14 +1645,84 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1784,81 +1732,20 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1908,10 +1795,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -1949,25 +1834,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1976,29 +1855,103 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2006,6 +1959,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF7D0F8"/>
+      <color rgb="FFF4BDF5"/>
+      <color rgb="FFEFA5F1"/>
+      <color rgb="FFA568D2"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2037,7 +1998,7 @@
         <xdr:cNvPr id="53" name="Flecha: a la izquierda, derecha y arriba 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3097E1F8-85AD-4C9B-A988-60B813646FDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3097E1F8-85AD-4C9B-A988-60B813646FDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2097,7 +2058,7 @@
         <xdr:cNvPr id="54" name="Flecha: a la izquierda, derecha y arriba 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB06C2DC-CFEB-43E3-ADDB-925B81771409}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB06C2DC-CFEB-43E3-ADDB-925B81771409}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2157,7 +2118,7 @@
         <xdr:cNvPr id="55" name="Flecha: a la izquierda, derecha y arriba 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2217,7 +2178,7 @@
         <xdr:cNvPr id="56" name="Flecha: a la izquierda, derecha y arriba 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A357813C-8AF8-4299-BA91-0A528ED1F6BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A357813C-8AF8-4299-BA91-0A528ED1F6BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2277,7 +2238,7 @@
         <xdr:cNvPr id="57" name="Flecha: a la izquierda, derecha y arriba 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADF86149-9AF8-4979-9898-D92F280DF2FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ADF86149-9AF8-4979-9898-D92F280DF2FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2337,7 +2298,7 @@
         <xdr:cNvPr id="58" name="Flecha: a la izquierda, derecha y arriba 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A207FFC-329A-4274-9A1D-BEBC97BC4C01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2A207FFC-329A-4274-9A1D-BEBC97BC4C01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2397,7 +2358,7 @@
         <xdr:cNvPr id="59" name="Flecha: a la izquierda, derecha y arriba 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E1F9FBF-07B9-42FC-AD07-5156F2305EE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E1F9FBF-07B9-42FC-AD07-5156F2305EE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2457,7 +2418,7 @@
         <xdr:cNvPr id="20" name="Flecha: a la izquierda, derecha y arriba 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3097E1F8-85AD-4C9B-A988-60B813646FDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3097E1F8-85AD-4C9B-A988-60B813646FDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2517,7 +2478,7 @@
         <xdr:cNvPr id="22" name="Flecha: a la izquierda, derecha y arriba 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2577,7 +2538,7 @@
         <xdr:cNvPr id="23" name="Flecha: a la izquierda, derecha y arriba 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2637,7 +2598,7 @@
         <xdr:cNvPr id="24" name="Flecha: a la izquierda, derecha y arriba 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2647,126 +2608,6 @@
         <a:xfrm rot="5400000" flipH="1">
           <a:off x="15316205" y="190500"/>
           <a:ext cx="253995" cy="1777994"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftRightUpArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-AR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>1587498</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>1803399</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Flecha: a la izquierda, derecha y arriba 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3097E1F8-85AD-4C9B-A988-60B813646FDD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="24904698" y="2222500"/>
-          <a:ext cx="215901" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftRightUpArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-AR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>526384</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>109202</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>784546</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>97912</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Flecha: a la izquierda, derecha y arriba 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A207FFC-329A-4274-9A1D-BEBC97BC4C01}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="20516351">
-          <a:off x="4310984" y="2877802"/>
-          <a:ext cx="258162" cy="6986410"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightUpArrow">
           <a:avLst/>
@@ -2808,13 +2649,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2822,7 +2663,7 @@
         <xdr:cNvPr id="13" name="Conector recto 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2858,13 +2699,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2932,7 +2773,7 @@
         <xdr:cNvPr id="2" name="Conector recto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B76CAEE4-09D7-41C5-9067-4444BF67D33E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B76CAEE4-09D7-41C5-9067-4444BF67D33E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2987,7 +2828,7 @@
         <xdr:cNvPr id="16" name="Conector recto 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3037,7 +2878,7 @@
         <xdr:cNvPr id="32" name="Conector recto 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3087,7 +2928,7 @@
         <xdr:cNvPr id="35" name="Conector recto 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3137,7 +2978,7 @@
         <xdr:cNvPr id="36" name="Conector recto 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3187,7 +3028,7 @@
         <xdr:cNvPr id="49" name="Conector recto 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3237,7 +3078,7 @@
         <xdr:cNvPr id="51" name="Conector recto 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3287,7 +3128,7 @@
         <xdr:cNvPr id="53" name="Conector recto 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3337,7 +3178,7 @@
         <xdr:cNvPr id="55" name="Conector recto 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3387,7 +3228,7 @@
         <xdr:cNvPr id="56" name="Conector recto 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3437,7 +3278,7 @@
         <xdr:cNvPr id="59" name="Conector recto 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3487,7 +3328,7 @@
         <xdr:cNvPr id="61" name="Conector recto 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3537,7 +3378,7 @@
         <xdr:cNvPr id="63" name="Conector recto 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3587,7 +3428,7 @@
         <xdr:cNvPr id="66" name="Conector recto 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3637,7 +3478,7 @@
         <xdr:cNvPr id="68" name="Conector recto 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3687,7 +3528,7 @@
         <xdr:cNvPr id="71" name="Conector recto 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3737,7 +3578,7 @@
         <xdr:cNvPr id="73" name="Conector recto 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3787,7 +3628,7 @@
         <xdr:cNvPr id="74" name="Conector recto 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3837,7 +3678,7 @@
         <xdr:cNvPr id="76" name="Conector recto 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3887,7 +3728,7 @@
         <xdr:cNvPr id="81" name="Conector recto 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3937,7 +3778,7 @@
         <xdr:cNvPr id="82" name="Conector recto 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3987,7 +3828,7 @@
         <xdr:cNvPr id="86" name="Conector recto 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000056000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4037,7 +3878,7 @@
         <xdr:cNvPr id="87" name="Conector recto 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000057000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4087,7 +3928,7 @@
         <xdr:cNvPr id="90" name="Conector recto 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00005A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4137,7 +3978,7 @@
         <xdr:cNvPr id="91" name="Conector recto 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00005B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4187,7 +4028,7 @@
         <xdr:cNvPr id="92" name="Conector recto 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00005C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4237,7 +4078,7 @@
         <xdr:cNvPr id="93" name="Conector recto 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00005D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4287,7 +4128,7 @@
         <xdr:cNvPr id="100" name="Conector recto 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4337,7 +4178,7 @@
         <xdr:cNvPr id="101" name="Conector recto 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4387,7 +4228,7 @@
         <xdr:cNvPr id="106" name="Conector recto 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4437,7 +4278,7 @@
         <xdr:cNvPr id="108" name="Conector recto 107">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4487,7 +4328,7 @@
         <xdr:cNvPr id="109" name="Conector recto 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4537,7 +4378,7 @@
         <xdr:cNvPr id="111" name="Conector recto 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4587,7 +4428,7 @@
         <xdr:cNvPr id="114" name="Conector recto 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000072000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4637,7 +4478,7 @@
         <xdr:cNvPr id="116" name="Conector recto 115">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000074000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4687,7 +4528,7 @@
         <xdr:cNvPr id="128" name="Conector recto 127">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000080000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4737,7 +4578,7 @@
         <xdr:cNvPr id="130" name="Conector recto 129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000082000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4787,7 +4628,7 @@
         <xdr:cNvPr id="131" name="Conector recto 130">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000083000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4837,7 +4678,7 @@
         <xdr:cNvPr id="132" name="Conector recto 131">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4887,7 +4728,7 @@
         <xdr:cNvPr id="133" name="Conector recto 132">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000085000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4937,7 +4778,7 @@
         <xdr:cNvPr id="136" name="Conector recto 135">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000088000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4987,7 +4828,7 @@
         <xdr:cNvPr id="139" name="Conector recto 138">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00008B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5037,7 +4878,7 @@
         <xdr:cNvPr id="141" name="Conector recto 140">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00008D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5087,7 +4928,7 @@
         <xdr:cNvPr id="142" name="Conector recto 141">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00008E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5137,7 +4978,7 @@
         <xdr:cNvPr id="143" name="Conector recto 142">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00008F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5461,7 +5302,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5471,8 +5312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30:K31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A32" sqref="A28:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5502,7 +5343,7 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="49" t="s">
         <v>12</v>
       </c>
       <c r="K2" s="11" t="s">
@@ -5517,7 +5358,7 @@
     </row>
     <row r="3" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>100</v>
@@ -5526,12 +5367,12 @@
         <v>101</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="J3" s="56" t="s">
+      <c r="J3" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="R3" s="45" t="s">
+      <c r="K3" s="179"/>
+      <c r="L3" s="179"/>
+      <c r="R3" s="43" t="s">
         <v>1</v>
       </c>
       <c r="S3" s="10" t="s">
@@ -5542,22 +5383,22 @@
       </c>
     </row>
     <row r="4" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>103</v>
+      <c r="C4" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="155" t="s">
+        <v>102</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="J4" s="56" t="s">
+      <c r="J4" s="178" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="N4" s="45" t="s">
+      <c r="K4" s="180"/>
+      <c r="L4" s="180"/>
+      <c r="N4" s="43" t="s">
         <v>19</v>
       </c>
       <c r="O4" s="10" t="s">
@@ -5566,152 +5407,152 @@
       <c r="P4" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="R4" s="38" t="s">
+      <c r="R4" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
+      <c r="S4" s="179"/>
+      <c r="T4" s="179"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="12"/>
+      <c r="B5" s="156" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="157" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="157"/>
       <c r="E5" s="3"/>
       <c r="F5" s="30"/>
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
-      <c r="J5" s="56" t="s">
+      <c r="J5" s="178" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="N5" s="38" t="s">
+      <c r="K5" s="180"/>
+      <c r="L5" s="180"/>
+      <c r="N5" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="R5" s="38" t="s">
+      <c r="O5" s="179"/>
+      <c r="P5" s="179"/>
+      <c r="R5" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
+      <c r="S5" s="179"/>
+      <c r="T5" s="179"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="156" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="157" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="157"/>
+      <c r="E6" s="3"/>
+      <c r="J6" s="181" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="182"/>
+      <c r="L6" s="182"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="185" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="180"/>
+      <c r="P6" s="180"/>
+      <c r="R6" s="186" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" s="182"/>
+      <c r="T6" s="182"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="156" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="158" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="157"/>
+      <c r="E7" s="3"/>
+      <c r="J7" s="181" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="182"/>
+      <c r="L7" s="182"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="186" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="182"/>
+      <c r="P7" s="182"/>
+      <c r="R7" s="186" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="182"/>
+      <c r="T7" s="182"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="159" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="158" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="158"/>
+      <c r="E8" s="3"/>
+      <c r="J8" s="181" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="182"/>
+      <c r="L8" s="182"/>
+      <c r="N8" s="186" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="182"/>
+      <c r="P8" s="182"/>
+      <c r="R8" s="186" t="s">
+        <v>107</v>
+      </c>
+      <c r="S8" s="182"/>
+      <c r="T8" s="182"/>
+    </row>
+    <row r="9" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="160" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="158" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="158" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="3"/>
-      <c r="J6" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="R6" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="3"/>
-      <c r="J7" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="R7" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="124" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="125" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="125"/>
-      <c r="E8" s="3"/>
-      <c r="J8" s="57" t="s">
+      <c r="E9" s="3"/>
+      <c r="J9" s="183" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="184"/>
+      <c r="L9" s="184"/>
+      <c r="N9" s="187" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="184"/>
+      <c r="P9" s="184"/>
+      <c r="R9" s="186" t="s">
+        <v>173</v>
+      </c>
+      <c r="S9" s="182"/>
+      <c r="T9" s="182"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="159" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="N8" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="R8" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-    </row>
-    <row r="9" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="126" t="s">
-        <v>187</v>
-      </c>
-      <c r="C9" s="121" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="121" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="J9" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="N9" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="R9" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="121" t="s">
-        <v>185</v>
-      </c>
-      <c r="D10" s="121" t="s">
+      <c r="C10" s="158" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" s="158" t="s">
         <v>94</v>
       </c>
       <c r="E10" s="3"/>
@@ -5721,38 +5562,38 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="R10" s="47" t="s">
+      <c r="R10" s="186" t="s">
         <v>4</v>
       </c>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
+      <c r="S10" s="182"/>
+      <c r="T10" s="182"/>
     </row>
     <row r="11" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="127" t="s">
+      <c r="B11" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="128" t="s">
-        <v>185</v>
-      </c>
-      <c r="D11" s="129" t="s">
+      <c r="C11" s="158" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="162" t="s">
         <v>94</v>
       </c>
       <c r="E11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="R11" s="48" t="s">
+      <c r="R11" s="187" t="s">
         <v>3</v>
       </c>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
+      <c r="S11" s="184"/>
+      <c r="T11" s="184"/>
     </row>
     <row r="12" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="38"/>
-      <c r="C12" s="79"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="12"/>
       <c r="E12" s="3"/>
-      <c r="J12" s="45" t="s">
+      <c r="J12" s="43" t="s">
         <v>8</v>
       </c>
       <c r="K12" s="10" t="s">
@@ -5768,86 +5609,72 @@
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E13" s="3"/>
-      <c r="J13" s="46" t="s">
+      <c r="J13" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-    </row>
-    <row r="14" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K13" s="179"/>
+      <c r="L13" s="179"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E14" s="3"/>
-      <c r="J14" s="50" t="s">
+      <c r="J14" s="189" t="s">
         <v>87</v>
       </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
+      <c r="K14" s="190"/>
+      <c r="L14" s="190"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
       <c r="P14" s="23"/>
     </row>
-    <row r="15" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="47" t="s">
+      <c r="J15" s="186" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="K15" s="182"/>
+      <c r="L15" s="182"/>
       <c r="M15" s="4"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
       <c r="P15" s="27"/>
-      <c r="R15" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="S15" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="T15" s="10" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="16" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="48" t="s">
+      <c r="J16" s="187" t="s">
         <v>3</v>
       </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="K16" s="184"/>
+      <c r="L16" s="184"/>
       <c r="M16" s="3"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
       <c r="Q16" s="23"/>
-      <c r="R16" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E17" s="3"/>
       <c r="I17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="R17" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-    </row>
-    <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="33"/>
       <c r="K18" s="33"/>
       <c r="L18" s="33"/>
       <c r="M18" s="3"/>
-      <c r="R18" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-    </row>
-    <row r="19" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+    </row>
+    <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="45" t="s">
+      <c r="J19" s="43" t="s">
         <v>79</v>
       </c>
       <c r="K19" s="10" t="s">
@@ -5857,96 +5684,105 @@
         <v>101</v>
       </c>
       <c r="M19" s="3"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
       <c r="Q19" s="23"/>
-      <c r="R19" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="46" t="s">
+      <c r="J20" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
+      <c r="K20" s="169"/>
+      <c r="L20" s="169"/>
       <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="47" t="s">
+      <c r="J21" s="174" t="s">
         <v>88</v>
       </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="K21" s="175"/>
+      <c r="L21" s="175"/>
       <c r="M21" s="3"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
       <c r="Q21" s="23"/>
     </row>
-    <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="47" t="s">
+      <c r="J22" s="174" t="s">
         <v>91</v>
       </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+      <c r="K22" s="175"/>
+      <c r="L22" s="175"/>
       <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>112</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="119" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="10"/>
       <c r="E23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="J23" s="174" t="s">
+        <v>127</v>
+      </c>
+      <c r="K23" s="175"/>
+      <c r="L23" s="175"/>
       <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>112</v>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+    </row>
+    <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="119" t="s">
+        <v>108</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>0</v>
       </c>
       <c r="E24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
+      <c r="J24" s="174" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="175"/>
+      <c r="L24" s="175"/>
       <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B25" s="51" t="s">
-        <v>21</v>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="119" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="E25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="J25" s="176" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" s="177"/>
+      <c r="L25" s="177"/>
       <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>112</v>
-      </c>
-      <c r="B26" s="45" t="s">
-        <v>20</v>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+    </row>
+    <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="119" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="E26" s="3"/>
       <c r="I26" s="3"/>
@@ -5955,30 +5791,24 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>101</v>
-      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28" s="51" t="s">
+    <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="152" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>84</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="51" t="s">
-        <v>21</v>
+      <c r="F28" s="49" t="s">
+        <v>126</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>100</v>
@@ -5987,111 +5817,117 @@
         <v>101</v>
       </c>
       <c r="I28" s="3"/>
-      <c r="J28" s="46" t="s">
+      <c r="J28" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="152" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="K28" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="L28" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>113</v>
-      </c>
-      <c r="B29" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="46" t="s">
+      <c r="G29" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="155" t="s">
+        <v>102</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="K29" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="L29" s="12" t="s">
+      <c r="K29" s="154" t="s">
         <v>106</v>
+      </c>
+      <c r="L29" s="155" t="s">
+        <v>102</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
     </row>
-    <row r="30" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>113</v>
-      </c>
-      <c r="B30" s="45" t="s">
+    <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="152" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="H30" s="12"/>
+      <c r="F30" s="163" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30" s="157" t="s">
+        <v>106</v>
+      </c>
+      <c r="H30" s="157"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="K30" s="121" t="s">
-        <v>185</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>94</v>
+      <c r="J30" s="156" t="s">
+        <v>120</v>
+      </c>
+      <c r="K30" s="158" t="s">
+        <v>132</v>
+      </c>
+      <c r="L30" s="157" t="s">
+        <v>105</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
     </row>
-    <row r="31" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" s="45" t="s">
+    <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="152" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F31" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="G31" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="H31" s="55"/>
-      <c r="J31" s="127" t="s">
-        <v>3</v>
-      </c>
-      <c r="K31" s="121" t="s">
-        <v>185</v>
-      </c>
-      <c r="L31" s="2" t="s">
+      <c r="F31" s="164" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="H31" s="165"/>
+      <c r="J31" s="159" t="s">
+        <v>4</v>
+      </c>
+      <c r="K31" s="158" t="s">
+        <v>172</v>
+      </c>
+      <c r="L31" s="166" t="s">
         <v>94</v>
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>113</v>
-      </c>
-      <c r="B32" s="45" t="s">
+    <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="152" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I32" s="4"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
+      <c r="J32" s="161" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="158" t="s">
+        <v>172</v>
+      </c>
+      <c r="L32" s="167" t="s">
+        <v>94</v>
+      </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
     </row>
@@ -6104,13 +5940,13 @@
       <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>115</v>
-      </c>
-      <c r="B34" s="51" t="s">
+      <c r="A34" s="191" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="51" t="s">
+      <c r="F34" s="49" t="s">
         <v>84</v>
       </c>
       <c r="G34" s="11" t="s">
@@ -6120,105 +5956,108 @@
         <v>101</v>
       </c>
       <c r="I34" s="3"/>
-      <c r="J34" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="L34" s="10" t="s">
-        <v>101</v>
-      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35" s="45" t="s">
+      <c r="A35" s="191" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="46" t="s">
+      <c r="F35" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
+      <c r="G35" s="169"/>
+      <c r="H35" s="169"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="K35" s="46"/>
-      <c r="L35" s="9"/>
+      <c r="J35" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>101</v>
+      </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>115</v>
-      </c>
-      <c r="B36" s="45" t="s">
+      <c r="A36" s="191" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F36" s="46" t="s">
+      <c r="F36" s="168" t="s">
         <v>41</v>
       </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
+      <c r="G36" s="170"/>
+      <c r="H36" s="170"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="K36" s="47"/>
-      <c r="L36" s="1"/>
+      <c r="J36" s="168" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="168"/>
+      <c r="L36" s="169"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
     </row>
     <row r="37" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>115</v>
-      </c>
-      <c r="B37" s="84" t="s">
-        <v>114</v>
-      </c>
-      <c r="F37" s="54" t="s">
+      <c r="A37" s="191" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" s="171" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
+      <c r="G37" s="172"/>
+      <c r="H37" s="172"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="47" t="s">
+      <c r="J37" s="174" t="s">
+        <v>90</v>
+      </c>
+      <c r="K37" s="174"/>
+      <c r="L37" s="175"/>
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I38" s="3"/>
+      <c r="J38" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="K37" s="47"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="3"/>
-    </row>
-    <row r="38" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I38" s="3"/>
-      <c r="J38" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="48"/>
-      <c r="L38" s="2"/>
+      <c r="K38" s="174"/>
+      <c r="L38" s="175"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="34"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
+      <c r="J39" s="176" t="s">
+        <v>3</v>
+      </c>
+      <c r="K39" s="176"/>
+      <c r="L39" s="177"/>
       <c r="M39" s="3"/>
     </row>
     <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I40" s="3"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
       <c r="M40" s="3"/>
     </row>
     <row r="41" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F41" s="51" t="s">
+      <c r="F41" s="49" t="s">
         <v>85</v>
       </c>
       <c r="G41" s="11" t="s">
@@ -6228,197 +6067,137 @@
         <v>101</v>
       </c>
       <c r="I41" s="3"/>
-      <c r="J41" s="45" t="s">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F42" s="168" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="173"/>
+      <c r="H42" s="169"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="K41" s="10" t="s">
+      <c r="K42" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="L41" s="10" t="s">
+      <c r="L42" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F42" s="46" t="s">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F43" s="168" t="s">
+        <v>86</v>
+      </c>
+      <c r="G43" s="170"/>
+      <c r="H43" s="170"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="32"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="K42" s="46"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F43" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="47" t="s">
+      <c r="K43" s="168"/>
+      <c r="L43" s="169"/>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="171" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="172"/>
+      <c r="H44" s="172"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="174" t="s">
         <v>92</v>
       </c>
-      <c r="K43" s="47"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F44" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="47" t="s">
+      <c r="K44" s="174"/>
+      <c r="L44" s="175"/>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I45" s="3"/>
+      <c r="J45" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="47"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I45" s="3"/>
-      <c r="J45" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="48"/>
-      <c r="L45" s="2"/>
+      <c r="K45" s="174"/>
+      <c r="L45" s="175"/>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F47" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F48" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="117" t="s">
-        <v>107</v>
-      </c>
-      <c r="H48" s="118" t="s">
-        <v>103</v>
-      </c>
-      <c r="I48" s="43"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F49" s="119" t="s">
-        <v>133</v>
-      </c>
-      <c r="G49" s="89" t="s">
-        <v>144</v>
-      </c>
-      <c r="H49" s="120"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F50" s="119" t="s">
-        <v>134</v>
-      </c>
-      <c r="G50" s="117" t="s">
-        <v>107</v>
-      </c>
-      <c r="H50" s="120"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F51" s="119" t="s">
-        <v>4</v>
-      </c>
-      <c r="G51" s="121" t="s">
-        <v>185</v>
-      </c>
-      <c r="H51" s="120" t="s">
-        <v>94</v>
-      </c>
-      <c r="I51" s="43"/>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F52" s="122" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="121" t="s">
-        <v>185</v>
-      </c>
-      <c r="H52" s="123" t="s">
-        <v>94</v>
-      </c>
-      <c r="I52" s="44"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="M54" s="4"/>
-    </row>
-    <row r="55" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="M55" s="4"/>
-    </row>
-    <row r="56" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="5:13" x14ac:dyDescent="0.25">
       <c r="M57" s="3"/>
     </row>
-    <row r="58" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:13" x14ac:dyDescent="0.25">
       <c r="M58" s="3"/>
     </row>
-    <row r="59" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:13" x14ac:dyDescent="0.25">
       <c r="M59" s="3"/>
     </row>
-    <row r="60" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="62" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="5:13" x14ac:dyDescent="0.25">
       <c r="M62" s="3"/>
     </row>
-    <row r="63" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:13" x14ac:dyDescent="0.25">
       <c r="M63" s="3"/>
     </row>
-    <row r="64" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:13" x14ac:dyDescent="0.25">
       <c r="M64" s="3"/>
     </row>
     <row r="65" spans="13:13" x14ac:dyDescent="0.25">
@@ -6439,10 +6218,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P115"/>
+  <dimension ref="A1:Q111"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:N11"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6464,104 +6243,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1" s="23" t="s">
+      <c r="A1" s="119"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="107" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="107" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="88" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="61" t="s">
+      <c r="H2" s="107" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="109" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="108" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="88" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="H2" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="I2" s="86" t="s">
-        <v>123</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="K2" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="L2" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="M2" s="90" t="s">
-        <v>131</v>
-      </c>
-      <c r="N2" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="O2" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="64" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
-        <v>18</v>
-      </c>
       <c r="B3" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="65">
+      <c r="E3" s="84">
         <v>1</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="37">
         <v>1000</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21">
+      <c r="I3" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" s="85">
         <v>1</v>
       </c>
-      <c r="K3" s="31">
-        <v>1</v>
-      </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="66"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="75"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
-        <v>120</v>
+      <c r="A4" s="45" t="s">
+        <v>115</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="65">
+      <c r="E4" s="63">
         <v>2</v>
       </c>
       <c r="F4" s="21" t="s">
@@ -6573,29 +6345,25 @@
       <c r="H4" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21">
-        <v>1</v>
-      </c>
-      <c r="K4" s="31">
+      <c r="I4" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" s="31">
         <v>2</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="66"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="64"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
-        <v>121</v>
+      <c r="A5" s="45" t="s">
+        <v>116</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="65">
+      <c r="E5" s="63">
         <v>3</v>
       </c>
       <c r="F5" s="21" t="s">
@@ -6607,29 +6375,25 @@
       <c r="H5" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21">
-        <v>1</v>
-      </c>
-      <c r="K5" s="31">
+      <c r="I5" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="J5" s="31">
         <v>3</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="66"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="64"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
-        <v>122</v>
+      <c r="A6" s="45" t="s">
+        <v>117</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="65">
+      <c r="E6" s="63">
         <v>4</v>
       </c>
       <c r="F6" s="21" t="s">
@@ -6641,29 +6405,25 @@
       <c r="H6" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21">
-        <v>2</v>
-      </c>
-      <c r="K6" s="31">
+      <c r="I6" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="31">
         <v>4</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="66"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="64"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="81" t="s">
-        <v>107</v>
+      <c r="A7" s="110" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="65">
+      <c r="E7" s="63">
         <v>5</v>
       </c>
       <c r="F7" s="21" t="s">
@@ -6675,31 +6435,27 @@
       <c r="H7" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21">
-        <v>2</v>
-      </c>
-      <c r="K7" s="31">
+      <c r="I7" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="31">
         <v>5</v>
       </c>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="66"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="64"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" s="79" t="s">
-        <v>107</v>
+        <v>118</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="65">
+      <c r="E8" s="63">
         <v>6</v>
       </c>
       <c r="F8" s="21" t="s">
@@ -6711,31 +6467,25 @@
       <c r="H8" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21">
-        <v>2</v>
-      </c>
-      <c r="K8" s="31">
+      <c r="I8" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="J8" s="31">
         <v>6</v>
       </c>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="66"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="64"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="79" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>106</v>
-      </c>
+      <c r="A9" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="77"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="65">
+      <c r="E9" s="63">
         <v>7</v>
       </c>
       <c r="F9" s="21" t="s">
@@ -6747,29 +6497,25 @@
       <c r="H9" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21">
+      <c r="I9" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="J9" s="31">
+        <v>7</v>
+      </c>
+      <c r="K9" s="21"/>
+      <c r="L9" s="64"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="31">
-        <v>7</v>
-      </c>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="66"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" s="79" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="12"/>
+      <c r="B10" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="76"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="65">
+      <c r="E10" s="63">
         <v>8</v>
       </c>
       <c r="F10" s="21" t="s">
@@ -6781,1696 +6527,1780 @@
       <c r="H10" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21">
-        <v>3</v>
-      </c>
-      <c r="K10" s="31">
+      <c r="I10" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J10" s="31">
         <v>8</v>
       </c>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="66"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="64"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11" s="79" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="12"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="42"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="67">
+      <c r="E11" s="65">
         <v>9</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="68">
+      <c r="G11" s="66">
         <v>900</v>
       </c>
-      <c r="H11" s="68" t="s">
+      <c r="H11" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="68"/>
+      <c r="I11" s="66" t="s">
+        <v>179</v>
+      </c>
       <c r="J11" s="68">
-        <v>3</v>
-      </c>
-      <c r="K11" s="70">
         <v>9</v>
       </c>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="71"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" s="79" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="3"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="69"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="117"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="117"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="79" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="H13" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="34"/>
       <c r="K13" s="36"/>
-      <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="80" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="78"/>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="E14" s="63">
+        <v>1</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="37"/>
+      <c r="H14" s="75"/>
+      <c r="J14" s="34"/>
       <c r="K14" s="36"/>
-      <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="E15" s="63">
+        <v>2</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="64"/>
+      <c r="J15" s="35"/>
       <c r="K15" s="36"/>
-      <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
       <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="B16" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>170</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B16" s="45"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="76" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="64" t="s">
+      <c r="E16" s="65">
         <v>3</v>
       </c>
-      <c r="J16" s="34"/>
+      <c r="F16" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="66"/>
+      <c r="H16" s="69"/>
+      <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
       <c r="P16" s="3"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="65">
-        <v>1</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="77"/>
-      <c r="J17" s="34"/>
+        <v>3</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="2"/>
+      <c r="E17" s="36"/>
+      <c r="J17" s="36"/>
       <c r="K17" s="36"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="15"/>
-      <c r="E18" s="65">
-        <v>2</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="66"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="36"/>
+    <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="119"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="119"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
     </row>
-    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47" t="s">
+    <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="106" t="s">
+        <v>171</v>
+      </c>
+      <c r="I19" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="1"/>
-      <c r="E19" s="67">
-        <v>3</v>
-      </c>
-      <c r="F19" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="68"/>
-      <c r="H19" s="71"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="M19" s="3"/>
+      <c r="J19" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="2"/>
-      <c r="E20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="M20" s="3"/>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="38"/>
+      <c r="C20" s="12"/>
+      <c r="E20" s="63">
+        <v>1</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="39">
+        <v>1</v>
+      </c>
+      <c r="H20" s="39">
+        <v>1</v>
+      </c>
+      <c r="I20" s="31"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
     </row>
-    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J21" s="3"/>
-      <c r="M21" s="3"/>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="45"/>
+      <c r="C21" s="1"/>
+      <c r="E21" s="63">
+        <v>2</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="39">
+        <v>1</v>
+      </c>
+      <c r="H21" s="39">
+        <v>2</v>
+      </c>
+      <c r="I21" s="31"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="59" t="s">
-        <v>158</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="E22" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22" s="73" t="s">
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H22" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="64" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="12"/>
+      <c r="E22" s="63">
+        <v>3</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="39">
+        <v>1</v>
+      </c>
+      <c r="H22" s="39">
+        <v>3</v>
+      </c>
+      <c r="I22" s="31"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="12"/>
-      <c r="E23" s="65">
-        <v>1</v>
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="45"/>
+      <c r="C23" s="1"/>
+      <c r="E23" s="63">
+        <v>4</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="G23" s="39">
-        <v>1</v>
-      </c>
-      <c r="H23" s="31"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="3"/>
-      <c r="M23" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="H23" s="39">
+        <v>4</v>
+      </c>
+      <c r="I23" s="31"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="1"/>
-      <c r="E24" s="65">
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="46"/>
+      <c r="C24" s="2"/>
+      <c r="E24" s="72">
+        <v>5</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="21">
         <v>2</v>
       </c>
-      <c r="F24" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="39">
-        <v>1</v>
-      </c>
-      <c r="H24" s="31"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="3"/>
-      <c r="M24" s="3"/>
+      <c r="H24" s="21">
+        <v>5</v>
+      </c>
+      <c r="I24" s="21"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="12"/>
-      <c r="E25" s="65">
-        <v>3</v>
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="E25" s="72">
+        <v>6</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="39">
-        <v>1</v>
-      </c>
-      <c r="H25" s="31"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="3"/>
-      <c r="M25" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="G25" s="21">
+        <v>2</v>
+      </c>
+      <c r="H25" s="21">
+        <v>6</v>
+      </c>
+      <c r="I25" s="21"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="1"/>
-      <c r="E26" s="65">
-        <v>4</v>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="E26" s="72">
+        <v>7</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="39">
-        <v>2</v>
-      </c>
-      <c r="H26" s="31"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="3"/>
-      <c r="M26" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="G26" s="21">
+        <v>3</v>
+      </c>
+      <c r="H26" s="21">
+        <v>7</v>
+      </c>
+      <c r="I26" s="21"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="48" t="s">
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="E27" s="72">
+        <v>8</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="21">
         <v>3</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="2"/>
-      <c r="E27" s="74">
-        <v>5</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="21">
-        <v>2</v>
-      </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H27" s="21">
+        <v>8</v>
+      </c>
+      <c r="I27" s="21"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="E28" s="74">
+      <c r="E28" s="73">
+        <v>9</v>
+      </c>
+      <c r="F28" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="66">
+        <v>3</v>
+      </c>
+      <c r="H28" s="66">
+        <v>9</v>
+      </c>
+      <c r="I28" s="66"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="120"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="121" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="120"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="118"/>
+      <c r="I29" s="120"/>
+      <c r="J29" s="120"/>
+      <c r="K29" s="119"/>
+      <c r="L29" s="119"/>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="87" t="s">
+        <v>165</v>
+      </c>
+      <c r="G30" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="H30" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="J30" s="40"/>
+      <c r="K30" s="36"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="38"/>
+      <c r="C31" s="12"/>
+      <c r="E31" s="84">
+        <v>1</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="85">
+        <v>1</v>
+      </c>
+      <c r="H31" s="37"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" s="45"/>
+      <c r="C32" s="1"/>
+      <c r="E32" s="63">
+        <v>2</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" s="31">
+        <v>1</v>
+      </c>
+      <c r="H32" s="21"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="45"/>
+      <c r="C33" s="1"/>
+      <c r="E33" s="65">
+        <v>3</v>
+      </c>
+      <c r="F33" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="31">
+        <v>1</v>
+      </c>
+      <c r="H33" s="66"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="46"/>
+      <c r="C34" s="2"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="36"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="120"/>
+      <c r="B35" s="120"/>
+      <c r="C35" s="120"/>
+      <c r="D35" s="119"/>
+      <c r="E35" s="122"/>
+      <c r="F35" s="119"/>
+      <c r="G35" s="119"/>
+      <c r="H35" s="119"/>
+      <c r="I35" s="119"/>
+      <c r="J35" s="119"/>
+      <c r="K35" s="119"/>
+      <c r="L35" s="119"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="G36" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="H36" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" s="62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="38"/>
+      <c r="C37" s="12"/>
+      <c r="E37" s="63">
+        <v>1</v>
+      </c>
+      <c r="F37" s="21">
+        <v>3</v>
+      </c>
+      <c r="G37" s="39">
+        <v>1</v>
+      </c>
+      <c r="H37" s="31"/>
+      <c r="I37" s="64"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="B38" s="45"/>
+      <c r="C38" s="1"/>
+      <c r="E38" s="63">
+        <v>2</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G38" s="39">
+        <v>5</v>
+      </c>
+      <c r="H38" s="31"/>
+      <c r="I38" s="64"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="45"/>
+      <c r="C39" s="1"/>
+      <c r="E39" s="65">
+        <v>3</v>
+      </c>
+      <c r="F39" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="G39" s="67">
+        <v>7</v>
+      </c>
+      <c r="H39" s="68"/>
+      <c r="I39" s="69"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="45"/>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="46"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="120"/>
+      <c r="B42" s="120"/>
+      <c r="C42" s="120"/>
+      <c r="D42" s="119"/>
+      <c r="E42" s="121"/>
+      <c r="F42" s="119"/>
+      <c r="G42" s="119"/>
+      <c r="H42" s="119"/>
+      <c r="I42" s="119"/>
+      <c r="J42" s="119"/>
+      <c r="K42" s="119"/>
+      <c r="L42" s="119"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="B43" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="G43" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="H43" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="38"/>
+      <c r="C44" s="12"/>
+      <c r="E44" s="63">
+        <v>1</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G44" s="39">
+        <v>1</v>
+      </c>
+      <c r="H44" s="31"/>
+      <c r="I44" s="64"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" s="45"/>
+      <c r="C45" s="1"/>
+      <c r="E45" s="63">
+        <v>2</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G45" s="39">
+        <v>1</v>
+      </c>
+      <c r="H45" s="31"/>
+      <c r="I45" s="64"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" s="51"/>
+      <c r="C46" s="41"/>
+      <c r="E46" s="63">
+        <v>3</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G46" s="39">
+        <v>1</v>
+      </c>
+      <c r="H46" s="31"/>
+      <c r="I46" s="64"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="45"/>
+      <c r="C47" s="1"/>
+      <c r="E47" s="65">
+        <v>4</v>
+      </c>
+      <c r="F47" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="G47" s="67">
+        <v>1</v>
+      </c>
+      <c r="H47" s="68"/>
+      <c r="I47" s="69"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="46"/>
+      <c r="C48" s="2"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="120"/>
+      <c r="B49" s="120"/>
+      <c r="C49" s="120"/>
+      <c r="D49" s="119"/>
+      <c r="E49" s="122"/>
+      <c r="F49" s="120"/>
+      <c r="G49" s="120"/>
+      <c r="H49" s="120"/>
+      <c r="I49" s="119"/>
+      <c r="J49" s="122"/>
+      <c r="K49" s="119"/>
+      <c r="L49" s="119"/>
+    </row>
+    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="B50" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="E50" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="G50" s="78" t="s">
+        <v>127</v>
+      </c>
+      <c r="H50" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="I50" s="78" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="38"/>
+      <c r="C51" s="12"/>
+      <c r="E51" s="63">
+        <v>1</v>
+      </c>
+      <c r="F51" s="37">
+        <v>1</v>
+      </c>
+      <c r="G51" s="90">
+        <v>1</v>
+      </c>
+      <c r="H51" s="85"/>
+      <c r="I51" s="75"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="B52" s="45"/>
+      <c r="C52" s="1"/>
+      <c r="E52" s="63">
+        <v>2</v>
+      </c>
+      <c r="F52" s="21">
+        <v>2</v>
+      </c>
+      <c r="G52" s="39">
+        <v>2</v>
+      </c>
+      <c r="H52" s="31"/>
+      <c r="I52" s="64"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" s="45"/>
+      <c r="C53" s="1"/>
+      <c r="E53" s="63">
+        <v>3</v>
+      </c>
+      <c r="F53" s="21">
+        <v>3</v>
+      </c>
+      <c r="G53" s="39">
+        <v>3</v>
+      </c>
+      <c r="H53" s="31"/>
+      <c r="I53" s="64"/>
+    </row>
+    <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" s="51"/>
+      <c r="C54" s="41"/>
+      <c r="E54" s="65">
+        <v>4</v>
+      </c>
+      <c r="F54" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="G54" s="67">
         <v>6</v>
       </c>
-      <c r="F28" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G28" s="21">
+      <c r="H54" s="68"/>
+      <c r="I54" s="69"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="45"/>
+      <c r="C55" s="1"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="46"/>
+      <c r="C56" s="2"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="119"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="119"/>
+      <c r="E57" s="119"/>
+      <c r="F57" s="119"/>
+      <c r="G57" s="119"/>
+      <c r="H57" s="119"/>
+      <c r="I57" s="119"/>
+      <c r="J57" s="119"/>
+      <c r="K57" s="119"/>
+      <c r="L57" s="119"/>
+    </row>
+    <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="C58" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="E58" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="G58" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="143" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E59" s="84">
+        <v>1</v>
+      </c>
+      <c r="F59" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G59" s="37"/>
+      <c r="H59" s="75"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="E60" s="63">
         <v>2</v>
       </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="E29" s="74">
+      <c r="F60" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G60" s="21"/>
+      <c r="H60" s="64"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="E61" s="63">
+        <v>3</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G61" s="21"/>
+      <c r="H61" s="64"/>
+    </row>
+    <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="E62" s="65">
+        <v>4</v>
+      </c>
+      <c r="F62" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="G62" s="66"/>
+      <c r="H62" s="69"/>
+    </row>
+    <row r="63" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="120"/>
+      <c r="B63" s="120"/>
+      <c r="C63" s="120"/>
+      <c r="D63" s="119"/>
+      <c r="E63" s="120"/>
+      <c r="F63" s="120"/>
+      <c r="G63" s="120"/>
+      <c r="H63" s="120"/>
+      <c r="I63" s="119"/>
+      <c r="J63" s="119"/>
+      <c r="K63" s="119"/>
+      <c r="L63" s="119"/>
+    </row>
+    <row r="64" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="E64" s="148" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="149" t="s">
+        <v>122</v>
+      </c>
+      <c r="G64" s="149" t="s">
+        <v>127</v>
+      </c>
+      <c r="H64" s="150" t="s">
+        <v>4</v>
+      </c>
+      <c r="I64" s="151" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="125" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" s="126" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="127" t="s">
+        <v>102</v>
+      </c>
+      <c r="E65" s="144">
+        <v>1</v>
+      </c>
+      <c r="F65" s="145" t="s">
+        <v>96</v>
+      </c>
+      <c r="G65" s="146">
+        <v>20</v>
+      </c>
+      <c r="H65" s="145"/>
+      <c r="I65" s="147"/>
+    </row>
+    <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="128" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" s="129" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="130"/>
+      <c r="E66" s="135">
+        <v>2</v>
+      </c>
+      <c r="F66" s="136" t="s">
+        <v>97</v>
+      </c>
+      <c r="G66" s="137">
+        <v>18</v>
+      </c>
+      <c r="H66" s="136"/>
+      <c r="I66" s="138"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="131" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" s="126" t="s">
+        <v>106</v>
+      </c>
+      <c r="C67" s="132"/>
+      <c r="E67" s="135">
+        <v>3</v>
+      </c>
+      <c r="F67" s="136" t="s">
+        <v>98</v>
+      </c>
+      <c r="G67" s="137">
+        <v>23</v>
+      </c>
+      <c r="H67" s="136"/>
+      <c r="I67" s="138"/>
+    </row>
+    <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="128" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="129" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" s="130"/>
+      <c r="E68" s="139">
+        <v>4</v>
+      </c>
+      <c r="F68" s="140" t="s">
+        <v>99</v>
+      </c>
+      <c r="G68" s="141">
+        <v>1</v>
+      </c>
+      <c r="H68" s="140"/>
+      <c r="I68" s="142"/>
+    </row>
+    <row r="69" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="133" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="129" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" s="134"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="119"/>
+      <c r="B70" s="119"/>
+      <c r="C70" s="119"/>
+      <c r="D70" s="119"/>
+      <c r="E70" s="119"/>
+      <c r="F70" s="119"/>
+      <c r="G70" s="119"/>
+      <c r="H70" s="119"/>
+      <c r="I70" s="119"/>
+      <c r="J70" s="119"/>
+      <c r="K70" s="119"/>
+      <c r="L70" s="119"/>
+    </row>
+    <row r="71" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="B71" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="E71" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="91" t="s">
+        <v>124</v>
+      </c>
+      <c r="G71" s="91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E72" s="84">
+        <v>1</v>
+      </c>
+      <c r="F72" s="37">
+        <v>4</v>
+      </c>
+      <c r="G72" s="75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C73" s="12"/>
+      <c r="E73" s="63">
+        <v>2</v>
+      </c>
+      <c r="F73" s="21">
+        <v>2</v>
+      </c>
+      <c r="G73" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="B74" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" s="53"/>
+      <c r="E74" s="65">
+        <v>3</v>
+      </c>
+      <c r="F74" s="66">
+        <v>1</v>
+      </c>
+      <c r="G74" s="69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="119"/>
+      <c r="B75" s="119"/>
+      <c r="C75" s="119"/>
+      <c r="D75" s="119"/>
+      <c r="E75" s="119"/>
+      <c r="F75" s="119"/>
+      <c r="G75" s="119"/>
+      <c r="H75" s="119"/>
+      <c r="I75" s="119"/>
+      <c r="J75" s="119"/>
+      <c r="K75" s="119"/>
+      <c r="L75" s="119"/>
+    </row>
+    <row r="76" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="E76" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="G76" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="G29" s="21">
+      <c r="H76" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="I76" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="E30" s="74">
-        <v>8</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" s="21">
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E77" s="63">
+        <v>1</v>
+      </c>
+      <c r="F77" s="21">
+        <v>28</v>
+      </c>
+      <c r="G77" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="H77" s="31"/>
+      <c r="I77" s="64"/>
+      <c r="J77" s="79"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E78" s="63">
+        <v>2</v>
+      </c>
+      <c r="F78" s="21"/>
+      <c r="G78" t="s">
+        <v>151</v>
+      </c>
+      <c r="H78" s="31"/>
+      <c r="I78" s="64"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="45"/>
+      <c r="C79" s="1"/>
+      <c r="E79" s="63">
         <v>3</v>
       </c>
-      <c r="H30" s="21"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="E31" s="75">
-        <v>9</v>
-      </c>
-      <c r="F31" s="68" t="s">
-        <v>52</v>
-      </c>
-      <c r="G31" s="68">
+      <c r="F79" s="21"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="64"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="E80" s="63"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="64"/>
+    </row>
+    <row r="81" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="68"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="E32" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F32" s="36"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="B33" s="59" t="s">
-        <v>158</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="E33" s="94" t="s">
+      <c r="B81" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="E81" s="65"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="68"/>
+      <c r="H81" s="68"/>
+      <c r="I81" s="69"/>
+    </row>
+    <row r="82" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="119"/>
+      <c r="B82" s="119"/>
+      <c r="C82" s="119"/>
+      <c r="D82" s="119"/>
+      <c r="E82" s="119"/>
+      <c r="F82" s="119"/>
+      <c r="G82" s="119"/>
+      <c r="H82" s="119"/>
+      <c r="I82" s="119"/>
+      <c r="J82" s="119"/>
+      <c r="K82" s="119"/>
+      <c r="L82" s="119"/>
+    </row>
+    <row r="83" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="B83" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="C83" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="E83" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="95" t="s">
-        <v>180</v>
-      </c>
-      <c r="G33" s="97" t="s">
-        <v>181</v>
-      </c>
-      <c r="H33" s="95" t="s">
+      <c r="F83" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="G83" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="H83" s="93" t="s">
+        <v>13</v>
+      </c>
+      <c r="I83" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="J83" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B84" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E84" s="63">
+        <v>1</v>
+      </c>
+      <c r="F84" s="21">
+        <v>2</v>
+      </c>
+      <c r="G84" s="21">
+        <v>7</v>
+      </c>
+      <c r="H84" s="94" t="s">
+        <v>131</v>
+      </c>
+      <c r="I84" s="94"/>
+      <c r="J84" s="21"/>
+      <c r="K84" s="64"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B85" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E85" s="63">
+        <v>2</v>
+      </c>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="94"/>
+      <c r="I85" s="94"/>
+      <c r="J85" s="21"/>
+      <c r="K85" s="64"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="B86" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D86" s="92" t="s">
+        <v>128</v>
+      </c>
+      <c r="E86" s="63">
+        <v>3</v>
+      </c>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="94"/>
+      <c r="I86" s="94"/>
+      <c r="J86" s="21"/>
+      <c r="K86" s="64"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="96" t="s">
+        <v>155</v>
+      </c>
+      <c r="B87" s="97"/>
+      <c r="C87" s="98"/>
+      <c r="E87" s="63">
         <v>4</v>
       </c>
-      <c r="I33" s="96" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="40"/>
-      <c r="K33" s="36"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="12"/>
-      <c r="E34" s="92">
-        <v>1</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="G34" s="93">
-        <v>1</v>
-      </c>
-      <c r="H34" s="37"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="1"/>
-      <c r="E35" s="65">
-        <v>2</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" s="31">
-        <v>1</v>
-      </c>
-      <c r="H35" s="21"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="1"/>
-      <c r="E36" s="67">
-        <v>3</v>
-      </c>
-      <c r="F36" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="G36" s="31">
-        <v>1</v>
-      </c>
-      <c r="H36" s="68"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="2"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="36"/>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="E38" s="41"/>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="C39" s="52" t="s">
-        <v>170</v>
-      </c>
-      <c r="E39" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="62" t="s">
-        <v>182</v>
-      </c>
-      <c r="G39" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="H39" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="I39" s="64" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="12"/>
-      <c r="E40" s="65">
-        <v>1</v>
-      </c>
-      <c r="F40" s="21">
-        <v>3</v>
-      </c>
-      <c r="G40" s="39">
-        <v>1</v>
-      </c>
-      <c r="H40" s="31"/>
-      <c r="I40" s="66"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="B41" s="47"/>
-      <c r="C41" s="1"/>
-      <c r="E41" s="65">
-        <v>2</v>
-      </c>
-      <c r="F41" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="G41" s="39">
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="94"/>
+      <c r="I87" s="94"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="64"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="96" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="97"/>
+      <c r="C88" s="98"/>
+      <c r="E88" s="63">
         <v>5</v>
-      </c>
-      <c r="H41" s="31"/>
-      <c r="I41" s="66"/>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="1"/>
-      <c r="E42" s="67">
-        <v>3</v>
-      </c>
-      <c r="F42" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="G42" s="69">
-        <v>7</v>
-      </c>
-      <c r="H42" s="70"/>
-      <c r="I42" s="71"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="47"/>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="48"/>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="E45" s="40" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="B46" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="C46" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="E46" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" s="62" t="s">
-        <v>175</v>
-      </c>
-      <c r="G46" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="H46" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="I46" s="64" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" s="38"/>
-      <c r="C47" s="12"/>
-      <c r="E47" s="65">
-        <v>1</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="G47" s="39">
-        <v>1</v>
-      </c>
-      <c r="H47" s="31"/>
-      <c r="I47" s="66"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="B48" s="47"/>
-      <c r="C48" s="1"/>
-      <c r="E48" s="65">
-        <v>2</v>
-      </c>
-      <c r="F48" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="G48" s="39">
-        <v>1</v>
-      </c>
-      <c r="H48" s="31"/>
-      <c r="I48" s="66"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="B49" s="53"/>
-      <c r="C49" s="42"/>
-      <c r="E49" s="65">
-        <v>3</v>
-      </c>
-      <c r="F49" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="G49" s="39">
-        <v>1</v>
-      </c>
-      <c r="H49" s="31"/>
-      <c r="I49" s="66"/>
-    </row>
-    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="47"/>
-      <c r="C50" s="1"/>
-      <c r="E50" s="67">
-        <v>4</v>
-      </c>
-      <c r="F50" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="G50" s="69">
-        <v>1</v>
-      </c>
-      <c r="H50" s="70"/>
-      <c r="I50" s="71"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" s="48"/>
-      <c r="C51" s="2"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="J52" s="41"/>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="B53" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="C53" s="52" t="s">
-        <v>170</v>
-      </c>
-      <c r="E53" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="G53" s="82" t="s">
-        <v>138</v>
-      </c>
-      <c r="H53" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="I53" s="82" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="B54" s="38"/>
-      <c r="C54" s="12"/>
-      <c r="E54" s="65">
-        <v>1</v>
-      </c>
-      <c r="F54" s="37">
-        <v>1</v>
-      </c>
-      <c r="G54" s="98">
-        <v>1</v>
-      </c>
-      <c r="H54" s="93"/>
-      <c r="I54" s="77"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="47" t="s">
-        <v>184</v>
-      </c>
-      <c r="B55" s="47"/>
-      <c r="C55" s="1"/>
-      <c r="E55" s="65">
-        <v>2</v>
-      </c>
-      <c r="F55" s="21">
-        <v>2</v>
-      </c>
-      <c r="G55" s="39">
-        <v>2</v>
-      </c>
-      <c r="H55" s="31"/>
-      <c r="I55" s="66"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="B56" s="47"/>
-      <c r="C56" s="1"/>
-      <c r="E56" s="65">
-        <v>3</v>
-      </c>
-      <c r="F56" s="21">
-        <v>3</v>
-      </c>
-      <c r="G56" s="39">
-        <v>3</v>
-      </c>
-      <c r="H56" s="31"/>
-      <c r="I56" s="66"/>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="B57" s="53"/>
-      <c r="C57" s="42"/>
-      <c r="E57" s="67">
-        <v>4</v>
-      </c>
-      <c r="F57" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="G57" s="69">
-        <v>6</v>
-      </c>
-      <c r="H57" s="70"/>
-      <c r="I57" s="71"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" s="47"/>
-      <c r="C58" s="1"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="3"/>
-    </row>
-    <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="B59" s="48"/>
-      <c r="C59" s="2"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="3"/>
-    </row>
-    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="B61" s="59" t="s">
-        <v>158</v>
-      </c>
-      <c r="C61" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="E61" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="F61" s="63" t="s">
-        <v>129</v>
-      </c>
-      <c r="G61" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="H61" s="64" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="B62" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E62" s="65">
-        <v>1</v>
-      </c>
-      <c r="F62" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="G62" s="21"/>
-      <c r="H62" s="66"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="B63" s="89" t="s">
-        <v>118</v>
-      </c>
-      <c r="C63" s="1"/>
-      <c r="E63" s="65">
-        <v>2</v>
-      </c>
-      <c r="F63" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G63" s="21"/>
-      <c r="H63" s="66"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" s="79" t="s">
-        <v>141</v>
-      </c>
-      <c r="C64" s="1"/>
-      <c r="E64" s="65">
-        <v>3</v>
-      </c>
-      <c r="F64" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="G64" s="21"/>
-      <c r="H64" s="66"/>
-    </row>
-    <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="B65" s="79" t="s">
-        <v>141</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="E65" s="67">
-        <v>4</v>
-      </c>
-      <c r="F65" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="G65" s="68"/>
-      <c r="H65" s="71"/>
-    </row>
-    <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-    </row>
-    <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67" s="59" t="s">
-        <v>158</v>
-      </c>
-      <c r="C67" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="E67" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="G67" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="H67" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="I67" s="64" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="B68" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E68" s="65">
-        <v>1</v>
-      </c>
-      <c r="F68" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="G68" s="39">
-        <v>20</v>
-      </c>
-      <c r="H68" s="31"/>
-      <c r="I68" s="66"/>
-    </row>
-    <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="B69" s="85" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="1"/>
-      <c r="E69" s="65">
-        <v>2</v>
-      </c>
-      <c r="F69" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="G69" s="39">
-        <v>18</v>
-      </c>
-      <c r="H69" s="31"/>
-      <c r="I69" s="66"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="91" t="s">
-        <v>134</v>
-      </c>
-      <c r="B70" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="C70" s="42"/>
-      <c r="E70" s="65">
-        <v>3</v>
-      </c>
-      <c r="F70" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G70" s="39">
-        <v>23</v>
-      </c>
-      <c r="H70" s="31"/>
-      <c r="I70" s="66"/>
-    </row>
-    <row r="71" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B71" s="79" t="s">
-        <v>141</v>
-      </c>
-      <c r="C71" s="1"/>
-      <c r="E71" s="67">
-        <v>4</v>
-      </c>
-      <c r="F71" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="G71" s="69">
-        <v>1</v>
-      </c>
-      <c r="H71" s="70"/>
-      <c r="I71" s="71"/>
-    </row>
-    <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="B72" s="79" t="s">
-        <v>141</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-    </row>
-    <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="B74" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="C74" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="E74" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="F74" s="99" t="s">
-        <v>135</v>
-      </c>
-      <c r="G74" s="99" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="B75" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E75" s="92">
-        <v>1</v>
-      </c>
-      <c r="F75" s="37">
-        <v>4</v>
-      </c>
-      <c r="G75" s="77">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C76" s="12"/>
-      <c r="E76" s="65">
-        <v>2</v>
-      </c>
-      <c r="F76" s="21">
-        <v>2</v>
-      </c>
-      <c r="G76" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="B77" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="C77" s="55"/>
-      <c r="E77" s="67">
-        <v>3</v>
-      </c>
-      <c r="F77" s="68">
-        <v>1</v>
-      </c>
-      <c r="G77" s="71">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="B79" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="C79" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="E79" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="F79" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="G79" s="115" t="s">
-        <v>7</v>
-      </c>
-      <c r="H79" s="64" t="s">
-        <v>4</v>
-      </c>
-      <c r="I79" s="82" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B80" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="E80" s="65">
-        <v>1</v>
-      </c>
-      <c r="F80" s="21">
-        <v>28</v>
-      </c>
-      <c r="G80" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="H80" s="31"/>
-      <c r="I80" s="66"/>
-      <c r="J80" s="83"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="B81" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="E81" s="65">
-        <v>2</v>
-      </c>
-      <c r="F81" s="21"/>
-      <c r="G81" t="s">
-        <v>163</v>
-      </c>
-      <c r="H81" s="31"/>
-      <c r="I81" s="66"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="B82" s="47"/>
-      <c r="C82" s="1"/>
-      <c r="E82" s="65">
-        <v>3</v>
-      </c>
-      <c r="F82" s="21"/>
-      <c r="G82" s="31"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="66"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B83" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="C83" s="1"/>
-      <c r="E83" s="65"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="66"/>
-    </row>
-    <row r="84" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="B84" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="68"/>
-      <c r="G84" s="70"/>
-      <c r="H84" s="70"/>
-      <c r="I84" s="71"/>
-    </row>
-    <row r="85" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="86" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="B86" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="C86" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="E86" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="F86" s="72" t="s">
-        <v>167</v>
-      </c>
-      <c r="G86" s="72" t="s">
-        <v>136</v>
-      </c>
-      <c r="H86" s="101" t="s">
-        <v>13</v>
-      </c>
-      <c r="I86" s="101" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="B87" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D87" s="100" t="s">
-        <v>139</v>
-      </c>
-      <c r="E87" s="65">
-        <v>1</v>
-      </c>
-      <c r="F87" s="21">
-        <v>2</v>
-      </c>
-      <c r="G87" s="21">
-        <v>7</v>
-      </c>
-      <c r="H87" s="102" t="s">
-        <v>142</v>
-      </c>
-      <c r="I87" s="102"/>
-      <c r="J87" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="K87" s="64" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="B88" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="E88" s="65">
-        <v>2</v>
       </c>
       <c r="F88" s="21"/>
       <c r="G88" s="21"/>
-      <c r="H88" s="102"/>
-      <c r="I88" s="102"/>
+      <c r="H88" s="94"/>
+      <c r="I88" s="94"/>
       <c r="J88" s="21"/>
-      <c r="K88" s="66"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="56" t="s">
-        <v>136</v>
+      <c r="K88" s="64"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="55" t="s">
+        <v>4</v>
       </c>
       <c r="B89" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="C89" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="E89" s="65">
-        <v>3</v>
+        <v>130</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="E89" s="63">
+        <v>6</v>
       </c>
       <c r="F89" s="21"/>
       <c r="G89" s="21"/>
-      <c r="H89" s="102"/>
-      <c r="I89" s="102"/>
+      <c r="H89" s="94"/>
+      <c r="I89" s="94"/>
       <c r="J89" s="21"/>
-      <c r="K89" s="66"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="104" t="s">
-        <v>168</v>
-      </c>
-      <c r="B90" s="105"/>
-      <c r="C90" s="106"/>
+      <c r="K89" s="64"/>
+    </row>
+    <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C90" s="2"/>
       <c r="E90" s="65">
+        <v>7</v>
+      </c>
+      <c r="F90" s="66"/>
+      <c r="G90" s="66"/>
+      <c r="H90" s="95"/>
+      <c r="I90" s="95"/>
+      <c r="J90" s="101"/>
+      <c r="K90" s="69"/>
+    </row>
+    <row r="91" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="120"/>
+      <c r="B91" s="118"/>
+      <c r="C91" s="120"/>
+      <c r="D91" s="119"/>
+      <c r="E91" s="123"/>
+      <c r="F91" s="119"/>
+      <c r="G91" s="119"/>
+      <c r="H91" s="119"/>
+      <c r="I91" s="119"/>
+      <c r="J91" s="124"/>
+      <c r="K91" s="119"/>
+      <c r="L91" s="119"/>
+    </row>
+    <row r="92" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="B92" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="C92" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" s="113" t="s">
+        <v>23</v>
+      </c>
+      <c r="F92" s="114" t="s">
+        <v>115</v>
+      </c>
+      <c r="G92" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="H92" s="87" t="s">
+        <v>148</v>
+      </c>
+      <c r="I92" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="J92" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="F90" s="21"/>
-      <c r="G90" s="21"/>
-      <c r="H90" s="102"/>
-      <c r="I90" s="102"/>
-      <c r="J90" s="21"/>
-      <c r="K90" s="66"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="104" t="s">
-        <v>14</v>
-      </c>
-      <c r="B91" s="105"/>
-      <c r="C91" s="106"/>
-      <c r="E91" s="65">
+      <c r="K92" s="88" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E93" s="84">
+        <v>23</v>
+      </c>
+      <c r="F93" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="G93" s="111" t="s">
+        <v>138</v>
+      </c>
+      <c r="H93" s="37">
+        <v>123456</v>
+      </c>
+      <c r="I93" s="112"/>
+      <c r="J93" s="112"/>
+      <c r="K93" s="75"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C94" s="21"/>
+      <c r="E94" s="63">
+        <v>33</v>
+      </c>
+      <c r="F94" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G94" s="103" t="s">
+        <v>139</v>
+      </c>
+      <c r="H94" s="21">
+        <v>853697</v>
+      </c>
+      <c r="I94" s="99"/>
+      <c r="J94" s="99"/>
+      <c r="K94" s="64"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="21"/>
-      <c r="G91" s="21"/>
-      <c r="H91" s="102"/>
-      <c r="I91" s="102"/>
-      <c r="J91" s="21"/>
-      <c r="K91" s="66"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="B92" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="C92" s="1"/>
-      <c r="E92" s="65">
-        <v>6</v>
-      </c>
-      <c r="F92" s="21"/>
-      <c r="G92" s="21"/>
-      <c r="H92" s="102"/>
-      <c r="I92" s="102"/>
-      <c r="J92" s="21"/>
-      <c r="K92" s="66"/>
-    </row>
-    <row r="93" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="B93" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="E93" s="67">
-        <v>7</v>
-      </c>
-      <c r="F93" s="68"/>
-      <c r="G93" s="68"/>
-      <c r="H93" s="103"/>
-      <c r="I93" s="103"/>
-      <c r="J93" s="21"/>
-      <c r="K93" s="66"/>
-    </row>
-    <row r="94" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E94" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="J94" s="110"/>
-      <c r="K94" s="71"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="87" t="s">
-        <v>157</v>
-      </c>
-      <c r="B95" s="87" t="s">
-        <v>158</v>
-      </c>
-      <c r="C95" s="88" t="s">
+      <c r="B95" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C95" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="E95" s="112" t="s">
-        <v>23</v>
-      </c>
-      <c r="F95" s="112" t="s">
-        <v>120</v>
-      </c>
-      <c r="G95" s="112" t="s">
-        <v>5</v>
-      </c>
-      <c r="H95" s="63" t="s">
-        <v>160</v>
-      </c>
-      <c r="I95" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="J95" s="107" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="20" t="s">
-        <v>23</v>
+      <c r="E95" s="63">
+        <v>58</v>
+      </c>
+      <c r="F95" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G95" s="103" t="s">
+        <v>140</v>
+      </c>
+      <c r="H95" s="21">
+        <v>421586</v>
+      </c>
+      <c r="I95" s="99"/>
+      <c r="J95" s="99"/>
+      <c r="K95" s="64"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="21" t="s">
+        <v>148</v>
       </c>
       <c r="B96" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C96" s="21"/>
+      <c r="E96" s="63">
+        <v>102</v>
+      </c>
+      <c r="F96" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="G96" s="103" t="s">
+        <v>142</v>
+      </c>
+      <c r="H96" s="21">
+        <v>754896</v>
+      </c>
+      <c r="I96" s="99"/>
+      <c r="J96" s="99"/>
+      <c r="K96" s="64"/>
+    </row>
+    <row r="97" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="C96" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="E96" s="65">
-        <v>23</v>
-      </c>
-      <c r="F96" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="G96" s="113" t="s">
-        <v>150</v>
-      </c>
-      <c r="H96" s="21">
-        <v>123456</v>
-      </c>
-      <c r="I96" s="108"/>
-      <c r="J96" s="21"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="B97" s="20" t="s">
-        <v>144</v>
+      <c r="B97" s="34" t="s">
+        <v>132</v>
       </c>
       <c r="C97" s="21"/>
       <c r="E97" s="65">
-        <v>33</v>
-      </c>
-      <c r="F97" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="G97" s="113" t="s">
-        <v>151</v>
-      </c>
-      <c r="H97" s="21">
-        <v>853697</v>
-      </c>
-      <c r="I97" s="108"/>
-      <c r="J97" s="21"/>
+        <v>200</v>
+      </c>
+      <c r="F97" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="G97" s="104" t="s">
+        <v>141</v>
+      </c>
+      <c r="H97" s="66">
+        <v>214659</v>
+      </c>
+      <c r="I97" s="100"/>
+      <c r="J97" s="100"/>
+      <c r="K97" s="69"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C98" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="E98" s="65">
-        <v>58</v>
-      </c>
-      <c r="F98" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="G98" s="113" t="s">
-        <v>152</v>
-      </c>
-      <c r="H98" s="21">
-        <v>421586</v>
-      </c>
-      <c r="I98" s="108"/>
-      <c r="J98" s="21"/>
+        <v>130</v>
+      </c>
+      <c r="C98" s="21"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="21" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C99" s="21"/>
-      <c r="E99" s="65">
-        <v>102</v>
-      </c>
-      <c r="F99" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="G99" s="113" t="s">
-        <v>154</v>
-      </c>
-      <c r="H99" s="21">
-        <v>754896</v>
-      </c>
-      <c r="I99" s="108"/>
-      <c r="J99" s="21"/>
-    </row>
-    <row r="100" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="B100" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="C100" s="21"/>
-      <c r="E100" s="67">
-        <v>200</v>
-      </c>
-      <c r="F100" s="68" t="s">
-        <v>149</v>
-      </c>
-      <c r="G100" s="114" t="s">
-        <v>153</v>
-      </c>
-      <c r="H100" s="68">
-        <v>214659</v>
-      </c>
-      <c r="I100" s="109"/>
-      <c r="J100" s="21"/>
+        <v>130</v>
+      </c>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>129</v>
+      </c>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B101" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C101" s="21"/>
       <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B102" s="20" t="s">
-        <v>141</v>
-      </c>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>140</v>
-      </c>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3"/>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I104" s="102"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J105" s="3"/>
@@ -8485,7 +8315,6 @@
       <c r="M106" s="3"/>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I107" s="111"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
@@ -8506,40 +8335,18 @@
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
-      <c r="L110" s="3"/>
-      <c r="M110" s="3"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
-      <c r="L111" s="3"/>
-      <c r="M111" s="3"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J112" s="3"/>
-      <c r="K112" s="3"/>
-      <c r="L112" s="3"/>
-      <c r="M112" s="3"/>
-    </row>
-    <row r="113" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J113" s="3"/>
-      <c r="K113" s="3"/>
-    </row>
-    <row r="114" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J114" s="3"/>
-      <c r="K114" s="3"/>
-    </row>
-    <row r="115" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J115" s="3"/>
-      <c r="K115" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G96" r:id="rId1"/>
-    <hyperlink ref="G97" r:id="rId2"/>
-    <hyperlink ref="G98" r:id="rId3"/>
-    <hyperlink ref="G99" r:id="rId4"/>
-    <hyperlink ref="G100" r:id="rId5"/>
+    <hyperlink ref="G93" r:id="rId1"/>
+    <hyperlink ref="G94" r:id="rId2"/>
+    <hyperlink ref="G95" r:id="rId3"/>
+    <hyperlink ref="G96" r:id="rId4"/>
+    <hyperlink ref="G97" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>

--- a/tablas_ base de datos.xlsx
+++ b/tablas_ base de datos.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="182">
   <si>
     <t>PRODUCTOS</t>
   </si>
@@ -655,9 +655,6 @@
     <t>AUTO_INCREMENT</t>
   </si>
   <si>
-    <t>VARCHAR(50)</t>
-  </si>
-  <si>
     <t>DECIMAL</t>
   </si>
   <si>
@@ -1067,6 +1064,15 @@
   </si>
   <si>
     <t>mochila.jpg</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT/NOT NULL</t>
+  </si>
+  <si>
+    <t>VARCHAR(45)</t>
   </si>
 </sst>
 </file>
@@ -1983,22 +1989,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1130299</xdr:colOff>
+      <xdr:colOff>1450823</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>45493</xdr:rowOff>
+      <xdr:rowOff>9855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>237362</xdr:colOff>
+      <xdr:colOff>376414</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>75903</xdr:rowOff>
+      <xdr:rowOff>85379</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="53" name="Flecha: a la izquierda, derecha y arriba 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3097E1F8-85AD-4C9B-A988-60B813646FDD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3097E1F8-85AD-4C9B-A988-60B813646FDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2006,8 +2012,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="7168936" flipH="1">
-          <a:off x="7729826" y="-834"/>
-          <a:ext cx="233610" cy="5863463"/>
+          <a:off x="8692707" y="-691529"/>
+          <a:ext cx="266024" cy="7180591"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightUpArrow">
           <a:avLst/>
@@ -2043,22 +2049,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>691255</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>143477</xdr:rowOff>
+      <xdr:colOff>531597</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>3624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>85815</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>161248</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>768690</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>727</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="54" name="Flecha: a la izquierda, derecha y arriba 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB06C2DC-CFEB-43E3-ADDB-925B81771409}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB06C2DC-CFEB-43E3-ADDB-925B81771409}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2066,8 +2072,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="19600914" flipH="1">
-          <a:off x="3015355" y="2721577"/>
-          <a:ext cx="220060" cy="2773671"/>
+          <a:off x="6195797" y="2175324"/>
+          <a:ext cx="237093" cy="3375303"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightUpArrow">
           <a:avLst/>
@@ -2118,7 +2124,7 @@
         <xdr:cNvPr id="55" name="Flecha: a la izquierda, derecha y arriba 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2178,7 +2184,7 @@
         <xdr:cNvPr id="56" name="Flecha: a la izquierda, derecha y arriba 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A357813C-8AF8-4299-BA91-0A528ED1F6BC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A357813C-8AF8-4299-BA91-0A528ED1F6BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2238,7 +2244,7 @@
         <xdr:cNvPr id="57" name="Flecha: a la izquierda, derecha y arriba 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ADF86149-9AF8-4979-9898-D92F280DF2FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADF86149-9AF8-4979-9898-D92F280DF2FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2283,22 +2289,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>935117</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>94344</xdr:rowOff>
+      <xdr:colOff>853022</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161997</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1160693</xdr:colOff>
+      <xdr:colOff>1082175</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>146625</xdr:rowOff>
+      <xdr:rowOff>159105</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="58" name="Flecha: a la izquierda, derecha y arriba 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2A207FFC-329A-4274-9A1D-BEBC97BC4C01}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A207FFC-329A-4274-9A1D-BEBC97BC4C01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2306,8 +2312,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="20516351">
-          <a:off x="4719717" y="2862944"/>
-          <a:ext cx="225576" cy="5576781"/>
+          <a:off x="4637622" y="2333697"/>
+          <a:ext cx="229153" cy="6207408"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightUpArrow">
           <a:avLst/>
@@ -2342,23 +2348,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>46788</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>150714</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1845175</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190887</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>276876</xdr:colOff>
+      <xdr:colOff>214963</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>149984</xdr:rowOff>
+      <xdr:rowOff>159226</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="59" name="Flecha: a la izquierda, derecha y arriba 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E1F9FBF-07B9-42FC-AD07-5156F2305EE1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E1F9FBF-07B9-42FC-AD07-5156F2305EE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2366,8 +2372,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="20581134" flipH="1">
-          <a:off x="2370888" y="2919314"/>
-          <a:ext cx="230088" cy="3948970"/>
+          <a:off x="5629775" y="2362587"/>
+          <a:ext cx="249388" cy="4565739"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightUpArrow">
           <a:avLst/>
@@ -2418,7 +2424,7 @@
         <xdr:cNvPr id="20" name="Flecha: a la izquierda, derecha y arriba 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3097E1F8-85AD-4C9B-A988-60B813646FDD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3097E1F8-85AD-4C9B-A988-60B813646FDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2478,7 +2484,7 @@
         <xdr:cNvPr id="22" name="Flecha: a la izquierda, derecha y arriba 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2538,7 +2544,7 @@
         <xdr:cNvPr id="23" name="Flecha: a la izquierda, derecha y arriba 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2598,7 +2604,7 @@
         <xdr:cNvPr id="24" name="Flecha: a la izquierda, derecha y arriba 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2663,7 +2669,7 @@
         <xdr:cNvPr id="13" name="Conector recto 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2773,7 +2779,7 @@
         <xdr:cNvPr id="2" name="Conector recto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B76CAEE4-09D7-41C5-9067-4444BF67D33E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B76CAEE4-09D7-41C5-9067-4444BF67D33E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2828,7 +2834,7 @@
         <xdr:cNvPr id="16" name="Conector recto 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2878,7 +2884,7 @@
         <xdr:cNvPr id="32" name="Conector recto 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2928,7 +2934,7 @@
         <xdr:cNvPr id="35" name="Conector recto 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2978,7 +2984,7 @@
         <xdr:cNvPr id="36" name="Conector recto 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3028,7 +3034,7 @@
         <xdr:cNvPr id="49" name="Conector recto 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000031000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3078,7 +3084,7 @@
         <xdr:cNvPr id="51" name="Conector recto 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000033000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3128,7 +3134,7 @@
         <xdr:cNvPr id="53" name="Conector recto 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000035000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3178,7 +3184,7 @@
         <xdr:cNvPr id="55" name="Conector recto 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000037000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3228,7 +3234,7 @@
         <xdr:cNvPr id="56" name="Conector recto 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000038000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3278,7 +3284,7 @@
         <xdr:cNvPr id="59" name="Conector recto 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3328,7 +3334,7 @@
         <xdr:cNvPr id="61" name="Conector recto 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3378,7 +3384,7 @@
         <xdr:cNvPr id="63" name="Conector recto 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3428,7 +3434,7 @@
         <xdr:cNvPr id="66" name="Conector recto 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000042000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3478,7 +3484,7 @@
         <xdr:cNvPr id="68" name="Conector recto 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000044000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3528,7 +3534,7 @@
         <xdr:cNvPr id="71" name="Conector recto 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000047000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3578,7 +3584,7 @@
         <xdr:cNvPr id="73" name="Conector recto 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000049000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3628,7 +3634,7 @@
         <xdr:cNvPr id="74" name="Conector recto 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3678,7 +3684,7 @@
         <xdr:cNvPr id="76" name="Conector recto 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3728,7 +3734,7 @@
         <xdr:cNvPr id="81" name="Conector recto 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000051000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3778,7 +3784,7 @@
         <xdr:cNvPr id="82" name="Conector recto 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000052000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3828,7 +3834,7 @@
         <xdr:cNvPr id="86" name="Conector recto 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000056000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3878,7 +3884,7 @@
         <xdr:cNvPr id="87" name="Conector recto 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000057000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3928,7 +3934,7 @@
         <xdr:cNvPr id="90" name="Conector recto 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00005A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3978,7 +3984,7 @@
         <xdr:cNvPr id="91" name="Conector recto 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00005B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4028,7 +4034,7 @@
         <xdr:cNvPr id="92" name="Conector recto 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00005C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4078,7 +4084,7 @@
         <xdr:cNvPr id="93" name="Conector recto 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00005D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4128,7 +4134,7 @@
         <xdr:cNvPr id="100" name="Conector recto 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000064000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4178,7 +4184,7 @@
         <xdr:cNvPr id="101" name="Conector recto 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000065000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4228,7 +4234,7 @@
         <xdr:cNvPr id="106" name="Conector recto 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4278,7 +4284,7 @@
         <xdr:cNvPr id="108" name="Conector recto 107">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4328,7 +4334,7 @@
         <xdr:cNvPr id="109" name="Conector recto 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4378,7 +4384,7 @@
         <xdr:cNvPr id="111" name="Conector recto 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4428,7 +4434,7 @@
         <xdr:cNvPr id="114" name="Conector recto 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000072000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4478,7 +4484,7 @@
         <xdr:cNvPr id="116" name="Conector recto 115">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000074000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4528,7 +4534,7 @@
         <xdr:cNvPr id="128" name="Conector recto 127">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000080000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4578,7 +4584,7 @@
         <xdr:cNvPr id="130" name="Conector recto 129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000082000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4628,7 +4634,7 @@
         <xdr:cNvPr id="131" name="Conector recto 130">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000083000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4678,7 +4684,7 @@
         <xdr:cNvPr id="132" name="Conector recto 131">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4728,7 +4734,7 @@
         <xdr:cNvPr id="133" name="Conector recto 132">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000085000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4778,7 +4784,7 @@
         <xdr:cNvPr id="136" name="Conector recto 135">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000088000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4828,7 +4834,7 @@
         <xdr:cNvPr id="139" name="Conector recto 138">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00008B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4878,7 +4884,7 @@
         <xdr:cNvPr id="141" name="Conector recto 140">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00008D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4928,7 +4934,7 @@
         <xdr:cNvPr id="142" name="Conector recto 141">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00008E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4978,7 +4984,7 @@
         <xdr:cNvPr id="143" name="Conector recto 142">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00008F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5312,8 +5318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A32" sqref="A28:A32"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5321,7 +5327,7 @@
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
     <col min="6" max="6" width="21.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
@@ -5358,7 +5364,7 @@
     </row>
     <row r="3" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>100</v>
@@ -5387,10 +5393,10 @@
         <v>18</v>
       </c>
       <c r="C4" s="154" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="D4" s="155" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="E4" s="3"/>
       <c r="J4" s="178" t="s">
@@ -5415,10 +5421,10 @@
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="156" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="157" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="D5" s="157"/>
       <c r="E5" s="3"/>
@@ -5443,10 +5449,10 @@
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="156" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" s="157" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="157"/>
       <c r="E6" s="3"/>
@@ -5469,10 +5475,10 @@
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="156" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="158" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D7" s="157"/>
       <c r="E7" s="3"/>
@@ -5495,10 +5501,10 @@
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="159" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="158" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D8" s="158"/>
       <c r="E8" s="3"/>
@@ -5513,20 +5519,20 @@
       <c r="O8" s="182"/>
       <c r="P8" s="182"/>
       <c r="R8" s="186" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S8" s="182"/>
       <c r="T8" s="182"/>
     </row>
     <row r="9" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="160" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C9" s="158" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="D9" s="158" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E9" s="3"/>
       <c r="J9" s="183" t="s">
@@ -5540,7 +5546,7 @@
       <c r="O9" s="184"/>
       <c r="P9" s="184"/>
       <c r="R9" s="186" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S9" s="182"/>
       <c r="T9" s="182"/>
@@ -5550,7 +5556,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="158" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D10" s="158" t="s">
         <v>94</v>
@@ -5573,7 +5579,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="158" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D11" s="162" t="s">
         <v>94</v>
@@ -5727,13 +5733,13 @@
     </row>
     <row r="23" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="119" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B23" s="10"/>
       <c r="E23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="174" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K23" s="175"/>
       <c r="L23" s="175"/>
@@ -5743,7 +5749,7 @@
     </row>
     <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="119" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>0</v>
@@ -5761,10 +5767,10 @@
     </row>
     <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="119" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E25" s="3"/>
       <c r="I25" s="3"/>
@@ -5779,10 +5785,10 @@
     </row>
     <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="119" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E26" s="3"/>
       <c r="I26" s="3"/>
@@ -5801,14 +5807,14 @@
     </row>
     <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="152" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>84</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>100</v>
@@ -5818,7 +5824,7 @@
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K28" s="10" t="s">
         <v>100</v>
@@ -5830,7 +5836,7 @@
     </row>
     <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="152" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>30</v>
@@ -5840,7 +5846,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="154" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H29" s="155" t="s">
         <v>102</v>
@@ -5850,7 +5856,7 @@
         <v>18</v>
       </c>
       <c r="K29" s="154" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L29" s="155" t="s">
         <v>102</v>
@@ -5860,50 +5866,50 @@
     </row>
     <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="152" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>22</v>
       </c>
       <c r="F30" s="163" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G30" s="157" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H30" s="157"/>
       <c r="I30" s="4"/>
       <c r="J30" s="156" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K30" s="158" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L30" s="157" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="152" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>79</v>
       </c>
       <c r="F31" s="164" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G31" s="154" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H31" s="165"/>
       <c r="J31" s="159" t="s">
         <v>4</v>
       </c>
       <c r="K31" s="158" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L31" s="166" t="s">
         <v>94</v>
@@ -5913,7 +5919,7 @@
     </row>
     <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="152" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>8</v>
@@ -5923,7 +5929,7 @@
         <v>3</v>
       </c>
       <c r="K32" s="158" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L32" s="167" t="s">
         <v>94</v>
@@ -5941,7 +5947,7 @@
     </row>
     <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="191" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>12</v>
@@ -5964,7 +5970,7 @@
     </row>
     <row r="35" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="191" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>19</v>
@@ -5989,7 +5995,7 @@
     </row>
     <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="191" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>1</v>
@@ -6012,10 +6018,10 @@
     </row>
     <row r="37" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="191" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B37" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F37" s="171" t="s">
         <v>34</v>
@@ -6258,32 +6264,32 @@
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" s="82" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="86" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="107" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="107" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="107" t="s">
+      <c r="H2" s="107" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="107" t="s">
+      <c r="I2" s="109" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" s="108" t="s">
         <v>117</v>
-      </c>
-      <c r="I2" s="109" t="s">
-        <v>122</v>
-      </c>
-      <c r="J2" s="108" t="s">
-        <v>118</v>
       </c>
       <c r="K2" s="87" t="s">
         <v>4</v>
@@ -6297,7 +6303,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>102</v>
@@ -6326,10 +6332,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="3"/>
@@ -6356,10 +6362,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="3"/>
@@ -6376,7 +6382,7 @@
         <v>95</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J5" s="31">
         <v>3</v>
@@ -6386,10 +6392,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="3"/>
@@ -6416,10 +6422,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="110" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="3"/>
@@ -6446,13 +6452,13 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="63">
@@ -6468,7 +6474,7 @@
         <v>95</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J8" s="31">
         <v>6</v>
@@ -6481,7 +6487,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C9" s="77"/>
       <c r="D9" s="3"/>
@@ -6498,7 +6504,7 @@
         <v>95</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J9" s="31">
         <v>7</v>
@@ -6511,7 +6517,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C10" s="76"/>
       <c r="D10" s="3"/>
@@ -6528,7 +6534,7 @@
         <v>95</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J10" s="31">
         <v>8</v>
@@ -6554,7 +6560,7 @@
         <v>95</v>
       </c>
       <c r="I11" s="66" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J11" s="68">
         <v>9</v>
@@ -6582,13 +6588,13 @@
     </row>
     <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B13" s="81" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="59" t="s">
@@ -6713,10 +6719,10 @@
         <v>78</v>
       </c>
       <c r="B19" s="81" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E19" s="59" t="s">
         <v>18</v>
@@ -6728,7 +6734,7 @@
         <v>89</v>
       </c>
       <c r="H19" s="106" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I19" s="61" t="s">
         <v>4</v>
@@ -6976,22 +6982,22 @@
     </row>
     <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B30" s="57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E30" s="86" t="s">
         <v>18</v>
       </c>
       <c r="F30" s="87" t="s">
+        <v>164</v>
+      </c>
+      <c r="G30" s="89" t="s">
         <v>165</v>
-      </c>
-      <c r="G30" s="89" t="s">
-        <v>166</v>
       </c>
       <c r="H30" s="87" t="s">
         <v>4</v>
@@ -7024,7 +7030,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B32" s="45"/>
       <c r="C32" s="1"/>
@@ -7094,19 +7100,19 @@
         <v>84</v>
       </c>
       <c r="B36" s="58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C36" s="50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E36" s="59" t="s">
         <v>18</v>
       </c>
       <c r="F36" s="60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G36" s="60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H36" s="61" t="s">
         <v>4</v>
@@ -7135,7 +7141,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B38" s="45"/>
       <c r="C38" s="1"/>
@@ -7153,7 +7159,7 @@
     </row>
     <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B39" s="45"/>
       <c r="C39" s="1"/>
@@ -7199,22 +7205,22 @@
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B43" s="81" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C43" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E43" s="59" t="s">
         <v>18</v>
       </c>
       <c r="F43" s="60" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G43" s="60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H43" s="61" t="s">
         <v>4</v>
@@ -7243,7 +7249,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B45" s="45"/>
       <c r="C45" s="1"/>
@@ -7261,7 +7267,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B46" s="51"/>
       <c r="C46" s="41"/>
@@ -7323,22 +7329,22 @@
     </row>
     <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="50" t="s">
         <v>156</v>
-      </c>
-      <c r="B50" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="50" t="s">
-        <v>157</v>
       </c>
       <c r="E50" s="59" t="s">
         <v>18</v>
       </c>
       <c r="F50" s="78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G50" s="78" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H50" s="78" t="s">
         <v>4</v>
@@ -7367,7 +7373,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B52" s="45"/>
       <c r="C52" s="1"/>
@@ -7385,7 +7391,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B53" s="45"/>
       <c r="C53" s="1"/>
@@ -7403,7 +7409,7 @@
     </row>
     <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B54" s="51"/>
       <c r="C54" s="41"/>
@@ -7459,19 +7465,19 @@
     </row>
     <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B58" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" s="47" t="s">
         <v>146</v>
-      </c>
-      <c r="C58" s="47" t="s">
-        <v>147</v>
       </c>
       <c r="E58" s="108" t="s">
         <v>18</v>
       </c>
       <c r="F58" s="78" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G58" s="78" t="s">
         <v>4</v>
@@ -7485,7 +7491,7 @@
         <v>18</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C59" s="17" t="s">
         <v>102</v>
@@ -7501,10 +7507,10 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B60" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C60" s="1"/>
       <c r="E60" s="63">
@@ -7521,14 +7527,14 @@
         <v>4</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C61" s="1"/>
       <c r="E61" s="63">
         <v>3</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G61" s="21"/>
       <c r="H61" s="64"/>
@@ -7538,7 +7544,7 @@
         <v>3</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C62" s="2"/>
       <c r="E62" s="65">
@@ -7566,22 +7572,22 @@
     </row>
     <row r="64" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B64" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" s="47" t="s">
         <v>146</v>
-      </c>
-      <c r="C64" s="47" t="s">
-        <v>147</v>
       </c>
       <c r="E64" s="148" t="s">
         <v>18</v>
       </c>
       <c r="F64" s="149" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G64" s="149" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H64" s="150" t="s">
         <v>4</v>
@@ -7595,7 +7601,7 @@
         <v>18</v>
       </c>
       <c r="B65" s="126" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C65" s="127" t="s">
         <v>102</v>
@@ -7614,10 +7620,10 @@
     </row>
     <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="128" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B66" s="129" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C66" s="130"/>
       <c r="E66" s="135">
@@ -7634,10 +7640,10 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="131" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B67" s="126" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C67" s="132"/>
       <c r="E67" s="135">
@@ -7657,7 +7663,7 @@
         <v>4</v>
       </c>
       <c r="B68" s="129" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C68" s="130"/>
       <c r="E68" s="139">
@@ -7677,7 +7683,7 @@
         <v>3</v>
       </c>
       <c r="B69" s="129" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C69" s="134"/>
       <c r="E69" s="3"/>
@@ -7701,22 +7707,22 @@
     </row>
     <row r="71" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B71" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" s="50" t="s">
         <v>146</v>
-      </c>
-      <c r="C71" s="50" t="s">
-        <v>147</v>
       </c>
       <c r="E71" s="86" t="s">
         <v>18</v>
       </c>
       <c r="F71" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="G71" s="91" t="s">
         <v>124</v>
-      </c>
-      <c r="G71" s="91" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -7724,7 +7730,7 @@
         <v>18</v>
       </c>
       <c r="B72" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C72" s="17" t="s">
         <v>102</v>
@@ -7741,10 +7747,10 @@
     </row>
     <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C73" s="12"/>
       <c r="E73" s="63">
@@ -7759,10 +7765,10 @@
     </row>
     <row r="74" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="52" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B74" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C74" s="53"/>
       <c r="E74" s="65">
@@ -7791,19 +7797,19 @@
     </row>
     <row r="76" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B76" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="C76" s="47" t="s">
         <v>146</v>
-      </c>
-      <c r="C76" s="47" t="s">
-        <v>147</v>
       </c>
       <c r="E76" s="59" t="s">
         <v>18</v>
       </c>
       <c r="F76" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G76" s="105" t="s">
         <v>7</v>
@@ -7820,10 +7826,10 @@
         <v>23</v>
       </c>
       <c r="B77" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E77" s="63">
         <v>1</v>
@@ -7832,7 +7838,7 @@
         <v>28</v>
       </c>
       <c r="G77" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H77" s="31"/>
       <c r="I77" s="64"/>
@@ -7840,20 +7846,20 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E78" s="63">
         <v>2</v>
       </c>
       <c r="F78" s="21"/>
       <c r="G78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H78" s="31"/>
       <c r="I78" s="64"/>
@@ -7877,7 +7883,7 @@
         <v>4</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C80" s="1"/>
       <c r="E80" s="63"/>
@@ -7891,7 +7897,7 @@
         <v>3</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C81" s="2"/>
       <c r="E81" s="65"/>
@@ -7916,22 +7922,22 @@
     </row>
     <row r="83" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B83" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="C83" s="50" t="s">
         <v>146</v>
-      </c>
-      <c r="C83" s="50" t="s">
-        <v>147</v>
       </c>
       <c r="E83" s="59" t="s">
         <v>18</v>
       </c>
       <c r="F83" s="70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G83" s="70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H83" s="93" t="s">
         <v>13</v>
@@ -7951,10 +7957,10 @@
         <v>18</v>
       </c>
       <c r="B84" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E84" s="63">
         <v>1</v>
@@ -7966,7 +7972,7 @@
         <v>7</v>
       </c>
       <c r="H84" s="94" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I84" s="94"/>
       <c r="J84" s="21"/>
@@ -7977,10 +7983,10 @@
         <v>35</v>
       </c>
       <c r="B85" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E85" s="63">
         <v>2</v>
@@ -7994,16 +8000,16 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B86" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D86" s="92" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E86" s="63">
         <v>3</v>
@@ -8017,7 +8023,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B87" s="97"/>
       <c r="C87" s="98"/>
@@ -8052,7 +8058,7 @@
         <v>4</v>
       </c>
       <c r="B89" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C89" s="1"/>
       <c r="E89" s="63">
@@ -8070,7 +8076,7 @@
         <v>3</v>
       </c>
       <c r="B90" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C90" s="2"/>
       <c r="E90" s="65">
@@ -8099,28 +8105,28 @@
     </row>
     <row r="92" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="B92" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="B92" s="81" t="s">
+      <c r="C92" s="82" t="s">
         <v>146</v>
-      </c>
-      <c r="C92" s="82" t="s">
-        <v>147</v>
       </c>
       <c r="E92" s="113" t="s">
         <v>23</v>
       </c>
       <c r="F92" s="114" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G92" s="114" t="s">
         <v>5</v>
       </c>
       <c r="H92" s="87" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I92" s="36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J92" s="115" t="s">
         <v>4</v>
@@ -8134,19 +8140,19 @@
         <v>23</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E93" s="84">
         <v>23</v>
       </c>
       <c r="F93" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G93" s="111" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H93" s="37">
         <v>123456</v>
@@ -8157,20 +8163,20 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C94" s="21"/>
       <c r="E94" s="63">
         <v>33</v>
       </c>
       <c r="F94" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G94" s="103" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H94" s="21">
         <v>853697</v>
@@ -8184,19 +8190,19 @@
         <v>5</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E95" s="63">
         <v>58</v>
       </c>
       <c r="F95" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G95" s="103" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H95" s="21">
         <v>421586</v>
@@ -8207,20 +8213,20 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C96" s="21"/>
       <c r="E96" s="63">
         <v>102</v>
       </c>
       <c r="F96" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G96" s="103" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H96" s="21">
         <v>754896</v>
@@ -8231,20 +8237,20 @@
     </row>
     <row r="97" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B97" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C97" s="21"/>
       <c r="E97" s="65">
         <v>200</v>
       </c>
       <c r="F97" s="66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G97" s="104" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H97" s="66">
         <v>214659</v>
@@ -8258,7 +8264,7 @@
         <v>4</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C98" s="21"/>
     </row>
@@ -8267,14 +8273,14 @@
         <v>3</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>

--- a/tablas_ base de datos.xlsx
+++ b/tablas_ base de datos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr checkCompatibility="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BASE DE DATOS" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="198">
   <si>
     <t>PRODUCTOS</t>
   </si>
@@ -668,15 +668,6 @@
     <t>DATETIME</t>
   </si>
   <si>
-    <t>imagenUsuario</t>
-  </si>
-  <si>
-    <t>categoriaUsuario-id</t>
-  </si>
-  <si>
-    <t>CATEGORIAUSUARIOS</t>
-  </si>
-  <si>
     <t>flor</t>
   </si>
   <si>
@@ -934,9 +925,6 @@
     <t>*A</t>
   </si>
   <si>
-    <t>*A puede tener 2 restricciones ej.Auto increment y UNIQUE KEYS?</t>
-  </si>
-  <si>
     <t>TIMESTAMP</t>
   </si>
   <si>
@@ -1086,9 +1074,6 @@
     <t>imagen</t>
   </si>
   <si>
-    <t>UNIQUE-KEYS</t>
-  </si>
-  <si>
     <t>SIZES</t>
   </si>
   <si>
@@ -1205,12 +1190,96 @@
       <t>(FK)</t>
     </r>
   </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>safePrice</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <r>
+      <t>userType</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(FK)</t>
+    </r>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>AUTO-INCRMENT/NOT NULL</t>
+  </si>
+  <si>
+    <t>userTypeS</t>
+  </si>
+  <si>
+    <t>userTypes</t>
+  </si>
+  <si>
+    <t>created-at</t>
+  </si>
+  <si>
+    <t>updated_ut</t>
+  </si>
+  <si>
+    <r>
+      <t>userType_id</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(FK)</t>
+    </r>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>Admi</t>
+  </si>
+  <si>
+    <r>
+      <t>VARCHAR(255</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1279,6 +1348,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1858,7 +1942,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1999,6 +2083,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2856,16 +2949,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2889,7 +2982,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="20459700"/>
+          <a:off x="5915025" y="22031325"/>
           <a:ext cx="7286625" cy="1571625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5471,8 +5564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30:K31"/>
+    <sheetView topLeftCell="L2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5495,7 +5588,7 @@
     <col min="16" max="16" width="15.7109375" customWidth="1"/>
     <col min="17" max="17" width="14.5703125" customWidth="1"/>
     <col min="18" max="18" width="33" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" customWidth="1"/>
+    <col min="19" max="19" width="11" customWidth="1"/>
     <col min="20" max="20" width="18.140625" customWidth="1"/>
     <col min="22" max="22" width="33" bestFit="1" customWidth="1"/>
   </cols>
@@ -5515,9 +5608,9 @@
       <c r="S2" s="23"/>
       <c r="T2" s="23"/>
     </row>
-    <row r="3" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>100</v>
@@ -5531,17 +5624,17 @@
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
-      <c r="R3" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R3" s="131" t="s">
+        <v>185</v>
+      </c>
+      <c r="S3" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="T3" s="132" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="73" t="s">
         <v>18</v>
       </c>
@@ -5566,15 +5659,15 @@
       <c r="P4" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="R4" s="38" t="s">
+      <c r="R4" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="S4" s="134"/>
+      <c r="T4" s="134"/>
+    </row>
+    <row r="5" spans="2:20" ht="21" x14ac:dyDescent="0.35">
       <c r="B5" s="47" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>104</v>
@@ -5594,15 +5687,15 @@
       </c>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
-      <c r="R5" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="R5" s="133" t="s">
+        <v>117</v>
+      </c>
+      <c r="S5" s="134"/>
+      <c r="T5" s="134"/>
+    </row>
+    <row r="6" spans="2:20" ht="21" x14ac:dyDescent="0.35">
       <c r="B6" s="47" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>105</v>
@@ -5620,15 +5713,15 @@
       </c>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
-      <c r="R6" s="47" t="s">
+      <c r="R6" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="S6" s="136"/>
+      <c r="T6" s="136"/>
+    </row>
+    <row r="7" spans="2:20" ht="21" x14ac:dyDescent="0.35">
       <c r="B7" s="47" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>104</v>
@@ -5646,15 +5739,15 @@
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="R7" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="R7" s="135" t="s">
+        <v>156</v>
+      </c>
+      <c r="S7" s="136"/>
+      <c r="T7" s="136"/>
+    </row>
+    <row r="8" spans="2:20" ht="21" x14ac:dyDescent="0.35">
       <c r="B8" s="124" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C8" s="125" t="s">
         <v>107</v>
@@ -5671,15 +5764,15 @@
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="R8" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-    </row>
-    <row r="9" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R8" s="135" t="s">
+        <v>130</v>
+      </c>
+      <c r="S8" s="136"/>
+      <c r="T8" s="136"/>
+    </row>
+    <row r="9" spans="2:20" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="126" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C9" s="121" t="s">
         <v>107</v>
@@ -5698,18 +5791,18 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="R9" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="R9" s="135" t="s">
+        <v>186</v>
+      </c>
+      <c r="S9" s="136"/>
+      <c r="T9" s="136"/>
+    </row>
+    <row r="10" spans="2:20" ht="21" x14ac:dyDescent="0.35">
       <c r="B10" s="91" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="121" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D10" s="121" t="s">
         <v>94</v>
@@ -5721,18 +5814,18 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="R10" s="47" t="s">
+      <c r="R10" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-    </row>
-    <row r="11" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S10" s="136"/>
+      <c r="T10" s="136"/>
+    </row>
+    <row r="11" spans="2:20" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="127" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="128" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D11" s="129" t="s">
         <v>94</v>
@@ -5741,11 +5834,11 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="R11" s="48" t="s">
+      <c r="R11" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
+      <c r="S11" s="138"/>
+      <c r="T11" s="138"/>
     </row>
     <row r="12" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="38"/>
@@ -5796,13 +5889,13 @@
       <c r="M15" s="4"/>
       <c r="P15" s="27"/>
       <c r="R15" s="45" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5826,7 +5919,7 @@
       <c r="I17" s="3"/>
       <c r="M17" s="3"/>
       <c r="R17" s="38" t="s">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -5897,7 +5990,7 @@
     </row>
     <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>15</v>
@@ -5913,7 +6006,7 @@
     </row>
     <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>0</v>
@@ -5929,7 +6022,7 @@
     </row>
     <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B25" s="51" t="s">
         <v>21</v>
@@ -5943,7 +6036,7 @@
     </row>
     <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B26" s="45" t="s">
         <v>20</v>
@@ -5959,7 +6052,7 @@
       <c r="E27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="45" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K27" s="10" t="s">
         <v>100</v>
@@ -5971,7 +6064,7 @@
     </row>
     <row r="28" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B28" s="51" t="s">
         <v>84</v>
@@ -6000,7 +6093,7 @@
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B29" s="45" t="s">
         <v>30</v>
@@ -6017,7 +6110,7 @@
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="47" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K29" s="47" t="s">
         <v>104</v>
@@ -6030,13 +6123,13 @@
     </row>
     <row r="30" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B30" s="45" t="s">
         <v>22</v>
       </c>
       <c r="F30" s="46" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>107</v>
@@ -6047,7 +6140,7 @@
         <v>4</v>
       </c>
       <c r="K30" s="121" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>94</v>
@@ -6057,13 +6150,13 @@
     </row>
     <row r="31" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B31" s="45" t="s">
         <v>79</v>
       </c>
       <c r="F31" s="54" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G31" s="32" t="s">
         <v>107</v>
@@ -6073,7 +6166,7 @@
         <v>3</v>
       </c>
       <c r="K31" s="121" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>94</v>
@@ -6083,7 +6176,7 @@
     </row>
     <row r="32" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B32" s="45" t="s">
         <v>8</v>
@@ -6105,7 +6198,7 @@
     </row>
     <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B34" s="51" t="s">
         <v>12</v>
@@ -6134,7 +6227,7 @@
     </row>
     <row r="35" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B35" s="45" t="s">
         <v>19</v>
@@ -6155,7 +6248,7 @@
     </row>
     <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B36" s="45" t="s">
         <v>1</v>
@@ -6178,10 +6271,10 @@
     </row>
     <row r="37" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B37" s="84" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F37" s="54" t="s">
         <v>34</v>
@@ -6299,7 +6392,7 @@
     </row>
     <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F47" s="45" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>100</v>
@@ -6331,10 +6424,10 @@
     </row>
     <row r="49" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F49" s="119" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G49" s="89" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H49" s="120"/>
       <c r="I49" s="43"/>
@@ -6345,7 +6438,7 @@
     </row>
     <row r="50" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F50" s="119" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G50" s="117" t="s">
         <v>107</v>
@@ -6362,7 +6455,7 @@
         <v>4</v>
       </c>
       <c r="G51" s="121" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H51" s="120" t="s">
         <v>94</v>
@@ -6375,7 +6468,7 @@
         <v>3</v>
       </c>
       <c r="G52" s="121" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H52" s="123" t="s">
         <v>94</v>
@@ -6439,10 +6532,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P115"/>
+  <dimension ref="A1:P112"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:N11"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6465,49 +6558,49 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E1" s="23" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B2" s="87" t="s">
         <v>100</v>
       </c>
       <c r="C2" s="88" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="61" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="J2" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="K2" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="I2" s="86" t="s">
+      <c r="L2" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="M2" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="N2" s="38" t="s">
         <v>124</v>
-      </c>
-      <c r="K2" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="L2" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="M2" s="90" t="s">
-        <v>131</v>
-      </c>
-      <c r="N2" s="38" t="s">
-        <v>127</v>
       </c>
       <c r="O2" s="63" t="s">
         <v>4</v>
@@ -6554,7 +6647,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>104</v>
@@ -6588,7 +6681,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>105</v>
@@ -6622,7 +6715,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>104</v>
@@ -6656,7 +6749,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="86" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B7" s="81" t="s">
         <v>107</v>
@@ -6690,7 +6783,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B8" s="79" t="s">
         <v>107</v>
@@ -6726,7 +6819,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B9" s="79" t="s">
         <v>107</v>
@@ -6762,7 +6855,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B10" s="79" t="s">
         <v>107</v>
@@ -6796,7 +6889,7 @@
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B11" s="79" t="s">
         <v>107</v>
@@ -6830,7 +6923,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B12" s="79" t="s">
         <v>107</v>
@@ -6916,13 +7009,13 @@
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="45" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="61" t="s">
@@ -7034,10 +7127,10 @@
         <v>78</v>
       </c>
       <c r="B22" s="59" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E22" s="61" t="s">
         <v>18</v>
@@ -7258,22 +7351,22 @@
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="45" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B33" s="59" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C33" s="49" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E33" s="94" t="s">
         <v>18</v>
       </c>
       <c r="F33" s="95" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G33" s="97" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H33" s="95" t="s">
         <v>4</v>
@@ -7306,7 +7399,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="47" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B35" s="47"/>
       <c r="C35" s="1"/>
@@ -7368,19 +7461,19 @@
         <v>84</v>
       </c>
       <c r="B39" s="60" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C39" s="52" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E39" s="61" t="s">
         <v>18</v>
       </c>
       <c r="F39" s="62" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G39" s="62" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H39" s="63" t="s">
         <v>4</v>
@@ -7409,7 +7502,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="47" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B41" s="47"/>
       <c r="C41" s="1"/>
@@ -7427,7 +7520,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="47" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B42" s="47"/>
       <c r="C42" s="1"/>
@@ -7467,22 +7560,22 @@
     </row>
     <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="45" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B46" s="59" t="s">
         <v>100</v>
       </c>
       <c r="C46" s="49" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E46" s="61" t="s">
         <v>18</v>
       </c>
       <c r="F46" s="62" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G46" s="62" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H46" s="63" t="s">
         <v>4</v>
@@ -7511,7 +7604,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="47" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B48" s="47"/>
       <c r="C48" s="1"/>
@@ -7529,7 +7622,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="53" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B49" s="53"/>
       <c r="C49" s="42"/>
@@ -7587,22 +7680,22 @@
     </row>
     <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="51" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B53" s="60" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C53" s="52" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E53" s="61" t="s">
         <v>18</v>
       </c>
       <c r="F53" s="82" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G53" s="82" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H53" s="82" t="s">
         <v>4</v>
@@ -7631,7 +7724,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="47" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B55" s="47"/>
       <c r="C55" s="1"/>
@@ -7649,7 +7742,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="47" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B56" s="47"/>
       <c r="C56" s="1"/>
@@ -7667,7 +7760,7 @@
     </row>
     <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="53" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B57" s="53"/>
       <c r="C57" s="42"/>
@@ -7710,19 +7803,19 @@
     <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="45" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B61" s="59" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C61" s="49" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E61" s="61" t="s">
         <v>18</v>
       </c>
       <c r="F61" s="63" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G61" s="63" t="s">
         <v>4</v>
@@ -7752,10 +7845,10 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="47" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B63" s="89" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C63" s="1"/>
       <c r="E63" s="65">
@@ -7772,14 +7865,14 @@
         <v>4</v>
       </c>
       <c r="B64" s="79" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C64" s="1"/>
       <c r="E64" s="65">
         <v>3</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G64" s="21"/>
       <c r="H64" s="66"/>
@@ -7789,7 +7882,7 @@
         <v>3</v>
       </c>
       <c r="B65" s="79" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C65" s="2"/>
       <c r="E65" s="67">
@@ -7812,22 +7905,22 @@
     </row>
     <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="45" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B67" s="59" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C67" s="49" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E67" s="61" t="s">
         <v>18</v>
       </c>
       <c r="F67" s="62" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G67" s="62" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H67" s="63" t="s">
         <v>4</v>
@@ -7860,10 +7953,10 @@
     </row>
     <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="47" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B69" s="85" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C69" s="1"/>
       <c r="E69" s="65">
@@ -7880,7 +7973,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="91" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B70" s="32" t="s">
         <v>107</v>
@@ -7903,7 +7996,7 @@
         <v>4</v>
       </c>
       <c r="B71" s="79" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C71" s="1"/>
       <c r="E71" s="67">
@@ -7923,7 +8016,7 @@
         <v>3</v>
       </c>
       <c r="B72" s="79" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C72" s="2"/>
       <c r="E72" s="3"/>
@@ -7934,22 +8027,22 @@
     <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="74" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="51" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B74" s="60" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C74" s="52" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E74" s="94" t="s">
         <v>18</v>
       </c>
       <c r="F74" s="99" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G74" s="99" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -7974,7 +8067,7 @@
     </row>
     <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="46" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B76" s="12" t="s">
         <v>107</v>
@@ -7992,7 +8085,7 @@
     </row>
     <row r="77" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="54" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B77" s="32" t="s">
         <v>107</v>
@@ -8011,22 +8104,22 @@
     <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="45" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B79" s="59" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C79" s="49" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E79" s="61" t="s">
         <v>18</v>
       </c>
       <c r="F79" s="32" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G79" s="115" t="s">
-        <v>7</v>
+        <v>183</v>
       </c>
       <c r="H79" s="64" t="s">
         <v>4</v>
@@ -8043,7 +8136,7 @@
         <v>107</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E80" s="65">
         <v>1</v>
@@ -8052,35 +8145,35 @@
         <v>28</v>
       </c>
       <c r="G80" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H80" s="31"/>
       <c r="I80" s="66"/>
       <c r="J80" s="83"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B81" s="38" t="s">
         <v>107</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E81" s="65">
         <v>2</v>
       </c>
       <c r="F81" s="21"/>
       <c r="G81" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H81" s="31"/>
       <c r="I81" s="66"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="47" t="s">
-        <v>7</v>
+        <v>183</v>
       </c>
       <c r="B82" s="47"/>
       <c r="C82" s="1"/>
@@ -8092,12 +8185,12 @@
       <c r="H82" s="31"/>
       <c r="I82" s="66"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B83" s="38" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C83" s="1"/>
       <c r="E83" s="65"/>
@@ -8106,12 +8199,12 @@
       <c r="H83" s="31"/>
       <c r="I83" s="66"/>
     </row>
-    <row r="84" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="48" t="s">
         <v>3</v>
       </c>
       <c r="B84" s="38" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C84" s="2"/>
       <c r="E84" s="67"/>
@@ -8120,25 +8213,25 @@
       <c r="H84" s="70"/>
       <c r="I84" s="71"/>
     </row>
-    <row r="85" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="86" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="86" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="51" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B86" s="60" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C86" s="52" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E86" s="61" t="s">
         <v>18</v>
       </c>
       <c r="F86" s="72" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G86" s="72" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H86" s="101" t="s">
         <v>13</v>
@@ -8147,7 +8240,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="56" t="s">
         <v>18</v>
       </c>
@@ -8155,10 +8248,10 @@
         <v>107</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D87" s="100" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E87" s="65">
         <v>1</v>
@@ -8170,7 +8263,7 @@
         <v>7</v>
       </c>
       <c r="H87" s="102" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I87" s="102"/>
       <c r="J87" s="63" t="s">
@@ -8180,7 +8273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="56" t="s">
         <v>35</v>
       </c>
@@ -8188,7 +8281,7 @@
         <v>107</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E88" s="65">
         <v>2</v>
@@ -8200,15 +8293,15 @@
       <c r="J88" s="21"/>
       <c r="K88" s="66"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="56" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B89" s="38" t="s">
         <v>107</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E89" s="65">
         <v>3</v>
@@ -8220,9 +8313,9 @@
       <c r="J89" s="21"/>
       <c r="K89" s="66"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="104" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B90" s="105"/>
       <c r="C90" s="106"/>
@@ -8236,9 +8329,9 @@
       <c r="J90" s="21"/>
       <c r="K90" s="66"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="104" t="s">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="B91" s="105"/>
       <c r="C91" s="106"/>
@@ -8252,12 +8345,12 @@
       <c r="J91" s="21"/>
       <c r="K91" s="66"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="57" t="s">
         <v>4</v>
       </c>
       <c r="B92" s="38" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C92" s="1"/>
       <c r="E92" s="65">
@@ -8270,12 +8363,12 @@
       <c r="J92" s="21"/>
       <c r="K92" s="66"/>
     </row>
-    <row r="93" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="58" t="s">
         <v>3</v>
       </c>
       <c r="B93" s="38" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C93" s="2"/>
       <c r="E93" s="67">
@@ -8288,43 +8381,49 @@
       <c r="J93" s="21"/>
       <c r="K93" s="66"/>
     </row>
-    <row r="94" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E94" s="23" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J94" s="110"/>
       <c r="K94" s="71"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="87" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B95" s="87" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C95" s="88" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E95" s="112" t="s">
         <v>23</v>
       </c>
       <c r="F95" s="112" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G95" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="H95" s="63" t="s">
-        <v>160</v>
-      </c>
-      <c r="I95" s="63" t="s">
+      <c r="H95" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="I95" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="J95" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="K95" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="J95" s="107" t="s">
+      <c r="L95" s="107" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="20" t="s">
         <v>23</v>
       </c>
@@ -8332,138 +8431,176 @@
         <v>107</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E96" s="65">
         <v>23</v>
       </c>
       <c r="F96" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G96" s="113" t="s">
         <v>146</v>
-      </c>
-      <c r="G96" s="113" t="s">
-        <v>150</v>
       </c>
       <c r="H96" s="21">
         <v>123456</v>
       </c>
-      <c r="I96" s="108"/>
-      <c r="J96" s="21"/>
+      <c r="I96" s="21">
+        <v>1</v>
+      </c>
+      <c r="J96" s="21">
+        <v>0</v>
+      </c>
+      <c r="K96" s="108"/>
+      <c r="L96" s="21"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="21" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C97" s="21"/>
       <c r="E97" s="65">
         <v>33</v>
       </c>
       <c r="F97" s="21" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G97" s="113" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H97" s="21">
         <v>853697</v>
       </c>
-      <c r="I97" s="108"/>
-      <c r="J97" s="21"/>
+      <c r="I97" s="21">
+        <v>8</v>
+      </c>
+      <c r="J97" s="21">
+        <v>0</v>
+      </c>
+      <c r="K97" s="108"/>
+      <c r="L97" s="21"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C98" s="21" t="s">
-        <v>173</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C98" s="21"/>
       <c r="E98" s="65">
         <v>58</v>
       </c>
       <c r="F98" s="21" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G98" s="113" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H98" s="21">
         <v>421586</v>
       </c>
-      <c r="I98" s="108"/>
-      <c r="J98" s="21"/>
+      <c r="I98" s="21">
+        <v>2</v>
+      </c>
+      <c r="J98" s="21">
+        <v>1</v>
+      </c>
+      <c r="K98" s="108"/>
+      <c r="L98" s="21"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="21" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C99" s="21"/>
       <c r="E99" s="65">
         <v>102</v>
       </c>
       <c r="F99" s="21" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G99" s="113" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H99" s="21">
         <v>754896</v>
       </c>
-      <c r="I99" s="108"/>
-      <c r="J99" s="21"/>
+      <c r="I99" s="21">
+        <v>1</v>
+      </c>
+      <c r="J99" s="21">
+        <v>1</v>
+      </c>
+      <c r="K99" s="108"/>
+      <c r="L99" s="21"/>
     </row>
     <row r="100" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="36" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B100" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="C100" s="21"/>
+        <v>197</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>94</v>
+      </c>
       <c r="E100" s="67">
         <v>200</v>
       </c>
       <c r="F100" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="G100" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="G100" s="114" t="s">
-        <v>153</v>
-      </c>
-      <c r="H100" s="68">
+      <c r="H100" s="21">
         <v>214659</v>
       </c>
-      <c r="I100" s="109"/>
-      <c r="J100" s="21"/>
+      <c r="I100" s="21">
+        <v>8</v>
+      </c>
+      <c r="J100" s="21">
+        <v>0</v>
+      </c>
+      <c r="K100" s="109"/>
+      <c r="L100" s="21"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B101" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C101" s="21"/>
+      <c r="A101" t="s">
+        <v>193</v>
+      </c>
+      <c r="B101" s="34" t="s">
+        <v>195</v>
+      </c>
       <c r="J101" s="3"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B102" s="20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>140</v>
+      <c r="B103" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C103" s="36" t="s">
+        <v>94</v>
       </c>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
@@ -8472,19 +8609,59 @@
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E106" s="112" t="s">
+        <v>23</v>
+      </c>
+      <c r="F106" s="112" t="s">
+        <v>187</v>
+      </c>
+      <c r="G106" s="112" t="s">
+        <v>191</v>
+      </c>
+      <c r="H106" s="63" t="s">
+        <v>192</v>
+      </c>
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E107" s="65">
+        <v>0</v>
+      </c>
+      <c r="F107" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G107" s="113"/>
+      <c r="H107" s="21">
+        <v>123456</v>
+      </c>
       <c r="I107" s="111"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
@@ -8492,6 +8669,23 @@
       <c r="M107" s="3"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" s="130" t="s">
+        <v>187</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C108" s="9"/>
+      <c r="E108" s="65">
+        <v>1</v>
+      </c>
+      <c r="F108" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="G108" s="113"/>
+      <c r="H108" s="21">
+        <v>853697</v>
+      </c>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
@@ -8506,32 +8700,14 @@
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
-      <c r="L110" s="3"/>
-      <c r="M110" s="3"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
-      <c r="L111" s="3"/>
-      <c r="M111" s="3"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
-      <c r="L112" s="3"/>
-      <c r="M112" s="3"/>
-    </row>
-    <row r="113" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J113" s="3"/>
-      <c r="K113" s="3"/>
-    </row>
-    <row r="114" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J114" s="3"/>
-      <c r="K114" s="3"/>
-    </row>
-    <row r="115" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J115" s="3"/>
-      <c r="K115" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/tablas_ base de datos.xlsx
+++ b/tablas_ base de datos.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr checkCompatibility="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <workbookPr checkCompatibility="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\carpetaLaura\TP\VisteteDePoder\VisteteDePoder\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EA48C9-C764-48B6-96EE-CDB38D3D606C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE DE DATOS" sheetId="3" r:id="rId1"/>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="197">
   <si>
     <t>PRODUCTOS</t>
   </si>
@@ -1156,27 +1162,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">image_id </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(FK)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">subcategory_id </t>
     </r>
     <r>
@@ -1278,7 +1263,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1408,7 +1393,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1851,32 +1836,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1942,7 +1901,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -2040,8 +1999,8 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2051,7 +2010,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2060,24 +2019,17 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2130,7 +2082,7 @@
         <xdr:cNvPr id="53" name="Flecha: a la izquierda, derecha y arriba 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3097E1F8-85AD-4C9B-A988-60B813646FDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2190,7 +2142,7 @@
         <xdr:cNvPr id="54" name="Flecha: a la izquierda, derecha y arriba 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB06C2DC-CFEB-43E3-ADDB-925B81771409}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2250,7 +2202,7 @@
         <xdr:cNvPr id="55" name="Flecha: a la izquierda, derecha y arriba 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2310,7 +2262,7 @@
         <xdr:cNvPr id="56" name="Flecha: a la izquierda, derecha y arriba 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A357813C-8AF8-4299-BA91-0A528ED1F6BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2370,7 +2322,7 @@
         <xdr:cNvPr id="57" name="Flecha: a la izquierda, derecha y arriba 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADF86149-9AF8-4979-9898-D92F280DF2FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2430,7 +2382,7 @@
         <xdr:cNvPr id="58" name="Flecha: a la izquierda, derecha y arriba 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A207FFC-329A-4274-9A1D-BEBC97BC4C01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2490,7 +2442,7 @@
         <xdr:cNvPr id="59" name="Flecha: a la izquierda, derecha y arriba 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E1F9FBF-07B9-42FC-AD07-5156F2305EE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2550,7 +2502,7 @@
         <xdr:cNvPr id="20" name="Flecha: a la izquierda, derecha y arriba 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3097E1F8-85AD-4C9B-A988-60B813646FDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2610,7 +2562,7 @@
         <xdr:cNvPr id="22" name="Flecha: a la izquierda, derecha y arriba 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2670,7 +2622,7 @@
         <xdr:cNvPr id="23" name="Flecha: a la izquierda, derecha y arriba 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2730,7 +2682,7 @@
         <xdr:cNvPr id="24" name="Flecha: a la izquierda, derecha y arriba 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54FE6F7-3D15-4ACE-B6E3-A1D7020CBE57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2790,7 +2742,7 @@
         <xdr:cNvPr id="17" name="Flecha: a la izquierda, derecha y arriba 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3097E1F8-85AD-4C9B-A988-60B813646FDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2800,66 +2752,6 @@
         <a:xfrm flipH="1" flipV="1">
           <a:off x="24904698" y="2222500"/>
           <a:ext cx="215901" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftRightUpArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-AR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>526384</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>109202</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>784546</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>97912</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Flecha: a la izquierda, derecha y arriba 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A207FFC-329A-4274-9A1D-BEBC97BC4C01}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="20516351">
-          <a:off x="4310984" y="2877802"/>
-          <a:ext cx="258162" cy="6986410"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightUpArrow">
           <a:avLst/>
@@ -2915,7 +2807,7 @@
         <xdr:cNvPr id="13" name="Conector recto 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2962,7 +2854,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="4 Imagen"/>
+        <xdr:cNvPr id="5" name="4 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3025,7 +2923,7 @@
         <xdr:cNvPr id="2" name="Conector recto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B76CAEE4-09D7-41C5-9067-4444BF67D33E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3080,7 +2978,7 @@
         <xdr:cNvPr id="16" name="Conector recto 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3130,7 +3028,7 @@
         <xdr:cNvPr id="32" name="Conector recto 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3180,7 +3078,7 @@
         <xdr:cNvPr id="35" name="Conector recto 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3230,7 +3128,7 @@
         <xdr:cNvPr id="36" name="Conector recto 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3280,7 +3178,7 @@
         <xdr:cNvPr id="49" name="Conector recto 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3330,7 +3228,7 @@
         <xdr:cNvPr id="51" name="Conector recto 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3380,7 +3278,7 @@
         <xdr:cNvPr id="53" name="Conector recto 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3430,7 +3328,7 @@
         <xdr:cNvPr id="55" name="Conector recto 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3480,7 +3378,7 @@
         <xdr:cNvPr id="56" name="Conector recto 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3530,7 +3428,7 @@
         <xdr:cNvPr id="59" name="Conector recto 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3580,7 +3478,7 @@
         <xdr:cNvPr id="61" name="Conector recto 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3630,7 +3528,7 @@
         <xdr:cNvPr id="63" name="Conector recto 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3680,7 +3578,7 @@
         <xdr:cNvPr id="66" name="Conector recto 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3730,7 +3628,7 @@
         <xdr:cNvPr id="68" name="Conector recto 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3780,7 +3678,7 @@
         <xdr:cNvPr id="71" name="Conector recto 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3830,7 +3728,7 @@
         <xdr:cNvPr id="73" name="Conector recto 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3880,7 +3778,7 @@
         <xdr:cNvPr id="74" name="Conector recto 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3930,7 +3828,7 @@
         <xdr:cNvPr id="76" name="Conector recto 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3980,7 +3878,7 @@
         <xdr:cNvPr id="81" name="Conector recto 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4030,7 +3928,7 @@
         <xdr:cNvPr id="82" name="Conector recto 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4080,7 +3978,7 @@
         <xdr:cNvPr id="86" name="Conector recto 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000056000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4130,7 +4028,7 @@
         <xdr:cNvPr id="87" name="Conector recto 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000057000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4180,7 +4078,7 @@
         <xdr:cNvPr id="90" name="Conector recto 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4230,7 +4128,7 @@
         <xdr:cNvPr id="91" name="Conector recto 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4280,7 +4178,7 @@
         <xdr:cNvPr id="92" name="Conector recto 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4330,7 +4228,7 @@
         <xdr:cNvPr id="93" name="Conector recto 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4380,7 +4278,7 @@
         <xdr:cNvPr id="100" name="Conector recto 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4430,7 +4328,7 @@
         <xdr:cNvPr id="101" name="Conector recto 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4480,7 +4378,7 @@
         <xdr:cNvPr id="106" name="Conector recto 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4530,7 +4428,7 @@
         <xdr:cNvPr id="108" name="Conector recto 107">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4580,7 +4478,7 @@
         <xdr:cNvPr id="109" name="Conector recto 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4630,7 +4528,7 @@
         <xdr:cNvPr id="111" name="Conector recto 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4680,7 +4578,7 @@
         <xdr:cNvPr id="114" name="Conector recto 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000072000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4730,7 +4628,7 @@
         <xdr:cNvPr id="116" name="Conector recto 115">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000074000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4780,7 +4678,7 @@
         <xdr:cNvPr id="128" name="Conector recto 127">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000080000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4830,7 +4728,7 @@
         <xdr:cNvPr id="130" name="Conector recto 129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000082000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4880,7 +4778,7 @@
         <xdr:cNvPr id="131" name="Conector recto 130">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000083000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4930,7 +4828,7 @@
         <xdr:cNvPr id="132" name="Conector recto 131">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000084000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4980,7 +4878,7 @@
         <xdr:cNvPr id="133" name="Conector recto 132">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000085000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5030,7 +4928,7 @@
         <xdr:cNvPr id="136" name="Conector recto 135">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000088000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5080,7 +4978,7 @@
         <xdr:cNvPr id="139" name="Conector recto 138">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00008B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5130,7 +5028,7 @@
         <xdr:cNvPr id="141" name="Conector recto 140">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00008D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5180,7 +5078,7 @@
         <xdr:cNvPr id="142" name="Conector recto 141">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00008E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5230,7 +5128,7 @@
         <xdr:cNvPr id="143" name="Conector recto 142">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00008F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5554,18 +5452,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView topLeftCell="L2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5624,13 +5522,13 @@
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
-      <c r="R3" s="131" t="s">
-        <v>185</v>
-      </c>
-      <c r="S3" s="132" t="s">
+      <c r="R3" s="124" t="s">
+        <v>184</v>
+      </c>
+      <c r="S3" s="125" t="s">
         <v>154</v>
       </c>
-      <c r="T3" s="132" t="s">
+      <c r="T3" s="125" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5659,11 +5557,11 @@
       <c r="P4" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="R4" s="133" t="s">
+      <c r="R4" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="134"/>
-      <c r="T4" s="134"/>
+      <c r="S4" s="127"/>
+      <c r="T4" s="127"/>
     </row>
     <row r="5" spans="2:20" ht="21" x14ac:dyDescent="0.35">
       <c r="B5" s="47" t="s">
@@ -5687,11 +5585,11 @@
       </c>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
-      <c r="R5" s="133" t="s">
+      <c r="R5" s="126" t="s">
         <v>117</v>
       </c>
-      <c r="S5" s="134"/>
-      <c r="T5" s="134"/>
+      <c r="S5" s="127"/>
+      <c r="T5" s="127"/>
     </row>
     <row r="6" spans="2:20" ht="21" x14ac:dyDescent="0.35">
       <c r="B6" s="47" t="s">
@@ -5713,11 +5611,11 @@
       </c>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
-      <c r="R6" s="135" t="s">
+      <c r="R6" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="136"/>
-      <c r="T6" s="136"/>
+      <c r="S6" s="129"/>
+      <c r="T6" s="129"/>
     </row>
     <row r="7" spans="2:20" ht="21" x14ac:dyDescent="0.35">
       <c r="B7" s="47" t="s">
@@ -5739,20 +5637,20 @@
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="R7" s="135" t="s">
+      <c r="R7" s="128" t="s">
         <v>156</v>
       </c>
-      <c r="S7" s="136"/>
-      <c r="T7" s="136"/>
+      <c r="S7" s="129"/>
+      <c r="T7" s="129"/>
     </row>
     <row r="8" spans="2:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="B8" s="124" t="s">
-        <v>181</v>
-      </c>
-      <c r="C8" s="125" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="125"/>
+      <c r="B8" s="116" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="118" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="118"/>
       <c r="E8" s="3"/>
       <c r="J8" s="57" t="s">
         <v>4</v>
@@ -5764,20 +5662,20 @@
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="R8" s="135" t="s">
+      <c r="R8" s="128" t="s">
         <v>130</v>
       </c>
-      <c r="S8" s="136"/>
-      <c r="T8" s="136"/>
+      <c r="S8" s="129"/>
+      <c r="T8" s="129"/>
     </row>
     <row r="9" spans="2:20" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="126" t="s">
-        <v>182</v>
-      </c>
-      <c r="C9" s="121" t="s">
+      <c r="B9" s="119" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="117" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="121" t="s">
+      <c r="D9" s="117" t="s">
         <v>106</v>
       </c>
       <c r="E9" s="3"/>
@@ -5791,20 +5689,20 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="R9" s="135" t="s">
-        <v>186</v>
-      </c>
-      <c r="S9" s="136"/>
-      <c r="T9" s="136"/>
+      <c r="R9" s="128" t="s">
+        <v>185</v>
+      </c>
+      <c r="S9" s="129"/>
+      <c r="T9" s="129"/>
     </row>
     <row r="10" spans="2:20" ht="21" x14ac:dyDescent="0.35">
       <c r="B10" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="121" t="s">
+      <c r="C10" s="117" t="s">
         <v>180</v>
       </c>
-      <c r="D10" s="121" t="s">
+      <c r="D10" s="117" t="s">
         <v>94</v>
       </c>
       <c r="E10" s="3"/>
@@ -5814,31 +5712,31 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="R10" s="135" t="s">
+      <c r="R10" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="S10" s="136"/>
-      <c r="T10" s="136"/>
+      <c r="S10" s="129"/>
+      <c r="T10" s="129"/>
     </row>
     <row r="11" spans="2:20" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="127" t="s">
+      <c r="B11" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="121" t="s">
         <v>180</v>
       </c>
-      <c r="D11" s="129" t="s">
+      <c r="D11" s="122" t="s">
         <v>94</v>
       </c>
       <c r="E11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="R11" s="137" t="s">
+      <c r="R11" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="S11" s="138"/>
-      <c r="T11" s="138"/>
+      <c r="S11" s="131"/>
+      <c r="T11" s="131"/>
     </row>
     <row r="12" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="38"/>
@@ -5889,7 +5787,7 @@
       <c r="M15" s="4"/>
       <c r="P15" s="27"/>
       <c r="R15" s="45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S15" s="10" t="s">
         <v>154</v>
@@ -5919,7 +5817,7 @@
       <c r="I17" s="3"/>
       <c r="M17" s="3"/>
       <c r="R17" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -5967,7 +5865,7 @@
       <c r="L20" s="9"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="47" t="s">
@@ -5979,6 +5877,9 @@
       <c r="Q21" s="23"/>
     </row>
     <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="51" t="s">
+        <v>85</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="47" t="s">
@@ -5992,8 +5893,8 @@
       <c r="A23" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>15</v>
+      <c r="B23" s="45" t="s">
+        <v>22</v>
       </c>
       <c r="E23" s="3"/>
       <c r="I23" s="3"/>
@@ -6066,9 +5967,6 @@
       <c r="A28" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="51" t="s">
-        <v>84</v>
-      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="51" t="s">
         <v>21</v>
@@ -6095,8 +5993,8 @@
       <c r="A29" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="45" t="s">
-        <v>30</v>
+      <c r="B29" s="51" t="s">
+        <v>84</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="46" t="s">
@@ -6126,7 +6024,7 @@
         <v>110</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F30" s="46" t="s">
         <v>132</v>
@@ -6139,7 +6037,7 @@
       <c r="J30" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="K30" s="121" t="s">
+      <c r="K30" s="117" t="s">
         <v>180</v>
       </c>
       <c r="L30" s="1" t="s">
@@ -6162,10 +6060,10 @@
         <v>107</v>
       </c>
       <c r="H31" s="55"/>
-      <c r="J31" s="127" t="s">
+      <c r="J31" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="K31" s="121" t="s">
+      <c r="K31" s="117" t="s">
         <v>180</v>
       </c>
       <c r="L31" s="2" t="s">
@@ -6383,23 +6281,14 @@
       <c r="L45" s="2"/>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F47" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>101</v>
-      </c>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
@@ -6407,111 +6296,70 @@
       <c r="M47" s="3"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F48" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="117" t="s">
-        <v>107</v>
-      </c>
-      <c r="H48" s="118" t="s">
-        <v>103</v>
-      </c>
       <c r="I48" s="43"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
     </row>
-    <row r="49" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F49" s="119" t="s">
-        <v>130</v>
-      </c>
-      <c r="G49" s="89" t="s">
-        <v>140</v>
-      </c>
-      <c r="H49" s="120"/>
+    <row r="49" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I49" s="43"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F50" s="119" t="s">
-        <v>131</v>
-      </c>
-      <c r="G50" s="117" t="s">
-        <v>107</v>
-      </c>
-      <c r="H50" s="120"/>
+    <row r="50" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I50" s="43"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
     </row>
-    <row r="51" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F51" s="119" t="s">
-        <v>4</v>
-      </c>
-      <c r="G51" s="121" t="s">
-        <v>180</v>
-      </c>
-      <c r="H51" s="120" t="s">
-        <v>94</v>
-      </c>
+    <row r="51" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I51" s="43"/>
       <c r="M51" s="3"/>
     </row>
-    <row r="52" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F52" s="122" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="121" t="s">
-        <v>180</v>
-      </c>
-      <c r="H52" s="123" t="s">
-        <v>94</v>
-      </c>
+    <row r="52" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I52" s="44"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
     </row>
-    <row r="53" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="9:13" x14ac:dyDescent="0.25">
       <c r="M54" s="4"/>
     </row>
-    <row r="55" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="9:13" x14ac:dyDescent="0.25">
       <c r="M55" s="4"/>
     </row>
-    <row r="56" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="9:13" x14ac:dyDescent="0.25">
       <c r="M56" s="3"/>
     </row>
-    <row r="57" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:13" x14ac:dyDescent="0.25">
       <c r="M57" s="3"/>
     </row>
-    <row r="58" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="9:13" x14ac:dyDescent="0.25">
       <c r="M58" s="3"/>
     </row>
-    <row r="59" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:13" x14ac:dyDescent="0.25">
       <c r="M59" s="3"/>
     </row>
-    <row r="60" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="9:13" x14ac:dyDescent="0.25">
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="62" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:13" x14ac:dyDescent="0.25">
       <c r="M62" s="3"/>
     </row>
-    <row r="63" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="9:13" x14ac:dyDescent="0.25">
       <c r="M63" s="3"/>
     </row>
-    <row r="64" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="9:13" x14ac:dyDescent="0.25">
       <c r="M64" s="3"/>
     </row>
     <row r="65" spans="13:13" x14ac:dyDescent="0.25">
@@ -6531,10 +6379,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+    <sheetView topLeftCell="A95" workbookViewId="0">
       <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
@@ -8119,7 +7967,7 @@
         <v>157</v>
       </c>
       <c r="G79" s="115" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H79" s="64" t="s">
         <v>4</v>
@@ -8173,7 +8021,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="47" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B82" s="47"/>
       <c r="C82" s="1"/>
@@ -8331,7 +8179,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="104" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B91" s="105"/>
       <c r="C91" s="106"/>
@@ -8414,7 +8262,7 @@
         <v>168</v>
       </c>
       <c r="J95" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K95" s="63" t="s">
         <v>4</v>
@@ -8546,7 +8394,7 @@
         <v>168</v>
       </c>
       <c r="B100" s="34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C100" s="21" t="s">
         <v>94</v>
@@ -8574,10 +8422,10 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B101" s="34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J101" s="3"/>
     </row>
@@ -8617,7 +8465,7 @@
     </row>
     <row r="106" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B106" s="10" t="s">
         <v>154</v>
@@ -8629,13 +8477,13 @@
         <v>23</v>
       </c>
       <c r="F106" s="112" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G106" s="112" t="s">
+        <v>190</v>
+      </c>
+      <c r="H106" s="63" t="s">
         <v>191</v>
-      </c>
-      <c r="H106" s="63" t="s">
-        <v>192</v>
       </c>
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
@@ -8650,13 +8498,13 @@
         <v>107</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E107" s="65">
         <v>0</v>
       </c>
       <c r="F107" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G107" s="113"/>
       <c r="H107" s="21">
@@ -8669,8 +8517,8 @@
       <c r="M107" s="3"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108" s="130" t="s">
-        <v>187</v>
+      <c r="A108" s="123" t="s">
+        <v>186</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>140</v>
@@ -8680,7 +8528,7 @@
         <v>1</v>
       </c>
       <c r="F108" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G108" s="113"/>
       <c r="H108" s="21">
@@ -8711,11 +8559,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G96" r:id="rId1"/>
-    <hyperlink ref="G97" r:id="rId2"/>
-    <hyperlink ref="G98" r:id="rId3"/>
-    <hyperlink ref="G99" r:id="rId4"/>
-    <hyperlink ref="G100" r:id="rId5"/>
+    <hyperlink ref="G96" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="G97" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="G98" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="G99" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="G100" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -8724,7 +8572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:L89"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
@@ -9870,7 +9718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:K36"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
@@ -10301,7 +10149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
